--- a/data/vintage_data/data_20081110.xlsx
+++ b/data/vintage_data/data_20081110.xlsx
@@ -15545,9 +15545,7 @@
       <c r="V101" t="n">
         <v>-4.702404585122729</v>
       </c>
-      <c r="W101" t="n">
-        <v>6.6085</v>
-      </c>
+      <c r="W101" t="inlineStr"/>
       <c r="X101" t="inlineStr"/>
     </row>
   </sheetData>
@@ -23156,16 +23154,16 @@
       <c r="M101" t="inlineStr"/>
       <c r="N101" t="inlineStr"/>
       <c r="O101" t="inlineStr"/>
-      <c r="P101" t="inlineStr"/>
+      <c r="P101" t="n">
+        <v>-47.35208708671777</v>
+      </c>
       <c r="Q101" t="inlineStr"/>
       <c r="R101" t="inlineStr"/>
       <c r="S101" t="inlineStr"/>
       <c r="T101" t="inlineStr"/>
       <c r="U101" t="inlineStr"/>
       <c r="V101" t="inlineStr"/>
-      <c r="W101" t="n">
-        <v>6.5</v>
-      </c>
+      <c r="W101" t="inlineStr"/>
       <c r="X101" t="inlineStr"/>
     </row>
   </sheetData>
@@ -30782,7 +30780,9 @@
       <c r="O101" t="n">
         <v>936.2365165135385</v>
       </c>
-      <c r="P101" t="inlineStr"/>
+      <c r="P101" t="n">
+        <v>-47.35208708671777</v>
+      </c>
       <c r="Q101" t="inlineStr"/>
       <c r="R101" t="inlineStr"/>
       <c r="S101" t="inlineStr"/>
@@ -30793,9 +30793,7 @@
       <c r="V101" t="n">
         <v>-4.702404585122729</v>
       </c>
-      <c r="W101" t="n">
-        <v>6.5</v>
-      </c>
+      <c r="W101" t="inlineStr"/>
       <c r="X101" t="inlineStr"/>
     </row>
   </sheetData>

--- a/data/vintage_data/data_20081110.xlsx
+++ b/data/vintage_data/data_20081110.xlsx
@@ -361,7 +361,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X100"/>
+  <dimension ref="A1:Z100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,10 +477,20 @@
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
+          <t>mortffr_obs</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>mortgage_nom_obs</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
           <t>unr_obs</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>wage_rgd_obs</t>
         </is>
@@ -554,9 +564,15 @@
         <v>3.339400681539008</v>
       </c>
       <c r="W2" t="n">
+        <v>0.6303571428571426</v>
+      </c>
+      <c r="X2" t="n">
+        <v>2.447779857357557</v>
+      </c>
+      <c r="Y2" t="n">
         <v>7.866666666666667</v>
       </c>
-      <c r="X2" t="n">
+      <c r="Z2" t="n">
         <v>0.0187856805383563</v>
       </c>
     </row>
@@ -628,9 +644,15 @@
         <v>2.681724951117663</v>
       </c>
       <c r="W3" t="n">
+        <v>0.3996520146520153</v>
+      </c>
+      <c r="X3" t="n">
+        <v>2.884840292812955</v>
+      </c>
+      <c r="Y3" t="n">
         <v>7.433333333333334</v>
       </c>
-      <c r="X3" t="n">
+      <c r="Z3" t="n">
         <v>0.08341637990603153</v>
       </c>
     </row>
@@ -702,9 +724,15 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
+        <v>0.3219293478260878</v>
+      </c>
+      <c r="X4" t="n">
+        <v>2.825415705076066</v>
+      </c>
+      <c r="Y4" t="n">
         <v>7.433333333333334</v>
       </c>
-      <c r="X4" t="n">
+      <c r="Z4" t="n">
         <v>0.5550377060815963</v>
       </c>
     </row>
@@ -776,9 +804,15 @@
         <v>0.8781615160384618</v>
       </c>
       <c r="W5" t="n">
+        <v>0.9002083333333348</v>
+      </c>
+      <c r="X5" t="n">
+        <v>2.585374281902362</v>
+      </c>
+      <c r="Y5" t="n">
         <v>7.300000000000001</v>
       </c>
-      <c r="X5" t="n">
+      <c r="Z5" t="n">
         <v>0.1708529278791655</v>
       </c>
     </row>
@@ -850,9 +884,15 @@
         <v>0.163800200423837</v>
       </c>
       <c r="W6" t="n">
+        <v>0.970388888888889</v>
+      </c>
+      <c r="X6" t="n">
+        <v>4.838279261661252</v>
+      </c>
+      <c r="Y6" t="n">
         <v>7.233333333333333</v>
       </c>
-      <c r="X6" t="n">
+      <c r="Z6" t="n">
         <v>0.0936451387024257</v>
       </c>
     </row>
@@ -924,9 +964,15 @@
         <v>0.9772064733792302</v>
       </c>
       <c r="W7" t="n">
+        <v>1.014734432234433</v>
+      </c>
+      <c r="X7" t="n">
+        <v>2.887889102968135</v>
+      </c>
+      <c r="Y7" t="n">
         <v>7.3</v>
       </c>
-      <c r="X7" t="n">
+      <c r="Z7" t="n">
         <v>0.2652226031985177</v>
       </c>
     </row>
@@ -998,9 +1044,15 @@
         <v>1.979203413194857</v>
       </c>
       <c r="W8" t="n">
+        <v>0.8547554347826087</v>
+      </c>
+      <c r="X8" t="n">
+        <v>4.283328736272085</v>
+      </c>
+      <c r="Y8" t="n">
         <v>7.2</v>
       </c>
-      <c r="X8" t="n">
+      <c r="Z8" t="n">
         <v>0.9137733930902497</v>
       </c>
     </row>
@@ -1072,9 +1124,15 @@
         <v>3.487212571402014</v>
       </c>
       <c r="W9" t="n">
+        <v>0.7705525362318832</v>
+      </c>
+      <c r="X9" t="n">
+        <v>3.377405381157359</v>
+      </c>
+      <c r="Y9" t="n">
         <v>7.033333333333334</v>
       </c>
-      <c r="X9" t="n">
+      <c r="Z9" t="n">
         <v>1.131977420649275</v>
       </c>
     </row>
@@ -1146,9 +1204,15 @@
         <v>5.377104065178582</v>
       </c>
       <c r="W10" t="n">
+        <v>0.7299444444444461</v>
+      </c>
+      <c r="X10" t="n">
+        <v>1.821793037383781</v>
+      </c>
+      <c r="Y10" t="n">
         <v>7.033333333333334</v>
       </c>
-      <c r="X10" t="n">
+      <c r="Z10" t="n">
         <v>0.8327718915132062</v>
       </c>
     </row>
@@ -1220,9 +1284,15 @@
         <v>6.338662189231478</v>
       </c>
       <c r="W11" t="n">
+        <v>0.8312179487179467</v>
+      </c>
+      <c r="X11" t="n">
+        <v>3.266066946893799</v>
+      </c>
+      <c r="Y11" t="n">
         <v>7.166666666666667</v>
       </c>
-      <c r="X11" t="n">
+      <c r="Z11" t="n">
         <v>0.3604664869711737</v>
       </c>
     </row>
@@ -1294,9 +1364,15 @@
         <v>2.825933731440306</v>
       </c>
       <c r="W12" t="n">
+        <v>0.9993025362318846</v>
+      </c>
+      <c r="X12" t="n">
+        <v>3.995249609571855</v>
+      </c>
+      <c r="Y12" t="n">
         <v>6.966666666666666</v>
       </c>
-      <c r="X12" t="n">
+      <c r="Z12" t="n">
         <v>0.3346420717301988</v>
       </c>
     </row>
@@ -1368,9 +1444,15 @@
         <v>0.9683174251825857</v>
       </c>
       <c r="W13" t="n">
+        <v>0.8933152173913048</v>
+      </c>
+      <c r="X13" t="n">
+        <v>3.767756284239854</v>
+      </c>
+      <c r="Y13" t="n">
         <v>6.833333333333333</v>
       </c>
-      <c r="X13" t="n">
+      <c r="Z13" t="n">
         <v>0.9439049497590892</v>
       </c>
     </row>
@@ -1442,9 +1524,15 @@
         <v>0.7853443505570304</v>
       </c>
       <c r="W14" t="n">
+        <v>0.7668611111111105</v>
+      </c>
+      <c r="X14" t="n">
+        <v>1.947735118636464</v>
+      </c>
+      <c r="Y14" t="n">
         <v>6.599999999999999</v>
       </c>
-      <c r="X14" t="n">
+      <c r="Z14" t="n">
         <v>-0.6129512377825054</v>
       </c>
     </row>
@@ -1516,9 +1604,15 @@
         <v>1.209517984897514</v>
       </c>
       <c r="W15" t="n">
+        <v>0.6541666666666672</v>
+      </c>
+      <c r="X15" t="n">
+        <v>4.147767327829527</v>
+      </c>
+      <c r="Y15" t="n">
         <v>6.266666666666667</v>
       </c>
-      <c r="X15" t="n">
+      <c r="Z15" t="n">
         <v>0.4206078914575486</v>
       </c>
     </row>
@@ -1590,9 +1684,15 @@
         <v>0.5566274273321643</v>
       </c>
       <c r="W16" t="n">
+        <v>0.6326086956521739</v>
+      </c>
+      <c r="X16" t="n">
+        <v>2.826774900665543</v>
+      </c>
+      <c r="Y16" t="n">
         <v>6</v>
       </c>
-      <c r="X16" t="n">
+      <c r="Z16" t="n">
         <v>0.2696876592827458</v>
       </c>
     </row>
@@ -1664,9 +1764,15 @@
         <v>1.399217231107909</v>
       </c>
       <c r="W17" t="n">
+        <v>0.5842481884057971</v>
+      </c>
+      <c r="X17" t="n">
+        <v>1.41489184132428</v>
+      </c>
+      <c r="Y17" t="n">
         <v>5.833333333333333</v>
       </c>
-      <c r="X17" t="n">
+      <c r="Z17" t="n">
         <v>0.557371050331582</v>
       </c>
     </row>
@@ -1738,9 +1844,15 @@
         <v>-1.31385657718383</v>
       </c>
       <c r="W18" t="n">
+        <v>0.6285164835164825</v>
+      </c>
+      <c r="X18" t="n">
+        <v>2.538290967561651</v>
+      </c>
+      <c r="Y18" t="n">
         <v>5.7</v>
       </c>
-      <c r="X18" t="n">
+      <c r="Z18" t="n">
         <v>0.7435998434387213</v>
       </c>
     </row>
@@ -1812,9 +1924,15 @@
         <v>1.692087748833718</v>
       </c>
       <c r="W19" t="n">
+        <v>0.5179304029304042</v>
+      </c>
+      <c r="X19" t="n">
+        <v>3.489634163901059</v>
+      </c>
+      <c r="Y19" t="n">
         <v>5.466666666666666</v>
       </c>
-      <c r="X19" t="n">
+      <c r="Z19" t="n">
         <v>0.1473501260968532</v>
       </c>
     </row>
@@ -1886,9 +2004,15 @@
         <v>0.6688988150796489</v>
       </c>
       <c r="W20" t="n">
+        <v>0.3266304347826092</v>
+      </c>
+      <c r="X20" t="n">
+        <v>2.91823679065083</v>
+      </c>
+      <c r="Y20" t="n">
         <v>5.466666666666666</v>
       </c>
-      <c r="X20" t="n">
+      <c r="Z20" t="n">
         <v>-0.03367691419229579</v>
       </c>
     </row>
@@ -1960,9 +2084,15 @@
         <v>1.816730395544893</v>
       </c>
       <c r="W21" t="n">
+        <v>0.2487137681159424</v>
+      </c>
+      <c r="X21" t="n">
+        <v>2.726497326586302</v>
+      </c>
+      <c r="Y21" t="n">
         <v>5.333333333333333</v>
       </c>
-      <c r="X21" t="n">
+      <c r="Z21" t="n">
         <v>-0.1885353706679958</v>
       </c>
     </row>
@@ -2034,9 +2164,15 @@
         <v>0.08179959556317626</v>
       </c>
       <c r="W22" t="n">
+        <v>0.08588888888888979</v>
+      </c>
+      <c r="X22" t="n">
+        <v>1.643544561454601</v>
+      </c>
+      <c r="Y22" t="n">
         <v>5.2</v>
       </c>
-      <c r="X22" t="n">
+      <c r="Z22" t="n">
         <v>-0.7141146922364958</v>
       </c>
     </row>
@@ -2108,9 +2244,15 @@
         <v>-1.815231360718883</v>
       </c>
       <c r="W23" t="n">
+        <v>0.1560714285714275</v>
+      </c>
+      <c r="X23" t="n">
+        <v>2.721931283633474</v>
+      </c>
+      <c r="Y23" t="n">
         <v>5.233333333333333</v>
       </c>
-      <c r="X23" t="n">
+      <c r="Z23" t="n">
         <v>-0.7057968438876389</v>
       </c>
     </row>
@@ -2182,9 +2324,15 @@
         <v>-0.7521974454688446</v>
       </c>
       <c r="W24" t="n">
+        <v>0.2882699275362324</v>
+      </c>
+      <c r="X24" t="n">
+        <v>2.947527669609471</v>
+      </c>
+      <c r="Y24" t="n">
         <v>5.233333333333333</v>
       </c>
-      <c r="X24" t="n">
+      <c r="Z24" t="n">
         <v>0.08528008334099503</v>
       </c>
     </row>
@@ -2256,9 +2404,15 @@
         <v>-1.521584723725332</v>
       </c>
       <c r="W25" t="n">
+        <v>0.3705525362318833</v>
+      </c>
+      <c r="X25" t="n">
+        <v>2.213323210101831</v>
+      </c>
+      <c r="Y25" t="n">
         <v>5.366666666666667</v>
       </c>
-      <c r="X25" t="n">
+      <c r="Z25" t="n">
         <v>0.6407714198461927</v>
       </c>
     </row>
@@ -2330,9 +2484,15 @@
         <v>1.856593412253519</v>
       </c>
       <c r="W26" t="n">
+        <v>0.4446666666666679</v>
+      </c>
+      <c r="X26" t="n">
+        <v>3.257750385284998</v>
+      </c>
+      <c r="Y26" t="n">
         <v>5.3</v>
       </c>
-      <c r="X26" t="n">
+      <c r="Z26" t="n">
         <v>0.6923077894278937</v>
       </c>
     </row>
@@ -2404,9 +2564,15 @@
         <v>-3.531530571602695</v>
       </c>
       <c r="W27" t="n">
+        <v>0.4802481684981683</v>
+      </c>
+      <c r="X27" t="n">
+        <v>2.560864642558711</v>
+      </c>
+      <c r="Y27" t="n">
         <v>5.333333333333333</v>
       </c>
-      <c r="X27" t="n">
+      <c r="Z27" t="n">
         <v>0.9561899198492235</v>
       </c>
     </row>
@@ -2478,9 +2644,15 @@
         <v>-5.382664581262346</v>
       </c>
       <c r="W28" t="n">
+        <v>0.4706123188405811</v>
+      </c>
+      <c r="X28" t="n">
+        <v>2.122346525019553</v>
+      </c>
+      <c r="Y28" t="n">
         <v>5.7</v>
       </c>
-      <c r="X28" t="n">
+      <c r="Z28" t="n">
         <v>0.6269900166253765</v>
       </c>
     </row>
@@ -2552,9 +2724,15 @@
         <v>-5.543927728245711</v>
       </c>
       <c r="W29" t="n">
+        <v>0.5443242753623196</v>
+      </c>
+      <c r="X29" t="n">
+        <v>1.724470643360993</v>
+      </c>
+      <c r="Y29" t="n">
         <v>6.133333333333334</v>
       </c>
-      <c r="X29" t="n">
+      <c r="Z29" t="n">
         <v>0.08200849935616793</v>
       </c>
     </row>
@@ -2626,9 +2804,15 @@
         <v>-5.869411928637701</v>
       </c>
       <c r="W30" t="n">
+        <v>0.8115555555555565</v>
+      </c>
+      <c r="X30" t="n">
+        <v>1.59167876108484</v>
+      </c>
+      <c r="Y30" t="n">
         <v>6.600000000000001</v>
       </c>
-      <c r="X30" t="n">
+      <c r="Z30" t="n">
         <v>-0.3433735223151068</v>
       </c>
     </row>
@@ -2700,9 +2884,15 @@
         <v>2.778658182330028</v>
       </c>
       <c r="W31" t="n">
+        <v>0.9039835164835168</v>
+      </c>
+      <c r="X31" t="n">
+        <v>2.382521088255797</v>
+      </c>
+      <c r="Y31" t="n">
         <v>6.833333333333333</v>
       </c>
-      <c r="X31" t="n">
+      <c r="Z31" t="n">
         <v>1.202893412487421</v>
       </c>
     </row>
@@ -2774,9 +2964,15 @@
         <v>4.67238269063617</v>
       </c>
       <c r="W32" t="n">
+        <v>0.9203623188405803</v>
+      </c>
+      <c r="X32" t="n">
+        <v>0.9190509855307156</v>
+      </c>
+      <c r="Y32" t="n">
         <v>6.866666666666667</v>
       </c>
-      <c r="X32" t="n">
+      <c r="Z32" t="n">
         <v>0.3906350604859103</v>
       </c>
     </row>
@@ -2848,9 +3044,15 @@
         <v>1.837507530499412</v>
       </c>
       <c r="W33" t="n">
+        <v>0.9803804347826088</v>
+      </c>
+      <c r="X33" t="n">
+        <v>2.022589372440903</v>
+      </c>
+      <c r="Y33" t="n">
         <v>7.100000000000001</v>
       </c>
-      <c r="X33" t="n">
+      <c r="Z33" t="n">
         <v>0.5721631092897534</v>
       </c>
     </row>
@@ -2922,9 +3124,15 @@
         <v>4.652001563489291</v>
       </c>
       <c r="W34" t="n">
+        <v>1.093928571428571</v>
+      </c>
+      <c r="X34" t="n">
+        <v>1.503099379549398</v>
+      </c>
+      <c r="Y34" t="n">
         <v>7.366666666666667</v>
       </c>
-      <c r="X34" t="n">
+      <c r="Z34" t="n">
         <v>1.228339555379489</v>
       </c>
     </row>
@@ -2996,9 +3204,15 @@
         <v>4.658078189748251</v>
       </c>
       <c r="W35" t="n">
+        <v>1.173150183150183</v>
+      </c>
+      <c r="X35" t="n">
+        <v>1.211165913037192</v>
+      </c>
+      <c r="Y35" t="n">
         <v>7.600000000000001</v>
       </c>
-      <c r="X35" t="n">
+      <c r="Z35" t="n">
         <v>0.2624515558078852</v>
       </c>
     </row>
@@ -3070,9 +3284,15 @@
         <v>0.931420789569421</v>
       </c>
       <c r="W36" t="n">
+        <v>1.159356884057971</v>
+      </c>
+      <c r="X36" t="n">
+        <v>1.974645713851098</v>
+      </c>
+      <c r="Y36" t="n">
         <v>7.633333333333333</v>
       </c>
-      <c r="X36" t="n">
+      <c r="Z36" t="n">
         <v>1.054626980296685</v>
       </c>
     </row>
@@ -3144,9 +3364,15 @@
         <v>4.65200156348927</v>
       </c>
       <c r="W37" t="n">
+        <v>1.183777173913043</v>
+      </c>
+      <c r="X37" t="n">
+        <v>1.59825088905419</v>
+      </c>
+      <c r="Y37" t="n">
         <v>7.366666666666667</v>
       </c>
-      <c r="X37" t="n">
+      <c r="Z37" t="n">
         <v>-0.1371025309882777</v>
       </c>
     </row>
@@ -3218,9 +3444,15 @@
         <v>1.596203083978002</v>
       </c>
       <c r="W38" t="n">
+        <v>1.13275</v>
+      </c>
+      <c r="X38" t="n">
+        <v>0.4850840317691807</v>
+      </c>
+      <c r="Y38" t="n">
         <v>7.133333333333333</v>
       </c>
-      <c r="X38" t="n">
+      <c r="Z38" t="n">
         <v>-0.6124616996794719</v>
       </c>
     </row>
@@ -3292,9 +3524,15 @@
         <v>2.076470297090824</v>
       </c>
       <c r="W39" t="n">
+        <v>1.06985347985348</v>
+      </c>
+      <c r="X39" t="n">
+        <v>1.861439197710495</v>
+      </c>
+      <c r="Y39" t="n">
         <v>7.066666666666666</v>
       </c>
-      <c r="X39" t="n">
+      <c r="Z39" t="n">
         <v>-0.176749109855844</v>
       </c>
     </row>
@@ -3366,9 +3604,15 @@
         <v>4.325408693025432</v>
       </c>
       <c r="W40" t="n">
+        <v>0.9964039855072462</v>
+      </c>
+      <c r="X40" t="n">
+        <v>1.710166196199506</v>
+      </c>
+      <c r="Y40" t="n">
         <v>6.8</v>
       </c>
-      <c r="X40" t="n">
+      <c r="Z40" t="n">
         <v>-0.02716379543587344</v>
       </c>
     </row>
@@ -3440,9 +3684,15 @@
         <v>5.350028904258899</v>
       </c>
       <c r="W41" t="n">
+        <v>0.9521014492753619</v>
+      </c>
+      <c r="X41" t="n">
+        <v>1.380735594952812</v>
+      </c>
+      <c r="Y41" t="n">
         <v>6.633333333333333</v>
       </c>
-      <c r="X41" t="n">
+      <c r="Z41" t="n">
         <v>-0.1209793860945706</v>
       </c>
     </row>
@@ -3516,9 +3766,15 @@
         <v>3.118755885670458</v>
       </c>
       <c r="W42" t="n">
+        <v>0.9268333333333333</v>
+      </c>
+      <c r="X42" t="n">
+        <v>1.004696775533694</v>
+      </c>
+      <c r="Y42" t="n">
         <v>6.566666666666666</v>
       </c>
-      <c r="X42" t="n">
+      <c r="Z42" t="n">
         <v>0.4924393736602579</v>
       </c>
     </row>
@@ -3592,9 +3848,15 @@
         <v>3.881383827481651</v>
       </c>
       <c r="W43" t="n">
+        <v>0.8729945054945051</v>
+      </c>
+      <c r="X43" t="n">
+        <v>1.477308904247951</v>
+      </c>
+      <c r="Y43" t="n">
         <v>6.2</v>
       </c>
-      <c r="X43" t="n">
+      <c r="Z43" t="n">
         <v>-0.6396724750905918</v>
       </c>
     </row>
@@ -3668,9 +3930,15 @@
         <v>0.03281378208278333</v>
       </c>
       <c r="W44" t="n">
+        <v>0.8086413043478262</v>
+      </c>
+      <c r="X44" t="n">
+        <v>1.496829968862364</v>
+      </c>
+      <c r="Y44" t="n">
         <v>6</v>
       </c>
-      <c r="X44" t="n">
+      <c r="Z44" t="n">
         <v>-0.6618420825354925</v>
       </c>
     </row>
@@ -3744,9 +4012,15 @@
         <v>0</v>
       </c>
       <c r="W45" t="n">
+        <v>0.6613496376811594</v>
+      </c>
+      <c r="X45" t="n">
+        <v>1.425481922786129</v>
+      </c>
+      <c r="Y45" t="n">
         <v>5.633333333333333</v>
       </c>
-      <c r="X45" t="n">
+      <c r="Z45" t="n">
         <v>0.08668448171009542</v>
       </c>
     </row>
@@ -3820,9 +4094,15 @@
         <v>-1.022267764747582</v>
       </c>
       <c r="W46" t="n">
+        <v>0.5834722222222226</v>
+      </c>
+      <c r="X46" t="n">
+        <v>0.8164980190834302</v>
+      </c>
+      <c r="Y46" t="n">
         <v>5.466666666666666</v>
       </c>
-      <c r="X46" t="n">
+      <c r="Z46" t="n">
         <v>0.11955294510689</v>
       </c>
     </row>
@@ -3896,9 +4176,15 @@
         <v>-2.789628045613411</v>
       </c>
       <c r="W47" t="n">
+        <v>0.4902197802197803</v>
+      </c>
+      <c r="X47" t="n">
+        <v>1.437660580239144</v>
+      </c>
+      <c r="Y47" t="n">
         <v>5.666666666666667</v>
       </c>
-      <c r="X47" t="n">
+      <c r="Z47" t="n">
         <v>0.2013161345749452</v>
       </c>
     </row>
@@ -3972,9 +4258,15 @@
         <v>3.483272445279132</v>
       </c>
       <c r="W48" t="n">
+        <v>0.4848731884057966</v>
+      </c>
+      <c r="X48" t="n">
+        <v>1.576129160699601</v>
+      </c>
+      <c r="Y48" t="n">
         <v>5.666666666666667</v>
       </c>
-      <c r="X48" t="n">
+      <c r="Z48" t="n">
         <v>0.1910193290128673</v>
       </c>
     </row>
@@ -4048,9 +4340,15 @@
         <v>2.791482780385841</v>
       </c>
       <c r="W49" t="n">
+        <v>0.4534692028985505</v>
+      </c>
+      <c r="X49" t="n">
+        <v>0.9095470657360019</v>
+      </c>
+      <c r="Y49" t="n">
         <v>5.566666666666666</v>
       </c>
-      <c r="X49" t="n">
+      <c r="Z49" t="n">
         <v>0.4073443056279821</v>
       </c>
     </row>
@@ -4124,9 +4422,15 @@
         <v>2.9645816592752</v>
       </c>
       <c r="W50" t="n">
+        <v>0.4930860805860806</v>
+      </c>
+      <c r="X50" t="n">
+        <v>1.356277617020229</v>
+      </c>
+      <c r="Y50" t="n">
         <v>5.533333333333334</v>
       </c>
-      <c r="X50" t="n">
+      <c r="Z50" t="n">
         <v>0.3894648829464068</v>
       </c>
     </row>
@@ -4200,9 +4504,15 @@
         <v>4.585591585422436</v>
       </c>
       <c r="W51" t="n">
+        <v>0.6498443223443229</v>
+      </c>
+      <c r="X51" t="n">
+        <v>1.571612376995801</v>
+      </c>
+      <c r="Y51" t="n">
         <v>5.5</v>
       </c>
-      <c r="X51" t="n">
+      <c r="Z51" t="n">
         <v>0.6140741198165393</v>
       </c>
     </row>
@@ -4276,9 +4586,15 @@
         <v>0.8276724754031047</v>
       </c>
       <c r="W52" t="n">
+        <v>0.6659510869565224</v>
+      </c>
+      <c r="X52" t="n">
+        <v>1.656144073704366</v>
+      </c>
+      <c r="Y52" t="n">
         <v>5.266666666666667</v>
       </c>
-      <c r="X52" t="n">
+      <c r="Z52" t="n">
         <v>0.263547839650391</v>
       </c>
     </row>
@@ -4352,9 +4668,15 @@
         <v>-0.5312881446293959</v>
       </c>
       <c r="W53" t="n">
+        <v>0.6131159420289864</v>
+      </c>
+      <c r="X53" t="n">
+        <v>1.406354671425849</v>
+      </c>
+      <c r="Y53" t="n">
         <v>5.333333333333333</v>
       </c>
-      <c r="X53" t="n">
+      <c r="Z53" t="n">
         <v>0.0007919174444820637</v>
       </c>
     </row>
@@ -4428,9 +4750,15 @@
         <v>0.854580123491658</v>
       </c>
       <c r="W54" t="n">
+        <v>0.6153888888888899</v>
+      </c>
+      <c r="X54" t="n">
+        <v>1.180647927875349</v>
+      </c>
+      <c r="Y54" t="n">
         <v>5.233333333333333</v>
       </c>
-      <c r="X54" t="n">
+      <c r="Z54" t="n">
         <v>0.07030507817540305</v>
       </c>
     </row>
@@ -4504,9 +4832,15 @@
         <v>1.745244995122621</v>
       </c>
       <c r="W55" t="n">
+        <v>0.5961172161172166</v>
+      </c>
+      <c r="X55" t="n">
+        <v>1.424337088689091</v>
+      </c>
+      <c r="Y55" t="n">
         <v>5</v>
       </c>
-      <c r="X55" t="n">
+      <c r="Z55" t="n">
         <v>0.4352116222258141</v>
       </c>
     </row>
@@ -4580,9 +4914,15 @@
         <v>1.289231436539459</v>
       </c>
       <c r="W56" t="n">
+        <v>0.5271648550724641</v>
+      </c>
+      <c r="X56" t="n">
+        <v>2.322965781594291</v>
+      </c>
+      <c r="Y56" t="n">
         <v>4.866666666666666</v>
       </c>
-      <c r="X56" t="n">
+      <c r="Z56" t="n">
         <v>0.7191211831164686</v>
       </c>
     </row>
@@ -4656,9 +4996,15 @@
         <v>1.749480286228099</v>
       </c>
       <c r="W57" t="n">
+        <v>0.4906521739130436</v>
+      </c>
+      <c r="X57" t="n">
+        <v>1.007127150844211</v>
+      </c>
+      <c r="Y57" t="n">
         <v>4.666666666666667</v>
       </c>
-      <c r="X57" t="n">
+      <c r="Z57" t="n">
         <v>1.378383905522504</v>
       </c>
     </row>
@@ -4732,9 +5078,15 @@
         <v>2.322470989109863</v>
       </c>
       <c r="W58" t="n">
+        <v>0.4251666666666665</v>
+      </c>
+      <c r="X58" t="n">
+        <v>1.430647922414338</v>
+      </c>
+      <c r="Y58" t="n">
         <v>4.633333333333333</v>
       </c>
-      <c r="X58" t="n">
+      <c r="Z58" t="n">
         <v>1.627979111179489</v>
       </c>
     </row>
@@ -4808,9 +5160,15 @@
         <v>3.412016675006154</v>
       </c>
       <c r="W59" t="n">
+        <v>0.4264652014652011</v>
+      </c>
+      <c r="X59" t="n">
+        <v>2.077073107508811</v>
+      </c>
+      <c r="Y59" t="n">
         <v>4.399999999999999</v>
       </c>
-      <c r="X59" t="n">
+      <c r="Z59" t="n">
         <v>1.16971895877371</v>
       </c>
     </row>
@@ -4884,9 +5242,15 @@
         <v>3.682033770508832</v>
       </c>
       <c r="W60" t="n">
+        <v>0.3879257246376813</v>
+      </c>
+      <c r="X60" t="n">
+        <v>1.93886886274309</v>
+      </c>
+      <c r="Y60" t="n">
         <v>4.533333333333333</v>
       </c>
-      <c r="X60" t="n">
+      <c r="Z60" t="n">
         <v>1.289460685542643</v>
       </c>
     </row>
@@ -4960,9 +5324,15 @@
         <v>3.305258312142185</v>
       </c>
       <c r="W61" t="n">
+        <v>0.5048641304347825</v>
+      </c>
+      <c r="X61" t="n">
+        <v>2.304719006103026</v>
+      </c>
+      <c r="Y61" t="n">
         <v>4.433333333333334</v>
       </c>
-      <c r="X61" t="n">
+      <c r="Z61" t="n">
         <v>0.2216216966693823</v>
       </c>
     </row>
@@ -5036,9 +5406,15 @@
         <v>1.830435486201331</v>
       </c>
       <c r="W62" t="n">
+        <v>0.5521944444444442</v>
+      </c>
+      <c r="X62" t="n">
+        <v>1.927781765140204</v>
+      </c>
+      <c r="Y62" t="n">
         <v>4.3</v>
       </c>
-      <c r="X62" t="n">
+      <c r="Z62" t="n">
         <v>1.449840218383615</v>
       </c>
     </row>
@@ -5112,9 +5488,15 @@
         <v>1.963664628876818</v>
       </c>
       <c r="W63" t="n">
+        <v>0.586410256410256</v>
+      </c>
+      <c r="X63" t="n">
+        <v>2.323456692645795</v>
+      </c>
+      <c r="Y63" t="n">
         <v>4.266666666666667</v>
       </c>
-      <c r="X63" t="n">
+      <c r="Z63" t="n">
         <v>-0.03765634714971744</v>
       </c>
     </row>
@@ -5188,9 +5570,15 @@
         <v>1.436163589579108</v>
       </c>
       <c r="W64" t="n">
+        <v>0.6052807971014489</v>
+      </c>
+      <c r="X64" t="n">
+        <v>2.774187356268646</v>
+      </c>
+      <c r="Y64" t="n">
         <v>4.233333333333333</v>
       </c>
-      <c r="X64" t="n">
+      <c r="Z64" t="n">
         <v>0.5350136180958796</v>
       </c>
     </row>
@@ -5264,9 +5652,15 @@
         <v>2.013257863135171</v>
       </c>
       <c r="W65" t="n">
+        <v>0.5689945652173918</v>
+      </c>
+      <c r="X65" t="n">
+        <v>1.864078036767872</v>
+      </c>
+      <c r="Y65" t="n">
         <v>4.066666666666666</v>
       </c>
-      <c r="X65" t="n">
+      <c r="Z65" t="n">
         <v>1.554162740819812</v>
       </c>
     </row>
@@ -5340,9 +5734,15 @@
         <v>2.712030621919382</v>
       </c>
       <c r="W66" t="n">
+        <v>0.5647435897435895</v>
+      </c>
+      <c r="X66" t="n">
+        <v>1.393692804223548</v>
+      </c>
+      <c r="Y66" t="n">
         <v>4.033333333333333</v>
       </c>
-      <c r="X66" t="n">
+      <c r="Z66" t="n">
         <v>2.643571474736089</v>
       </c>
     </row>
@@ -5416,9 +5816,15 @@
         <v>0.06686727096358838</v>
       </c>
       <c r="W67" t="n">
+        <v>0.4561721611721612</v>
+      </c>
+      <c r="X67" t="n">
+        <v>2.458237156983756</v>
+      </c>
+      <c r="Y67" t="n">
         <v>3.933333333333334</v>
       </c>
-      <c r="X67" t="n">
+      <c r="Z67" t="n">
         <v>-0.2252730410481293</v>
       </c>
     </row>
@@ -5492,9 +5898,15 @@
         <v>-1.278187600304275</v>
       </c>
       <c r="W68" t="n">
+        <v>0.3718025362318842</v>
+      </c>
+      <c r="X68" t="n">
+        <v>2.444978016499623</v>
+      </c>
+      <c r="Y68" t="n">
         <v>4</v>
       </c>
-      <c r="X68" t="n">
+      <c r="Z68" t="n">
         <v>1.498950395177451</v>
       </c>
     </row>
@@ -5568,9 +5980,15 @@
         <v>0.9210443635445466</v>
       </c>
       <c r="W69" t="n">
+        <v>0.319610507246376</v>
+      </c>
+      <c r="X69" t="n">
+        <v>2.000984498798462</v>
+      </c>
+      <c r="Y69" t="n">
         <v>3.9</v>
       </c>
-      <c r="X69" t="n">
+      <c r="Z69" t="n">
         <v>0.1252227237608183</v>
       </c>
     </row>
@@ -5644,9 +6062,15 @@
         <v>1.860930973213774</v>
       </c>
       <c r="W70" t="n">
+        <v>0.3999166666666676</v>
+      </c>
+      <c r="X70" t="n">
+        <v>1.755115980828378</v>
+      </c>
+      <c r="Y70" t="n">
         <v>4.233333333333333</v>
       </c>
-      <c r="X70" t="n">
+      <c r="Z70" t="n">
         <v>0.8302048569634537</v>
       </c>
     </row>
@@ -5720,9 +6144,15 @@
         <v>2.599799802488617</v>
       </c>
       <c r="W71" t="n">
+        <v>0.7041575091575094</v>
+      </c>
+      <c r="X71" t="n">
+        <v>3.226908585445039</v>
+      </c>
+      <c r="Y71" t="n">
         <v>4.399999999999999</v>
       </c>
-      <c r="X71" t="n">
+      <c r="Z71" t="n">
         <v>-0.1828974110579861</v>
       </c>
     </row>
@@ -5796,9 +6226,15 @@
         <v>2.116033248047892</v>
       </c>
       <c r="W72" t="n">
+        <v>0.8896195652173914</v>
+      </c>
+      <c r="X72" t="n">
+        <v>2.956962076923184</v>
+      </c>
+      <c r="Y72" t="n">
         <v>4.833333333333333</v>
       </c>
-      <c r="X72" t="n">
+      <c r="Z72" t="n">
         <v>0.1532205057472692</v>
       </c>
     </row>
@@ -5872,9 +6308,15 @@
         <v>-0.2725654271577613</v>
       </c>
       <c r="W73" t="n">
+        <v>1.144057971014493</v>
+      </c>
+      <c r="X73" t="n">
+        <v>2.106507940897485</v>
+      </c>
+      <c r="Y73" t="n">
         <v>5.5</v>
       </c>
-      <c r="X73" t="n">
+      <c r="Z73" t="n">
         <v>0.3076405365812666</v>
       </c>
     </row>
@@ -5948,9 +6390,15 @@
         <v>2.262680858887241</v>
       </c>
       <c r="W74" t="n">
+        <v>1.280111111111111</v>
+      </c>
+      <c r="X74" t="n">
+        <v>2.556290508934249</v>
+      </c>
+      <c r="Y74" t="n">
         <v>5.7</v>
       </c>
-      <c r="X74" t="n">
+      <c r="Z74" t="n">
         <v>1.153584418529487</v>
       </c>
     </row>
@@ -6024,9 +6472,15 @@
         <v>2.793138468917747</v>
       </c>
       <c r="W75" t="n">
+        <v>1.260448717948718</v>
+      </c>
+      <c r="X75" t="n">
+        <v>3.193849598429004</v>
+      </c>
+      <c r="Y75" t="n">
         <v>5.833333333333333</v>
       </c>
-      <c r="X75" t="n">
+      <c r="Z75" t="n">
         <v>0.6721419935359457</v>
       </c>
     </row>
@@ -6100,9 +6554,15 @@
         <v>0.8744093869229062</v>
       </c>
       <c r="W76" t="n">
+        <v>1.163115942028986</v>
+      </c>
+      <c r="X76" t="n">
+        <v>3.382704536301659</v>
+      </c>
+      <c r="Y76" t="n">
         <v>5.733333333333333</v>
       </c>
-      <c r="X76" t="n">
+      <c r="Z76" t="n">
         <v>0.1220987828536571</v>
       </c>
     </row>
@@ -6176,9 +6636,15 @@
         <v>3.250894546241287</v>
       </c>
       <c r="W77" t="n">
+        <v>1.164773550724638</v>
+      </c>
+      <c r="X77" t="n">
+        <v>3.335926404035621</v>
+      </c>
+      <c r="Y77" t="n">
         <v>5.866666666666667</v>
       </c>
-      <c r="X77" t="n">
+      <c r="Z77" t="n">
         <v>-0.573988567694194</v>
       </c>
     </row>
@@ -6252,9 +6718,15 @@
         <v>3.241286192667455</v>
       </c>
       <c r="W78" t="n">
+        <v>1.16175</v>
+      </c>
+      <c r="X78" t="n">
+        <v>2.883834431706596</v>
+      </c>
+      <c r="Y78" t="n">
         <v>5.866666666666667</v>
       </c>
-      <c r="X78" t="n">
+      <c r="Z78" t="n">
         <v>0.6024531868168667</v>
       </c>
     </row>
@@ -6328,9 +6800,15 @@
         <v>2.544759744742195</v>
       </c>
       <c r="W79" t="n">
+        <v>1.08915750915751</v>
+      </c>
+      <c r="X79" t="n">
+        <v>4.092584021883129</v>
+      </c>
+      <c r="Y79" t="n">
         <v>6.133333333333333</v>
       </c>
-      <c r="X79" t="n">
+      <c r="Z79" t="n">
         <v>1.283160434102258</v>
       </c>
     </row>
@@ -6404,9 +6882,15 @@
         <v>5.657577446718212</v>
       </c>
       <c r="W80" t="n">
+        <v>1.165788043478261</v>
+      </c>
+      <c r="X80" t="n">
+        <v>3.700284309245446</v>
+      </c>
+      <c r="Y80" t="n">
         <v>6.133333333333333</v>
       </c>
-      <c r="X80" t="n">
+      <c r="Z80" t="n">
         <v>0.8035425434530054</v>
       </c>
     </row>
@@ -6480,9 +6964,15 @@
         <v>4.378309979712185</v>
       </c>
       <c r="W81" t="n">
+        <v>1.208315217391304</v>
+      </c>
+      <c r="X81" t="n">
+        <v>3.053349690820164</v>
+      </c>
+      <c r="Y81" t="n">
         <v>5.833333333333333</v>
       </c>
-      <c r="X81" t="n">
+      <c r="Z81" t="n">
         <v>0.3021226481335962</v>
       </c>
     </row>
@@ -6556,9 +7046,15 @@
         <v>3.312732572661011</v>
       </c>
       <c r="W82" t="n">
+        <v>1.154532967032967</v>
+      </c>
+      <c r="X82" t="n">
+        <v>2.442215663267359</v>
+      </c>
+      <c r="Y82" t="n">
         <v>5.7</v>
       </c>
-      <c r="X82" t="n">
+      <c r="Z82" t="n">
         <v>-0.9344074427186128</v>
       </c>
     </row>
@@ -6632,9 +7128,15 @@
         <v>5.971235738267619</v>
       </c>
       <c r="W83" t="n">
+        <v>1.178003663003663</v>
+      </c>
+      <c r="X83" t="n">
+        <v>3.778850455339486</v>
+      </c>
+      <c r="Y83" t="n">
         <v>5.599999999999999</v>
       </c>
-      <c r="X83" t="n">
+      <c r="Z83" t="n">
         <v>0.2964375750173121</v>
       </c>
     </row>
@@ -6708,9 +7210,15 @@
         <v>3.066779845347599</v>
       </c>
       <c r="W84" t="n">
+        <v>1.098976449275362</v>
+      </c>
+      <c r="X84" t="n">
+        <v>3.243024438646115</v>
+      </c>
+      <c r="Y84" t="n">
         <v>5.433333333333334</v>
       </c>
-      <c r="X84" t="n">
+      <c r="Z84" t="n">
         <v>0.764010936566182</v>
       </c>
     </row>
@@ -6784,9 +7292,15 @@
         <v>2.087877930737528</v>
       </c>
       <c r="W85" t="n">
+        <v>0.9550271739130435</v>
+      </c>
+      <c r="X85" t="n">
+        <v>3.328424582974502</v>
+      </c>
+      <c r="Y85" t="n">
         <v>5.433333333333334</v>
       </c>
-      <c r="X85" t="n">
+      <c r="Z85" t="n">
         <v>0.499586314917211</v>
       </c>
     </row>
@@ -6860,9 +7374,15 @@
         <v>3.21687558465296</v>
       </c>
       <c r="W86" t="n">
+        <v>0.8302499999999997</v>
+      </c>
+      <c r="X86" t="n">
+        <v>2.703413482439003</v>
+      </c>
+      <c r="Y86" t="n">
         <v>5.266666666666667</v>
       </c>
-      <c r="X86" t="n">
+      <c r="Z86" t="n">
         <v>-0.3050959360992143</v>
       </c>
     </row>
@@ -6936,9 +7456,15 @@
         <v>3.976346544761345</v>
       </c>
       <c r="W87" t="n">
+        <v>0.7203937728937729</v>
+      </c>
+      <c r="X87" t="n">
+        <v>3.43869398959077</v>
+      </c>
+      <c r="Y87" t="n">
         <v>5.066666666666666</v>
       </c>
-      <c r="X87" t="n">
+      <c r="Z87" t="n">
         <v>-0.04282294119780695</v>
       </c>
     </row>
@@ -7012,9 +7538,15 @@
         <v>3.595834892921651</v>
       </c>
       <c r="W88" t="n">
+        <v>0.5941666666666664</v>
+      </c>
+      <c r="X88" t="n">
+        <v>3.391335399011536</v>
+      </c>
+      <c r="Y88" t="n">
         <v>5</v>
       </c>
-      <c r="X88" t="n">
+      <c r="Z88" t="n">
         <v>0.4957452109110861</v>
       </c>
     </row>
@@ -7088,9 +7620,15 @@
         <v>1.937654985576635</v>
       </c>
       <c r="W89" t="n">
+        <v>0.557934782608696</v>
+      </c>
+      <c r="X89" t="n">
+        <v>2.918458922592683</v>
+      </c>
+      <c r="Y89" t="n">
         <v>4.933333333333334</v>
       </c>
-      <c r="X89" t="n">
+      <c r="Z89" t="n">
         <v>-0.01852266143093755</v>
       </c>
     </row>
@@ -7164,9 +7702,15 @@
         <v>0.6953958235231033</v>
       </c>
       <c r="W90" t="n">
+        <v>0.4848055555555564</v>
+      </c>
+      <c r="X90" t="n">
+        <v>3.299154487576608</v>
+      </c>
+      <c r="Y90" t="n">
         <v>4.7</v>
       </c>
-      <c r="X90" t="n">
+      <c r="Z90" t="n">
         <v>0.4074557379012421</v>
       </c>
     </row>
@@ -7240,9 +7784,15 @@
         <v>-3.590484560599622</v>
       </c>
       <c r="W91" t="n">
+        <v>0.4356043956043951</v>
+      </c>
+      <c r="X91" t="n">
+        <v>3.270203388442527</v>
+      </c>
+      <c r="Y91" t="n">
         <v>4.666666666666667</v>
       </c>
-      <c r="X91" t="n">
+      <c r="Z91" t="n">
         <v>-0.5011850671494409</v>
       </c>
     </row>
@@ -7316,9 +7866,15 @@
         <v>-5.727914668848501</v>
       </c>
       <c r="W92" t="n">
+        <v>0.3803351449275361</v>
+      </c>
+      <c r="X92" t="n">
+        <v>2.452670051098675</v>
+      </c>
+      <c r="Y92" t="n">
         <v>4.633333333333334</v>
       </c>
-      <c r="X92" t="n">
+      <c r="Z92" t="n">
         <v>-0.197349322803286</v>
       </c>
     </row>
@@ -7392,9 +7948,15 @@
         <v>-4.472346478687847</v>
       </c>
       <c r="W93" t="n">
+        <v>0.3200996376811596</v>
+      </c>
+      <c r="X93" t="n">
+        <v>1.561745592277124</v>
+      </c>
+      <c r="Y93" t="n">
         <v>4.433333333333334</v>
       </c>
-      <c r="X93" t="n">
+      <c r="Z93" t="n">
         <v>1.692718040446249</v>
       </c>
     </row>
@@ -7468,9 +8030,15 @@
         <v>-3.910708324576738</v>
       </c>
       <c r="W94" t="n">
+        <v>0.2855277777777772</v>
+      </c>
+      <c r="X94" t="n">
+        <v>1.985720555225968</v>
+      </c>
+      <c r="Y94" t="n">
         <v>4.5</v>
       </c>
-      <c r="X94" t="n">
+      <c r="Z94" t="n">
         <v>0.189263666879081</v>
       </c>
     </row>
@@ -7544,9 +8112,15 @@
         <v>-3.395248762373774</v>
       </c>
       <c r="W95" t="n">
+        <v>0.2968956043956039</v>
+      </c>
+      <c r="X95" t="n">
+        <v>2.009313040563272</v>
+      </c>
+      <c r="Y95" t="n">
         <v>4.533333333333333</v>
       </c>
-      <c r="X95" t="n">
+      <c r="Z95" t="n">
         <v>-0.2963218980143068</v>
       </c>
     </row>
@@ -7620,9 +8194,15 @@
         <v>-5.706852862330961</v>
       </c>
       <c r="W96" t="n">
+        <v>0.4147463768115944</v>
+      </c>
+      <c r="X96" t="n">
+        <v>1.466721578856795</v>
+      </c>
+      <c r="Y96" t="n">
         <v>4.7</v>
       </c>
-      <c r="X96" t="n">
+      <c r="Z96" t="n">
         <v>0.4266524867614028</v>
       </c>
     </row>
@@ -7696,9 +8276,15 @@
         <v>-7.873579093481088</v>
       </c>
       <c r="W97" t="n">
+        <v>0.480253623188406</v>
+      </c>
+      <c r="X97" t="n">
+        <v>1.142426764255193</v>
+      </c>
+      <c r="Y97" t="n">
         <v>4.833333333333333</v>
       </c>
-      <c r="X97" t="n">
+      <c r="Z97" t="n">
         <v>0.6032442192905649</v>
       </c>
     </row>
@@ -7772,9 +8358,15 @@
         <v>-7.862880601752931</v>
       </c>
       <c r="W98" t="n">
+        <v>0.7096428571428575</v>
+      </c>
+      <c r="X98" t="n">
+        <v>0.6990711183999552</v>
+      </c>
+      <c r="Y98" t="n">
         <v>4.933333333333333</v>
       </c>
-      <c r="X98" t="n">
+      <c r="Z98" t="n">
         <v>0.2911764582629277</v>
       </c>
     </row>
@@ -7848,9 +8440,15 @@
         <v>-4.472723043752771</v>
       </c>
       <c r="W99" t="n">
+        <v>1.009652014652014</v>
+      </c>
+      <c r="X99" t="n">
+        <v>-0.03901832214169923</v>
+      </c>
+      <c r="Y99" t="n">
         <v>5.333333333333333</v>
       </c>
-      <c r="X99" t="n">
+      <c r="Z99" t="n">
         <v>0.5900572756261816</v>
       </c>
     </row>
@@ -7922,9 +8520,13 @@
         <v>-5.578486719696743</v>
       </c>
       <c r="W100" t="n">
+        <v>1.112336956521739</v>
+      </c>
+      <c r="X100" t="inlineStr"/>
+      <c r="Y100" t="n">
         <v>5.966666666666666</v>
       </c>
-      <c r="X100" t="n">
+      <c r="Z100" t="n">
         <v>0.1159823575718521</v>
       </c>
     </row>
@@ -7939,7 +8541,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X101"/>
+  <dimension ref="A1:Z101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8055,10 +8657,20 @@
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
+          <t>mortffr_obs</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>mortgage_nom_obs</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
           <t>unr_obs</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>wage_rgd_obs</t>
         </is>
@@ -8132,9 +8744,15 @@
         <v>3.339400681539008</v>
       </c>
       <c r="W2" t="n">
+        <v>0.6303571428571426</v>
+      </c>
+      <c r="X2" t="n">
+        <v>2.447779857357557</v>
+      </c>
+      <c r="Y2" t="n">
         <v>7.866666666666667</v>
       </c>
-      <c r="X2" t="n">
+      <c r="Z2" t="n">
         <v>0.0187856805383563</v>
       </c>
     </row>
@@ -8206,9 +8824,15 @@
         <v>2.681724951117663</v>
       </c>
       <c r="W3" t="n">
+        <v>0.3996520146520153</v>
+      </c>
+      <c r="X3" t="n">
+        <v>2.884840292812955</v>
+      </c>
+      <c r="Y3" t="n">
         <v>7.433333333333334</v>
       </c>
-      <c r="X3" t="n">
+      <c r="Z3" t="n">
         <v>0.08341637990603153</v>
       </c>
     </row>
@@ -8280,9 +8904,15 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
+        <v>0.3219293478260878</v>
+      </c>
+      <c r="X4" t="n">
+        <v>2.825415705076066</v>
+      </c>
+      <c r="Y4" t="n">
         <v>7.433333333333334</v>
       </c>
-      <c r="X4" t="n">
+      <c r="Z4" t="n">
         <v>0.5550377060815963</v>
       </c>
     </row>
@@ -8354,9 +8984,15 @@
         <v>0.8781615160384618</v>
       </c>
       <c r="W5" t="n">
+        <v>0.9002083333333348</v>
+      </c>
+      <c r="X5" t="n">
+        <v>2.585374281902362</v>
+      </c>
+      <c r="Y5" t="n">
         <v>7.300000000000001</v>
       </c>
-      <c r="X5" t="n">
+      <c r="Z5" t="n">
         <v>0.1708529278791655</v>
       </c>
     </row>
@@ -8428,9 +9064,15 @@
         <v>0.163800200423837</v>
       </c>
       <c r="W6" t="n">
+        <v>0.970388888888889</v>
+      </c>
+      <c r="X6" t="n">
+        <v>4.838279261661252</v>
+      </c>
+      <c r="Y6" t="n">
         <v>7.233333333333333</v>
       </c>
-      <c r="X6" t="n">
+      <c r="Z6" t="n">
         <v>0.0936451387024257</v>
       </c>
     </row>
@@ -8502,9 +9144,15 @@
         <v>0.9772064733792302</v>
       </c>
       <c r="W7" t="n">
+        <v>1.014734432234433</v>
+      </c>
+      <c r="X7" t="n">
+        <v>2.887889102968135</v>
+      </c>
+      <c r="Y7" t="n">
         <v>7.3</v>
       </c>
-      <c r="X7" t="n">
+      <c r="Z7" t="n">
         <v>0.2652226031985177</v>
       </c>
     </row>
@@ -8576,9 +9224,15 @@
         <v>1.979203413194857</v>
       </c>
       <c r="W8" t="n">
+        <v>0.8547554347826087</v>
+      </c>
+      <c r="X8" t="n">
+        <v>4.283328736272085</v>
+      </c>
+      <c r="Y8" t="n">
         <v>7.2</v>
       </c>
-      <c r="X8" t="n">
+      <c r="Z8" t="n">
         <v>0.9137733930902497</v>
       </c>
     </row>
@@ -8650,9 +9304,15 @@
         <v>3.487212571402014</v>
       </c>
       <c r="W9" t="n">
+        <v>0.7705525362318832</v>
+      </c>
+      <c r="X9" t="n">
+        <v>3.377405381157359</v>
+      </c>
+      <c r="Y9" t="n">
         <v>7.033333333333334</v>
       </c>
-      <c r="X9" t="n">
+      <c r="Z9" t="n">
         <v>1.131977420649275</v>
       </c>
     </row>
@@ -8724,9 +9384,15 @@
         <v>5.377104065178582</v>
       </c>
       <c r="W10" t="n">
+        <v>0.7299444444444461</v>
+      </c>
+      <c r="X10" t="n">
+        <v>1.821793037383781</v>
+      </c>
+      <c r="Y10" t="n">
         <v>7.033333333333334</v>
       </c>
-      <c r="X10" t="n">
+      <c r="Z10" t="n">
         <v>0.8327718915132062</v>
       </c>
     </row>
@@ -8798,9 +9464,15 @@
         <v>6.338662189231478</v>
       </c>
       <c r="W11" t="n">
+        <v>0.8312179487179467</v>
+      </c>
+      <c r="X11" t="n">
+        <v>3.266066946893799</v>
+      </c>
+      <c r="Y11" t="n">
         <v>7.166666666666667</v>
       </c>
-      <c r="X11" t="n">
+      <c r="Z11" t="n">
         <v>0.3604664869711737</v>
       </c>
     </row>
@@ -8872,9 +9544,15 @@
         <v>2.825933731440306</v>
       </c>
       <c r="W12" t="n">
+        <v>0.9993025362318846</v>
+      </c>
+      <c r="X12" t="n">
+        <v>3.995249609571855</v>
+      </c>
+      <c r="Y12" t="n">
         <v>6.966666666666666</v>
       </c>
-      <c r="X12" t="n">
+      <c r="Z12" t="n">
         <v>0.3346420717301988</v>
       </c>
     </row>
@@ -8946,9 +9624,15 @@
         <v>0.9683174251825857</v>
       </c>
       <c r="W13" t="n">
+        <v>0.8933152173913048</v>
+      </c>
+      <c r="X13" t="n">
+        <v>3.767756284239854</v>
+      </c>
+      <c r="Y13" t="n">
         <v>6.833333333333333</v>
       </c>
-      <c r="X13" t="n">
+      <c r="Z13" t="n">
         <v>0.9439049497590892</v>
       </c>
     </row>
@@ -9020,9 +9704,15 @@
         <v>0.7853443505570304</v>
       </c>
       <c r="W14" t="n">
+        <v>0.7668611111111105</v>
+      </c>
+      <c r="X14" t="n">
+        <v>1.947735118636464</v>
+      </c>
+      <c r="Y14" t="n">
         <v>6.599999999999999</v>
       </c>
-      <c r="X14" t="n">
+      <c r="Z14" t="n">
         <v>-0.6129512377825054</v>
       </c>
     </row>
@@ -9094,9 +9784,15 @@
         <v>1.209517984897514</v>
       </c>
       <c r="W15" t="n">
+        <v>0.6541666666666672</v>
+      </c>
+      <c r="X15" t="n">
+        <v>4.147767327829527</v>
+      </c>
+      <c r="Y15" t="n">
         <v>6.266666666666667</v>
       </c>
-      <c r="X15" t="n">
+      <c r="Z15" t="n">
         <v>0.4206078914575486</v>
       </c>
     </row>
@@ -9168,9 +9864,15 @@
         <v>0.5566274273321643</v>
       </c>
       <c r="W16" t="n">
+        <v>0.6326086956521739</v>
+      </c>
+      <c r="X16" t="n">
+        <v>2.826774900665543</v>
+      </c>
+      <c r="Y16" t="n">
         <v>6</v>
       </c>
-      <c r="X16" t="n">
+      <c r="Z16" t="n">
         <v>0.2696876592827458</v>
       </c>
     </row>
@@ -9242,9 +9944,15 @@
         <v>1.399217231107909</v>
       </c>
       <c r="W17" t="n">
+        <v>0.5842481884057971</v>
+      </c>
+      <c r="X17" t="n">
+        <v>1.41489184132428</v>
+      </c>
+      <c r="Y17" t="n">
         <v>5.833333333333333</v>
       </c>
-      <c r="X17" t="n">
+      <c r="Z17" t="n">
         <v>0.557371050331582</v>
       </c>
     </row>
@@ -9316,9 +10024,15 @@
         <v>-1.31385657718383</v>
       </c>
       <c r="W18" t="n">
+        <v>0.6285164835164825</v>
+      </c>
+      <c r="X18" t="n">
+        <v>2.538290967561651</v>
+      </c>
+      <c r="Y18" t="n">
         <v>5.7</v>
       </c>
-      <c r="X18" t="n">
+      <c r="Z18" t="n">
         <v>0.7435998434387213</v>
       </c>
     </row>
@@ -9390,9 +10104,15 @@
         <v>1.692087748833718</v>
       </c>
       <c r="W19" t="n">
+        <v>0.5179304029304042</v>
+      </c>
+      <c r="X19" t="n">
+        <v>3.489634163901059</v>
+      </c>
+      <c r="Y19" t="n">
         <v>5.466666666666666</v>
       </c>
-      <c r="X19" t="n">
+      <c r="Z19" t="n">
         <v>0.1473501260968532</v>
       </c>
     </row>
@@ -9464,9 +10184,15 @@
         <v>0.6688988150796489</v>
       </c>
       <c r="W20" t="n">
+        <v>0.3266304347826092</v>
+      </c>
+      <c r="X20" t="n">
+        <v>2.91823679065083</v>
+      </c>
+      <c r="Y20" t="n">
         <v>5.466666666666666</v>
       </c>
-      <c r="X20" t="n">
+      <c r="Z20" t="n">
         <v>-0.03367691419229579</v>
       </c>
     </row>
@@ -9538,9 +10264,15 @@
         <v>1.816730395544893</v>
       </c>
       <c r="W21" t="n">
+        <v>0.2487137681159424</v>
+      </c>
+      <c r="X21" t="n">
+        <v>2.726497326586302</v>
+      </c>
+      <c r="Y21" t="n">
         <v>5.333333333333333</v>
       </c>
-      <c r="X21" t="n">
+      <c r="Z21" t="n">
         <v>-0.1885353706679958</v>
       </c>
     </row>
@@ -9612,9 +10344,15 @@
         <v>0.08179959556317626</v>
       </c>
       <c r="W22" t="n">
+        <v>0.08588888888888979</v>
+      </c>
+      <c r="X22" t="n">
+        <v>1.643544561454601</v>
+      </c>
+      <c r="Y22" t="n">
         <v>5.2</v>
       </c>
-      <c r="X22" t="n">
+      <c r="Z22" t="n">
         <v>-0.7141146922364958</v>
       </c>
     </row>
@@ -9686,9 +10424,15 @@
         <v>-1.815231360718883</v>
       </c>
       <c r="W23" t="n">
+        <v>0.1560714285714275</v>
+      </c>
+      <c r="X23" t="n">
+        <v>2.721931283633474</v>
+      </c>
+      <c r="Y23" t="n">
         <v>5.233333333333333</v>
       </c>
-      <c r="X23" t="n">
+      <c r="Z23" t="n">
         <v>-0.7057968438876389</v>
       </c>
     </row>
@@ -9760,9 +10504,15 @@
         <v>-0.7521974454688446</v>
       </c>
       <c r="W24" t="n">
+        <v>0.2882699275362324</v>
+      </c>
+      <c r="X24" t="n">
+        <v>2.947527669609471</v>
+      </c>
+      <c r="Y24" t="n">
         <v>5.233333333333333</v>
       </c>
-      <c r="X24" t="n">
+      <c r="Z24" t="n">
         <v>0.08528008334099503</v>
       </c>
     </row>
@@ -9834,9 +10584,15 @@
         <v>-1.521584723725332</v>
       </c>
       <c r="W25" t="n">
+        <v>0.3705525362318833</v>
+      </c>
+      <c r="X25" t="n">
+        <v>2.213323210101831</v>
+      </c>
+      <c r="Y25" t="n">
         <v>5.366666666666667</v>
       </c>
-      <c r="X25" t="n">
+      <c r="Z25" t="n">
         <v>0.6407714198461927</v>
       </c>
     </row>
@@ -9908,9 +10664,15 @@
         <v>1.856593412253519</v>
       </c>
       <c r="W26" t="n">
+        <v>0.4446666666666679</v>
+      </c>
+      <c r="X26" t="n">
+        <v>3.257750385284998</v>
+      </c>
+      <c r="Y26" t="n">
         <v>5.3</v>
       </c>
-      <c r="X26" t="n">
+      <c r="Z26" t="n">
         <v>0.6923077894278937</v>
       </c>
     </row>
@@ -9982,9 +10744,15 @@
         <v>-3.531530571602695</v>
       </c>
       <c r="W27" t="n">
+        <v>0.4802481684981683</v>
+      </c>
+      <c r="X27" t="n">
+        <v>2.560864642558711</v>
+      </c>
+      <c r="Y27" t="n">
         <v>5.333333333333333</v>
       </c>
-      <c r="X27" t="n">
+      <c r="Z27" t="n">
         <v>0.9561899198492235</v>
       </c>
     </row>
@@ -10056,9 +10824,15 @@
         <v>-5.382664581262346</v>
       </c>
       <c r="W28" t="n">
+        <v>0.4706123188405811</v>
+      </c>
+      <c r="X28" t="n">
+        <v>2.122346525019553</v>
+      </c>
+      <c r="Y28" t="n">
         <v>5.7</v>
       </c>
-      <c r="X28" t="n">
+      <c r="Z28" t="n">
         <v>0.6269900166253765</v>
       </c>
     </row>
@@ -10130,9 +10904,15 @@
         <v>-5.543927728245711</v>
       </c>
       <c r="W29" t="n">
+        <v>0.5443242753623196</v>
+      </c>
+      <c r="X29" t="n">
+        <v>1.724470643360993</v>
+      </c>
+      <c r="Y29" t="n">
         <v>6.133333333333334</v>
       </c>
-      <c r="X29" t="n">
+      <c r="Z29" t="n">
         <v>0.08200849935616793</v>
       </c>
     </row>
@@ -10204,9 +10984,15 @@
         <v>-5.869411928637701</v>
       </c>
       <c r="W30" t="n">
+        <v>0.8115555555555565</v>
+      </c>
+      <c r="X30" t="n">
+        <v>1.59167876108484</v>
+      </c>
+      <c r="Y30" t="n">
         <v>6.600000000000001</v>
       </c>
-      <c r="X30" t="n">
+      <c r="Z30" t="n">
         <v>-0.3433735223151068</v>
       </c>
     </row>
@@ -10278,9 +11064,15 @@
         <v>2.778658182330028</v>
       </c>
       <c r="W31" t="n">
+        <v>0.9039835164835168</v>
+      </c>
+      <c r="X31" t="n">
+        <v>2.382521088255797</v>
+      </c>
+      <c r="Y31" t="n">
         <v>6.833333333333333</v>
       </c>
-      <c r="X31" t="n">
+      <c r="Z31" t="n">
         <v>1.202893412487421</v>
       </c>
     </row>
@@ -10352,9 +11144,15 @@
         <v>4.67238269063617</v>
       </c>
       <c r="W32" t="n">
+        <v>0.9203623188405803</v>
+      </c>
+      <c r="X32" t="n">
+        <v>0.9190509855307156</v>
+      </c>
+      <c r="Y32" t="n">
         <v>6.866666666666667</v>
       </c>
-      <c r="X32" t="n">
+      <c r="Z32" t="n">
         <v>0.3906350604859103</v>
       </c>
     </row>
@@ -10426,9 +11224,15 @@
         <v>1.837507530499412</v>
       </c>
       <c r="W33" t="n">
+        <v>0.9803804347826088</v>
+      </c>
+      <c r="X33" t="n">
+        <v>2.022589372440903</v>
+      </c>
+      <c r="Y33" t="n">
         <v>7.100000000000001</v>
       </c>
-      <c r="X33" t="n">
+      <c r="Z33" t="n">
         <v>0.5721631092897534</v>
       </c>
     </row>
@@ -10500,9 +11304,15 @@
         <v>4.652001563489291</v>
       </c>
       <c r="W34" t="n">
+        <v>1.093928571428571</v>
+      </c>
+      <c r="X34" t="n">
+        <v>1.503099379549398</v>
+      </c>
+      <c r="Y34" t="n">
         <v>7.366666666666667</v>
       </c>
-      <c r="X34" t="n">
+      <c r="Z34" t="n">
         <v>1.228339555379489</v>
       </c>
     </row>
@@ -10574,9 +11384,15 @@
         <v>4.658078189748251</v>
       </c>
       <c r="W35" t="n">
+        <v>1.173150183150183</v>
+      </c>
+      <c r="X35" t="n">
+        <v>1.211165913037192</v>
+      </c>
+      <c r="Y35" t="n">
         <v>7.600000000000001</v>
       </c>
-      <c r="X35" t="n">
+      <c r="Z35" t="n">
         <v>0.2624515558078852</v>
       </c>
     </row>
@@ -10648,9 +11464,15 @@
         <v>0.931420789569421</v>
       </c>
       <c r="W36" t="n">
+        <v>1.159356884057971</v>
+      </c>
+      <c r="X36" t="n">
+        <v>1.974645713851098</v>
+      </c>
+      <c r="Y36" t="n">
         <v>7.633333333333333</v>
       </c>
-      <c r="X36" t="n">
+      <c r="Z36" t="n">
         <v>1.054626980296685</v>
       </c>
     </row>
@@ -10722,9 +11544,15 @@
         <v>4.65200156348927</v>
       </c>
       <c r="W37" t="n">
+        <v>1.183777173913043</v>
+      </c>
+      <c r="X37" t="n">
+        <v>1.59825088905419</v>
+      </c>
+      <c r="Y37" t="n">
         <v>7.366666666666667</v>
       </c>
-      <c r="X37" t="n">
+      <c r="Z37" t="n">
         <v>-0.1371025309882777</v>
       </c>
     </row>
@@ -10796,9 +11624,15 @@
         <v>1.596203083978002</v>
       </c>
       <c r="W38" t="n">
+        <v>1.13275</v>
+      </c>
+      <c r="X38" t="n">
+        <v>0.4850840317691807</v>
+      </c>
+      <c r="Y38" t="n">
         <v>7.133333333333333</v>
       </c>
-      <c r="X38" t="n">
+      <c r="Z38" t="n">
         <v>-0.6124616996794719</v>
       </c>
     </row>
@@ -10870,9 +11704,15 @@
         <v>2.076470297090824</v>
       </c>
       <c r="W39" t="n">
+        <v>1.06985347985348</v>
+      </c>
+      <c r="X39" t="n">
+        <v>1.861439197710495</v>
+      </c>
+      <c r="Y39" t="n">
         <v>7.066666666666666</v>
       </c>
-      <c r="X39" t="n">
+      <c r="Z39" t="n">
         <v>-0.176749109855844</v>
       </c>
     </row>
@@ -10944,9 +11784,15 @@
         <v>4.325408693025432</v>
       </c>
       <c r="W40" t="n">
+        <v>0.9964039855072462</v>
+      </c>
+      <c r="X40" t="n">
+        <v>1.710166196199506</v>
+      </c>
+      <c r="Y40" t="n">
         <v>6.8</v>
       </c>
-      <c r="X40" t="n">
+      <c r="Z40" t="n">
         <v>-0.02716379543587344</v>
       </c>
     </row>
@@ -11018,9 +11864,15 @@
         <v>5.350028904258899</v>
       </c>
       <c r="W41" t="n">
+        <v>0.9521014492753619</v>
+      </c>
+      <c r="X41" t="n">
+        <v>1.380735594952812</v>
+      </c>
+      <c r="Y41" t="n">
         <v>6.633333333333333</v>
       </c>
-      <c r="X41" t="n">
+      <c r="Z41" t="n">
         <v>-0.1209793860945706</v>
       </c>
     </row>
@@ -11094,9 +11946,15 @@
         <v>3.118755885670458</v>
       </c>
       <c r="W42" t="n">
+        <v>0.9268333333333333</v>
+      </c>
+      <c r="X42" t="n">
+        <v>1.004696775533694</v>
+      </c>
+      <c r="Y42" t="n">
         <v>6.566666666666666</v>
       </c>
-      <c r="X42" t="n">
+      <c r="Z42" t="n">
         <v>0.4924393736602579</v>
       </c>
     </row>
@@ -11170,9 +12028,15 @@
         <v>3.881383827481651</v>
       </c>
       <c r="W43" t="n">
+        <v>0.8729945054945051</v>
+      </c>
+      <c r="X43" t="n">
+        <v>1.477308904247951</v>
+      </c>
+      <c r="Y43" t="n">
         <v>6.2</v>
       </c>
-      <c r="X43" t="n">
+      <c r="Z43" t="n">
         <v>-0.6396724750905918</v>
       </c>
     </row>
@@ -11246,9 +12110,15 @@
         <v>0.03281378208278333</v>
       </c>
       <c r="W44" t="n">
+        <v>0.8086413043478262</v>
+      </c>
+      <c r="X44" t="n">
+        <v>1.496829968862364</v>
+      </c>
+      <c r="Y44" t="n">
         <v>6</v>
       </c>
-      <c r="X44" t="n">
+      <c r="Z44" t="n">
         <v>-0.6618420825354925</v>
       </c>
     </row>
@@ -11322,9 +12192,15 @@
         <v>0</v>
       </c>
       <c r="W45" t="n">
+        <v>0.6613496376811594</v>
+      </c>
+      <c r="X45" t="n">
+        <v>1.425481922786129</v>
+      </c>
+      <c r="Y45" t="n">
         <v>5.633333333333333</v>
       </c>
-      <c r="X45" t="n">
+      <c r="Z45" t="n">
         <v>0.08668448171009542</v>
       </c>
     </row>
@@ -11398,9 +12274,15 @@
         <v>-1.022267764747582</v>
       </c>
       <c r="W46" t="n">
+        <v>0.5834722222222226</v>
+      </c>
+      <c r="X46" t="n">
+        <v>0.8164980190834302</v>
+      </c>
+      <c r="Y46" t="n">
         <v>5.466666666666666</v>
       </c>
-      <c r="X46" t="n">
+      <c r="Z46" t="n">
         <v>0.11955294510689</v>
       </c>
     </row>
@@ -11474,9 +12356,15 @@
         <v>-2.789628045613411</v>
       </c>
       <c r="W47" t="n">
+        <v>0.4902197802197803</v>
+      </c>
+      <c r="X47" t="n">
+        <v>1.437660580239144</v>
+      </c>
+      <c r="Y47" t="n">
         <v>5.666666666666667</v>
       </c>
-      <c r="X47" t="n">
+      <c r="Z47" t="n">
         <v>0.2013161345749452</v>
       </c>
     </row>
@@ -11550,9 +12438,15 @@
         <v>3.483272445279132</v>
       </c>
       <c r="W48" t="n">
+        <v>0.4848731884057966</v>
+      </c>
+      <c r="X48" t="n">
+        <v>1.576129160699601</v>
+      </c>
+      <c r="Y48" t="n">
         <v>5.666666666666667</v>
       </c>
-      <c r="X48" t="n">
+      <c r="Z48" t="n">
         <v>0.1910193290128673</v>
       </c>
     </row>
@@ -11626,9 +12520,15 @@
         <v>2.791482780385841</v>
       </c>
       <c r="W49" t="n">
+        <v>0.4534692028985505</v>
+      </c>
+      <c r="X49" t="n">
+        <v>0.9095470657360019</v>
+      </c>
+      <c r="Y49" t="n">
         <v>5.566666666666666</v>
       </c>
-      <c r="X49" t="n">
+      <c r="Z49" t="n">
         <v>0.4073443056279821</v>
       </c>
     </row>
@@ -11702,9 +12602,15 @@
         <v>2.9645816592752</v>
       </c>
       <c r="W50" t="n">
+        <v>0.4930860805860806</v>
+      </c>
+      <c r="X50" t="n">
+        <v>1.356277617020229</v>
+      </c>
+      <c r="Y50" t="n">
         <v>5.533333333333334</v>
       </c>
-      <c r="X50" t="n">
+      <c r="Z50" t="n">
         <v>0.3894648829464068</v>
       </c>
     </row>
@@ -11778,9 +12684,15 @@
         <v>4.585591585422436</v>
       </c>
       <c r="W51" t="n">
+        <v>0.6498443223443229</v>
+      </c>
+      <c r="X51" t="n">
+        <v>1.571612376995801</v>
+      </c>
+      <c r="Y51" t="n">
         <v>5.5</v>
       </c>
-      <c r="X51" t="n">
+      <c r="Z51" t="n">
         <v>0.6140741198165393</v>
       </c>
     </row>
@@ -11854,9 +12766,15 @@
         <v>0.8276724754031047</v>
       </c>
       <c r="W52" t="n">
+        <v>0.6659510869565224</v>
+      </c>
+      <c r="X52" t="n">
+        <v>1.656144073704366</v>
+      </c>
+      <c r="Y52" t="n">
         <v>5.266666666666667</v>
       </c>
-      <c r="X52" t="n">
+      <c r="Z52" t="n">
         <v>0.263547839650391</v>
       </c>
     </row>
@@ -11930,9 +12848,15 @@
         <v>-0.5312881446293959</v>
       </c>
       <c r="W53" t="n">
+        <v>0.6131159420289864</v>
+      </c>
+      <c r="X53" t="n">
+        <v>1.406354671425849</v>
+      </c>
+      <c r="Y53" t="n">
         <v>5.333333333333333</v>
       </c>
-      <c r="X53" t="n">
+      <c r="Z53" t="n">
         <v>0.0007919174444820637</v>
       </c>
     </row>
@@ -12006,9 +12930,15 @@
         <v>0.854580123491658</v>
       </c>
       <c r="W54" t="n">
+        <v>0.6153888888888899</v>
+      </c>
+      <c r="X54" t="n">
+        <v>1.180647927875349</v>
+      </c>
+      <c r="Y54" t="n">
         <v>5.233333333333333</v>
       </c>
-      <c r="X54" t="n">
+      <c r="Z54" t="n">
         <v>0.07030507817540305</v>
       </c>
     </row>
@@ -12082,9 +13012,15 @@
         <v>1.745244995122621</v>
       </c>
       <c r="W55" t="n">
+        <v>0.5961172161172166</v>
+      </c>
+      <c r="X55" t="n">
+        <v>1.424337088689091</v>
+      </c>
+      <c r="Y55" t="n">
         <v>5</v>
       </c>
-      <c r="X55" t="n">
+      <c r="Z55" t="n">
         <v>0.4352116222258141</v>
       </c>
     </row>
@@ -12158,9 +13094,15 @@
         <v>1.289231436539459</v>
       </c>
       <c r="W56" t="n">
+        <v>0.5271648550724641</v>
+      </c>
+      <c r="X56" t="n">
+        <v>2.322965781594291</v>
+      </c>
+      <c r="Y56" t="n">
         <v>4.866666666666666</v>
       </c>
-      <c r="X56" t="n">
+      <c r="Z56" t="n">
         <v>0.7191211831164686</v>
       </c>
     </row>
@@ -12234,9 +13176,15 @@
         <v>1.749480286228099</v>
       </c>
       <c r="W57" t="n">
+        <v>0.4906521739130436</v>
+      </c>
+      <c r="X57" t="n">
+        <v>1.007127150844211</v>
+      </c>
+      <c r="Y57" t="n">
         <v>4.666666666666667</v>
       </c>
-      <c r="X57" t="n">
+      <c r="Z57" t="n">
         <v>1.378383905522504</v>
       </c>
     </row>
@@ -12310,9 +13258,15 @@
         <v>2.322470989109863</v>
       </c>
       <c r="W58" t="n">
+        <v>0.4251666666666665</v>
+      </c>
+      <c r="X58" t="n">
+        <v>1.430647922414338</v>
+      </c>
+      <c r="Y58" t="n">
         <v>4.633333333333333</v>
       </c>
-      <c r="X58" t="n">
+      <c r="Z58" t="n">
         <v>1.627979111179489</v>
       </c>
     </row>
@@ -12386,9 +13340,15 @@
         <v>3.412016675006154</v>
       </c>
       <c r="W59" t="n">
+        <v>0.4264652014652011</v>
+      </c>
+      <c r="X59" t="n">
+        <v>2.077073107508811</v>
+      </c>
+      <c r="Y59" t="n">
         <v>4.399999999999999</v>
       </c>
-      <c r="X59" t="n">
+      <c r="Z59" t="n">
         <v>1.16971895877371</v>
       </c>
     </row>
@@ -12462,9 +13422,15 @@
         <v>3.682033770508832</v>
       </c>
       <c r="W60" t="n">
+        <v>0.3879257246376813</v>
+      </c>
+      <c r="X60" t="n">
+        <v>1.93886886274309</v>
+      </c>
+      <c r="Y60" t="n">
         <v>4.533333333333333</v>
       </c>
-      <c r="X60" t="n">
+      <c r="Z60" t="n">
         <v>1.289460685542643</v>
       </c>
     </row>
@@ -12538,9 +13504,15 @@
         <v>3.305258312142185</v>
       </c>
       <c r="W61" t="n">
+        <v>0.5048641304347825</v>
+      </c>
+      <c r="X61" t="n">
+        <v>2.304719006103026</v>
+      </c>
+      <c r="Y61" t="n">
         <v>4.433333333333334</v>
       </c>
-      <c r="X61" t="n">
+      <c r="Z61" t="n">
         <v>0.2216216966693823</v>
       </c>
     </row>
@@ -12614,9 +13586,15 @@
         <v>1.830435486201331</v>
       </c>
       <c r="W62" t="n">
+        <v>0.5521944444444442</v>
+      </c>
+      <c r="X62" t="n">
+        <v>1.927781765140204</v>
+      </c>
+      <c r="Y62" t="n">
         <v>4.3</v>
       </c>
-      <c r="X62" t="n">
+      <c r="Z62" t="n">
         <v>1.449840218383615</v>
       </c>
     </row>
@@ -12690,9 +13668,15 @@
         <v>1.963664628876818</v>
       </c>
       <c r="W63" t="n">
+        <v>0.586410256410256</v>
+      </c>
+      <c r="X63" t="n">
+        <v>2.323456692645795</v>
+      </c>
+      <c r="Y63" t="n">
         <v>4.266666666666667</v>
       </c>
-      <c r="X63" t="n">
+      <c r="Z63" t="n">
         <v>-0.03765634714971744</v>
       </c>
     </row>
@@ -12766,9 +13750,15 @@
         <v>1.436163589579108</v>
       </c>
       <c r="W64" t="n">
+        <v>0.6052807971014489</v>
+      </c>
+      <c r="X64" t="n">
+        <v>2.774187356268646</v>
+      </c>
+      <c r="Y64" t="n">
         <v>4.233333333333333</v>
       </c>
-      <c r="X64" t="n">
+      <c r="Z64" t="n">
         <v>0.5350136180958796</v>
       </c>
     </row>
@@ -12842,9 +13832,15 @@
         <v>2.013257863135171</v>
       </c>
       <c r="W65" t="n">
+        <v>0.5689945652173918</v>
+      </c>
+      <c r="X65" t="n">
+        <v>1.864078036767872</v>
+      </c>
+      <c r="Y65" t="n">
         <v>4.066666666666666</v>
       </c>
-      <c r="X65" t="n">
+      <c r="Z65" t="n">
         <v>1.554162740819812</v>
       </c>
     </row>
@@ -12918,9 +13914,15 @@
         <v>2.712030621919382</v>
       </c>
       <c r="W66" t="n">
+        <v>0.5647435897435895</v>
+      </c>
+      <c r="X66" t="n">
+        <v>1.393692804223548</v>
+      </c>
+      <c r="Y66" t="n">
         <v>4.033333333333333</v>
       </c>
-      <c r="X66" t="n">
+      <c r="Z66" t="n">
         <v>2.643571474736089</v>
       </c>
     </row>
@@ -12994,9 +13996,15 @@
         <v>0.06686727096358838</v>
       </c>
       <c r="W67" t="n">
+        <v>0.4561721611721612</v>
+      </c>
+      <c r="X67" t="n">
+        <v>2.458237156983756</v>
+      </c>
+      <c r="Y67" t="n">
         <v>3.933333333333334</v>
       </c>
-      <c r="X67" t="n">
+      <c r="Z67" t="n">
         <v>-0.2252730410481293</v>
       </c>
     </row>
@@ -13070,9 +14078,15 @@
         <v>-1.278187600304275</v>
       </c>
       <c r="W68" t="n">
+        <v>0.3718025362318842</v>
+      </c>
+      <c r="X68" t="n">
+        <v>2.444978016499623</v>
+      </c>
+      <c r="Y68" t="n">
         <v>4</v>
       </c>
-      <c r="X68" t="n">
+      <c r="Z68" t="n">
         <v>1.498950395177451</v>
       </c>
     </row>
@@ -13146,9 +14160,15 @@
         <v>0.9210443635445466</v>
       </c>
       <c r="W69" t="n">
+        <v>0.319610507246376</v>
+      </c>
+      <c r="X69" t="n">
+        <v>2.000984498798462</v>
+      </c>
+      <c r="Y69" t="n">
         <v>3.9</v>
       </c>
-      <c r="X69" t="n">
+      <c r="Z69" t="n">
         <v>0.1252227237608183</v>
       </c>
     </row>
@@ -13222,9 +14242,15 @@
         <v>1.860930973213774</v>
       </c>
       <c r="W70" t="n">
+        <v>0.3999166666666676</v>
+      </c>
+      <c r="X70" t="n">
+        <v>1.755115980828378</v>
+      </c>
+      <c r="Y70" t="n">
         <v>4.233333333333333</v>
       </c>
-      <c r="X70" t="n">
+      <c r="Z70" t="n">
         <v>0.8302048569634537</v>
       </c>
     </row>
@@ -13298,9 +14324,15 @@
         <v>2.599799802488617</v>
       </c>
       <c r="W71" t="n">
+        <v>0.7041575091575094</v>
+      </c>
+      <c r="X71" t="n">
+        <v>3.226908585445039</v>
+      </c>
+      <c r="Y71" t="n">
         <v>4.399999999999999</v>
       </c>
-      <c r="X71" t="n">
+      <c r="Z71" t="n">
         <v>-0.1828974110579861</v>
       </c>
     </row>
@@ -13374,9 +14406,15 @@
         <v>2.116033248047892</v>
       </c>
       <c r="W72" t="n">
+        <v>0.8896195652173914</v>
+      </c>
+      <c r="X72" t="n">
+        <v>2.956962076923184</v>
+      </c>
+      <c r="Y72" t="n">
         <v>4.833333333333333</v>
       </c>
-      <c r="X72" t="n">
+      <c r="Z72" t="n">
         <v>0.1532205057472692</v>
       </c>
     </row>
@@ -13450,9 +14488,15 @@
         <v>-0.2725654271577613</v>
       </c>
       <c r="W73" t="n">
+        <v>1.144057971014493</v>
+      </c>
+      <c r="X73" t="n">
+        <v>2.106507940897485</v>
+      </c>
+      <c r="Y73" t="n">
         <v>5.5</v>
       </c>
-      <c r="X73" t="n">
+      <c r="Z73" t="n">
         <v>0.3076405365812666</v>
       </c>
     </row>
@@ -13526,9 +14570,15 @@
         <v>2.262680858887241</v>
       </c>
       <c r="W74" t="n">
+        <v>1.280111111111111</v>
+      </c>
+      <c r="X74" t="n">
+        <v>2.556290508934249</v>
+      </c>
+      <c r="Y74" t="n">
         <v>5.7</v>
       </c>
-      <c r="X74" t="n">
+      <c r="Z74" t="n">
         <v>1.153584418529487</v>
       </c>
     </row>
@@ -13602,9 +14652,15 @@
         <v>2.793138468917747</v>
       </c>
       <c r="W75" t="n">
+        <v>1.260448717948718</v>
+      </c>
+      <c r="X75" t="n">
+        <v>3.193849598429004</v>
+      </c>
+      <c r="Y75" t="n">
         <v>5.833333333333333</v>
       </c>
-      <c r="X75" t="n">
+      <c r="Z75" t="n">
         <v>0.6721419935359457</v>
       </c>
     </row>
@@ -13678,9 +14734,15 @@
         <v>0.8744093869229062</v>
       </c>
       <c r="W76" t="n">
+        <v>1.163115942028986</v>
+      </c>
+      <c r="X76" t="n">
+        <v>3.382704536301659</v>
+      </c>
+      <c r="Y76" t="n">
         <v>5.733333333333333</v>
       </c>
-      <c r="X76" t="n">
+      <c r="Z76" t="n">
         <v>0.1220987828536571</v>
       </c>
     </row>
@@ -13754,9 +14816,15 @@
         <v>3.250894546241287</v>
       </c>
       <c r="W77" t="n">
+        <v>1.164773550724638</v>
+      </c>
+      <c r="X77" t="n">
+        <v>3.335926404035621</v>
+      </c>
+      <c r="Y77" t="n">
         <v>5.866666666666667</v>
       </c>
-      <c r="X77" t="n">
+      <c r="Z77" t="n">
         <v>-0.573988567694194</v>
       </c>
     </row>
@@ -13830,9 +14898,15 @@
         <v>3.241286192667455</v>
       </c>
       <c r="W78" t="n">
+        <v>1.16175</v>
+      </c>
+      <c r="X78" t="n">
+        <v>2.883834431706596</v>
+      </c>
+      <c r="Y78" t="n">
         <v>5.866666666666667</v>
       </c>
-      <c r="X78" t="n">
+      <c r="Z78" t="n">
         <v>0.6024531868168667</v>
       </c>
     </row>
@@ -13906,9 +14980,15 @@
         <v>2.544759744742195</v>
       </c>
       <c r="W79" t="n">
+        <v>1.08915750915751</v>
+      </c>
+      <c r="X79" t="n">
+        <v>4.092584021883129</v>
+      </c>
+      <c r="Y79" t="n">
         <v>6.133333333333333</v>
       </c>
-      <c r="X79" t="n">
+      <c r="Z79" t="n">
         <v>1.283160434102258</v>
       </c>
     </row>
@@ -13982,9 +15062,15 @@
         <v>5.657577446718212</v>
       </c>
       <c r="W80" t="n">
+        <v>1.165788043478261</v>
+      </c>
+      <c r="X80" t="n">
+        <v>3.700284309245446</v>
+      </c>
+      <c r="Y80" t="n">
         <v>6.133333333333333</v>
       </c>
-      <c r="X80" t="n">
+      <c r="Z80" t="n">
         <v>0.8035425434530054</v>
       </c>
     </row>
@@ -14058,9 +15144,15 @@
         <v>4.378309979712185</v>
       </c>
       <c r="W81" t="n">
+        <v>1.208315217391304</v>
+      </c>
+      <c r="X81" t="n">
+        <v>3.053349690820164</v>
+      </c>
+      <c r="Y81" t="n">
         <v>5.833333333333333</v>
       </c>
-      <c r="X81" t="n">
+      <c r="Z81" t="n">
         <v>0.3021226481335962</v>
       </c>
     </row>
@@ -14134,9 +15226,15 @@
         <v>3.312732572661011</v>
       </c>
       <c r="W82" t="n">
+        <v>1.154532967032967</v>
+      </c>
+      <c r="X82" t="n">
+        <v>2.442215663267359</v>
+      </c>
+      <c r="Y82" t="n">
         <v>5.7</v>
       </c>
-      <c r="X82" t="n">
+      <c r="Z82" t="n">
         <v>-0.9344074427186128</v>
       </c>
     </row>
@@ -14210,9 +15308,15 @@
         <v>5.971235738267619</v>
       </c>
       <c r="W83" t="n">
+        <v>1.178003663003663</v>
+      </c>
+      <c r="X83" t="n">
+        <v>3.778850455339486</v>
+      </c>
+      <c r="Y83" t="n">
         <v>5.599999999999999</v>
       </c>
-      <c r="X83" t="n">
+      <c r="Z83" t="n">
         <v>0.2964375750173121</v>
       </c>
     </row>
@@ -14286,9 +15390,15 @@
         <v>3.066779845347599</v>
       </c>
       <c r="W84" t="n">
+        <v>1.098976449275362</v>
+      </c>
+      <c r="X84" t="n">
+        <v>3.243024438646115</v>
+      </c>
+      <c r="Y84" t="n">
         <v>5.433333333333334</v>
       </c>
-      <c r="X84" t="n">
+      <c r="Z84" t="n">
         <v>0.764010936566182</v>
       </c>
     </row>
@@ -14362,9 +15472,15 @@
         <v>2.087877930737528</v>
       </c>
       <c r="W85" t="n">
+        <v>0.9550271739130435</v>
+      </c>
+      <c r="X85" t="n">
+        <v>3.328424582974502</v>
+      </c>
+      <c r="Y85" t="n">
         <v>5.433333333333334</v>
       </c>
-      <c r="X85" t="n">
+      <c r="Z85" t="n">
         <v>0.499586314917211</v>
       </c>
     </row>
@@ -14438,9 +15554,15 @@
         <v>3.21687558465296</v>
       </c>
       <c r="W86" t="n">
+        <v>0.8302499999999997</v>
+      </c>
+      <c r="X86" t="n">
+        <v>2.703413482439003</v>
+      </c>
+      <c r="Y86" t="n">
         <v>5.266666666666667</v>
       </c>
-      <c r="X86" t="n">
+      <c r="Z86" t="n">
         <v>-0.3050959360992143</v>
       </c>
     </row>
@@ -14514,9 +15636,15 @@
         <v>3.976346544761345</v>
       </c>
       <c r="W87" t="n">
+        <v>0.7203937728937729</v>
+      </c>
+      <c r="X87" t="n">
+        <v>3.43869398959077</v>
+      </c>
+      <c r="Y87" t="n">
         <v>5.066666666666666</v>
       </c>
-      <c r="X87" t="n">
+      <c r="Z87" t="n">
         <v>-0.04282294119780695</v>
       </c>
     </row>
@@ -14590,9 +15718,15 @@
         <v>3.595834892921651</v>
       </c>
       <c r="W88" t="n">
+        <v>0.5941666666666664</v>
+      </c>
+      <c r="X88" t="n">
+        <v>3.391335399011536</v>
+      </c>
+      <c r="Y88" t="n">
         <v>5</v>
       </c>
-      <c r="X88" t="n">
+      <c r="Z88" t="n">
         <v>0.4957452109110861</v>
       </c>
     </row>
@@ -14666,9 +15800,15 @@
         <v>1.937654985576635</v>
       </c>
       <c r="W89" t="n">
+        <v>0.557934782608696</v>
+      </c>
+      <c r="X89" t="n">
+        <v>2.918458922592683</v>
+      </c>
+      <c r="Y89" t="n">
         <v>4.933333333333334</v>
       </c>
-      <c r="X89" t="n">
+      <c r="Z89" t="n">
         <v>-0.01852266143093755</v>
       </c>
     </row>
@@ -14742,9 +15882,15 @@
         <v>0.6953958235231033</v>
       </c>
       <c r="W90" t="n">
+        <v>0.4848055555555564</v>
+      </c>
+      <c r="X90" t="n">
+        <v>3.299154487576608</v>
+      </c>
+      <c r="Y90" t="n">
         <v>4.7</v>
       </c>
-      <c r="X90" t="n">
+      <c r="Z90" t="n">
         <v>0.4074557379012421</v>
       </c>
     </row>
@@ -14818,9 +15964,15 @@
         <v>-3.590484560599622</v>
       </c>
       <c r="W91" t="n">
+        <v>0.4356043956043951</v>
+      </c>
+      <c r="X91" t="n">
+        <v>3.270203388442527</v>
+      </c>
+      <c r="Y91" t="n">
         <v>4.666666666666667</v>
       </c>
-      <c r="X91" t="n">
+      <c r="Z91" t="n">
         <v>-0.5011850671494409</v>
       </c>
     </row>
@@ -14894,9 +16046,15 @@
         <v>-5.727914668848501</v>
       </c>
       <c r="W92" t="n">
+        <v>0.3803351449275361</v>
+      </c>
+      <c r="X92" t="n">
+        <v>2.452670051098675</v>
+      </c>
+      <c r="Y92" t="n">
         <v>4.633333333333334</v>
       </c>
-      <c r="X92" t="n">
+      <c r="Z92" t="n">
         <v>-0.197349322803286</v>
       </c>
     </row>
@@ -14970,9 +16128,15 @@
         <v>-4.472346478687847</v>
       </c>
       <c r="W93" t="n">
+        <v>0.3200996376811596</v>
+      </c>
+      <c r="X93" t="n">
+        <v>1.561745592277124</v>
+      </c>
+      <c r="Y93" t="n">
         <v>4.433333333333334</v>
       </c>
-      <c r="X93" t="n">
+      <c r="Z93" t="n">
         <v>1.692718040446249</v>
       </c>
     </row>
@@ -15046,9 +16210,15 @@
         <v>-3.910708324576738</v>
       </c>
       <c r="W94" t="n">
+        <v>0.2855277777777772</v>
+      </c>
+      <c r="X94" t="n">
+        <v>1.985720555225968</v>
+      </c>
+      <c r="Y94" t="n">
         <v>4.5</v>
       </c>
-      <c r="X94" t="n">
+      <c r="Z94" t="n">
         <v>0.189263666879081</v>
       </c>
     </row>
@@ -15122,9 +16292,15 @@
         <v>-3.395248762373774</v>
       </c>
       <c r="W95" t="n">
+        <v>0.2968956043956039</v>
+      </c>
+      <c r="X95" t="n">
+        <v>2.009313040563272</v>
+      </c>
+      <c r="Y95" t="n">
         <v>4.533333333333333</v>
       </c>
-      <c r="X95" t="n">
+      <c r="Z95" t="n">
         <v>-0.2963218980143068</v>
       </c>
     </row>
@@ -15198,9 +16374,15 @@
         <v>-5.706852862330961</v>
       </c>
       <c r="W96" t="n">
+        <v>0.4147463768115944</v>
+      </c>
+      <c r="X96" t="n">
+        <v>1.466721578856795</v>
+      </c>
+      <c r="Y96" t="n">
         <v>4.7</v>
       </c>
-      <c r="X96" t="n">
+      <c r="Z96" t="n">
         <v>0.4266524867614028</v>
       </c>
     </row>
@@ -15274,9 +16456,15 @@
         <v>-7.873579093481088</v>
       </c>
       <c r="W97" t="n">
+        <v>0.480253623188406</v>
+      </c>
+      <c r="X97" t="n">
+        <v>1.142426764255193</v>
+      </c>
+      <c r="Y97" t="n">
         <v>4.833333333333333</v>
       </c>
-      <c r="X97" t="n">
+      <c r="Z97" t="n">
         <v>0.6032442192905649</v>
       </c>
     </row>
@@ -15350,9 +16538,15 @@
         <v>-7.862880601752931</v>
       </c>
       <c r="W98" t="n">
+        <v>0.7096428571428575</v>
+      </c>
+      <c r="X98" t="n">
+        <v>0.6990711183999552</v>
+      </c>
+      <c r="Y98" t="n">
         <v>4.933333333333333</v>
       </c>
-      <c r="X98" t="n">
+      <c r="Z98" t="n">
         <v>0.2911764582629277</v>
       </c>
     </row>
@@ -15426,9 +16620,15 @@
         <v>-4.472723043752771</v>
       </c>
       <c r="W99" t="n">
+        <v>1.009652014652014</v>
+      </c>
+      <c r="X99" t="n">
+        <v>-0.03901832214169923</v>
+      </c>
+      <c r="Y99" t="n">
         <v>5.333333333333333</v>
       </c>
-      <c r="X99" t="n">
+      <c r="Z99" t="n">
         <v>0.5900572756261816</v>
       </c>
     </row>
@@ -15500,9 +16700,13 @@
         <v>-5.578486719696743</v>
       </c>
       <c r="W100" t="n">
+        <v>1.112336956521739</v>
+      </c>
+      <c r="X100" t="inlineStr"/>
+      <c r="Y100" t="n">
         <v>5.966666666666666</v>
       </c>
-      <c r="X100" t="n">
+      <c r="Z100" t="n">
         <v>0.1159823575718521</v>
       </c>
     </row>
@@ -15547,6 +16751,8 @@
       </c>
       <c r="W101" t="inlineStr"/>
       <c r="X101" t="inlineStr"/>
+      <c r="Y101" t="inlineStr"/>
+      <c r="Z101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
@@ -15559,7 +16765,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X101"/>
+  <dimension ref="A1:Z101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15675,10 +16881,20 @@
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
+          <t>mortffr_obs</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>mortgage_nom_obs</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
           <t>unr_obs</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>wage_rgd_obs</t>
         </is>
@@ -15752,9 +16968,15 @@
         <v>3.339400681539008</v>
       </c>
       <c r="W2" t="n">
+        <v>0.6303571428571426</v>
+      </c>
+      <c r="X2" t="n">
+        <v>2.447779857357557</v>
+      </c>
+      <c r="Y2" t="n">
         <v>7.866666666666667</v>
       </c>
-      <c r="X2" t="n">
+      <c r="Z2" t="n">
         <v>0.0187856805383563</v>
       </c>
     </row>
@@ -15826,9 +17048,15 @@
         <v>2.681724951117663</v>
       </c>
       <c r="W3" t="n">
+        <v>0.3996520146520153</v>
+      </c>
+      <c r="X3" t="n">
+        <v>2.884840292812955</v>
+      </c>
+      <c r="Y3" t="n">
         <v>7.433333333333334</v>
       </c>
-      <c r="X3" t="n">
+      <c r="Z3" t="n">
         <v>0.08341637990603153</v>
       </c>
     </row>
@@ -15900,9 +17128,15 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
+        <v>0.3219293478260878</v>
+      </c>
+      <c r="X4" t="n">
+        <v>2.825415705076066</v>
+      </c>
+      <c r="Y4" t="n">
         <v>7.433333333333334</v>
       </c>
-      <c r="X4" t="n">
+      <c r="Z4" t="n">
         <v>0.5550377060815963</v>
       </c>
     </row>
@@ -15974,9 +17208,15 @@
         <v>0.8781615160384618</v>
       </c>
       <c r="W5" t="n">
+        <v>0.9002083333333348</v>
+      </c>
+      <c r="X5" t="n">
+        <v>2.585374281902362</v>
+      </c>
+      <c r="Y5" t="n">
         <v>7.300000000000001</v>
       </c>
-      <c r="X5" t="n">
+      <c r="Z5" t="n">
         <v>0.1708529278791655</v>
       </c>
     </row>
@@ -16048,9 +17288,15 @@
         <v>0.163800200423837</v>
       </c>
       <c r="W6" t="n">
+        <v>0.970388888888889</v>
+      </c>
+      <c r="X6" t="n">
+        <v>4.838279261661252</v>
+      </c>
+      <c r="Y6" t="n">
         <v>7.233333333333333</v>
       </c>
-      <c r="X6" t="n">
+      <c r="Z6" t="n">
         <v>0.0936451387024257</v>
       </c>
     </row>
@@ -16122,9 +17368,15 @@
         <v>0.9772064733792302</v>
       </c>
       <c r="W7" t="n">
+        <v>1.014734432234433</v>
+      </c>
+      <c r="X7" t="n">
+        <v>2.887889102968135</v>
+      </c>
+      <c r="Y7" t="n">
         <v>7.3</v>
       </c>
-      <c r="X7" t="n">
+      <c r="Z7" t="n">
         <v>0.2652226031985177</v>
       </c>
     </row>
@@ -16196,9 +17448,15 @@
         <v>1.979203413194857</v>
       </c>
       <c r="W8" t="n">
+        <v>0.8547554347826087</v>
+      </c>
+      <c r="X8" t="n">
+        <v>4.283328736272085</v>
+      </c>
+      <c r="Y8" t="n">
         <v>7.2</v>
       </c>
-      <c r="X8" t="n">
+      <c r="Z8" t="n">
         <v>0.9137733930902497</v>
       </c>
     </row>
@@ -16270,9 +17528,15 @@
         <v>3.487212571402014</v>
       </c>
       <c r="W9" t="n">
+        <v>0.7705525362318832</v>
+      </c>
+      <c r="X9" t="n">
+        <v>3.377405381157359</v>
+      </c>
+      <c r="Y9" t="n">
         <v>7.033333333333334</v>
       </c>
-      <c r="X9" t="n">
+      <c r="Z9" t="n">
         <v>1.131977420649275</v>
       </c>
     </row>
@@ -16344,9 +17608,15 @@
         <v>5.377104065178582</v>
       </c>
       <c r="W10" t="n">
+        <v>0.7299444444444461</v>
+      </c>
+      <c r="X10" t="n">
+        <v>1.821793037383781</v>
+      </c>
+      <c r="Y10" t="n">
         <v>7.033333333333334</v>
       </c>
-      <c r="X10" t="n">
+      <c r="Z10" t="n">
         <v>0.8327718915132062</v>
       </c>
     </row>
@@ -16418,9 +17688,15 @@
         <v>6.338662189231478</v>
       </c>
       <c r="W11" t="n">
+        <v>0.8312179487179467</v>
+      </c>
+      <c r="X11" t="n">
+        <v>3.266066946893799</v>
+      </c>
+      <c r="Y11" t="n">
         <v>7.166666666666667</v>
       </c>
-      <c r="X11" t="n">
+      <c r="Z11" t="n">
         <v>0.3604664869711737</v>
       </c>
     </row>
@@ -16492,9 +17768,15 @@
         <v>2.825933731440306</v>
       </c>
       <c r="W12" t="n">
+        <v>0.9993025362318846</v>
+      </c>
+      <c r="X12" t="n">
+        <v>3.995249609571855</v>
+      </c>
+      <c r="Y12" t="n">
         <v>6.966666666666666</v>
       </c>
-      <c r="X12" t="n">
+      <c r="Z12" t="n">
         <v>0.3346420717301988</v>
       </c>
     </row>
@@ -16566,9 +17848,15 @@
         <v>0.9683174251825857</v>
       </c>
       <c r="W13" t="n">
+        <v>0.8933152173913048</v>
+      </c>
+      <c r="X13" t="n">
+        <v>3.767756284239854</v>
+      </c>
+      <c r="Y13" t="n">
         <v>6.833333333333333</v>
       </c>
-      <c r="X13" t="n">
+      <c r="Z13" t="n">
         <v>0.9439049497590892</v>
       </c>
     </row>
@@ -16640,9 +17928,15 @@
         <v>0.7853443505570304</v>
       </c>
       <c r="W14" t="n">
+        <v>0.7668611111111105</v>
+      </c>
+      <c r="X14" t="n">
+        <v>1.947735118636464</v>
+      </c>
+      <c r="Y14" t="n">
         <v>6.599999999999999</v>
       </c>
-      <c r="X14" t="n">
+      <c r="Z14" t="n">
         <v>-0.6129512377825054</v>
       </c>
     </row>
@@ -16714,9 +18008,15 @@
         <v>1.209517984897514</v>
       </c>
       <c r="W15" t="n">
+        <v>0.6541666666666672</v>
+      </c>
+      <c r="X15" t="n">
+        <v>4.147767327829527</v>
+      </c>
+      <c r="Y15" t="n">
         <v>6.266666666666667</v>
       </c>
-      <c r="X15" t="n">
+      <c r="Z15" t="n">
         <v>0.4206078914575486</v>
       </c>
     </row>
@@ -16788,9 +18088,15 @@
         <v>0.5566274273321643</v>
       </c>
       <c r="W16" t="n">
+        <v>0.6326086956521739</v>
+      </c>
+      <c r="X16" t="n">
+        <v>2.826774900665543</v>
+      </c>
+      <c r="Y16" t="n">
         <v>6</v>
       </c>
-      <c r="X16" t="n">
+      <c r="Z16" t="n">
         <v>0.2696876592827458</v>
       </c>
     </row>
@@ -16862,9 +18168,15 @@
         <v>1.399217231107909</v>
       </c>
       <c r="W17" t="n">
+        <v>0.5842481884057971</v>
+      </c>
+      <c r="X17" t="n">
+        <v>1.41489184132428</v>
+      </c>
+      <c r="Y17" t="n">
         <v>5.833333333333333</v>
       </c>
-      <c r="X17" t="n">
+      <c r="Z17" t="n">
         <v>0.557371050331582</v>
       </c>
     </row>
@@ -16936,9 +18248,15 @@
         <v>-1.31385657718383</v>
       </c>
       <c r="W18" t="n">
+        <v>0.6285164835164825</v>
+      </c>
+      <c r="X18" t="n">
+        <v>2.538290967561651</v>
+      </c>
+      <c r="Y18" t="n">
         <v>5.7</v>
       </c>
-      <c r="X18" t="n">
+      <c r="Z18" t="n">
         <v>0.7435998434387213</v>
       </c>
     </row>
@@ -17010,9 +18328,15 @@
         <v>1.692087748833718</v>
       </c>
       <c r="W19" t="n">
+        <v>0.5179304029304042</v>
+      </c>
+      <c r="X19" t="n">
+        <v>3.489634163901059</v>
+      </c>
+      <c r="Y19" t="n">
         <v>5.466666666666666</v>
       </c>
-      <c r="X19" t="n">
+      <c r="Z19" t="n">
         <v>0.1473501260968532</v>
       </c>
     </row>
@@ -17084,9 +18408,15 @@
         <v>0.6688988150796489</v>
       </c>
       <c r="W20" t="n">
+        <v>0.3266304347826092</v>
+      </c>
+      <c r="X20" t="n">
+        <v>2.91823679065083</v>
+      </c>
+      <c r="Y20" t="n">
         <v>5.466666666666666</v>
       </c>
-      <c r="X20" t="n">
+      <c r="Z20" t="n">
         <v>-0.03367691419229579</v>
       </c>
     </row>
@@ -17158,9 +18488,15 @@
         <v>1.816730395544893</v>
       </c>
       <c r="W21" t="n">
+        <v>0.2487137681159424</v>
+      </c>
+      <c r="X21" t="n">
+        <v>2.726497326586302</v>
+      </c>
+      <c r="Y21" t="n">
         <v>5.333333333333333</v>
       </c>
-      <c r="X21" t="n">
+      <c r="Z21" t="n">
         <v>-0.1885353706679958</v>
       </c>
     </row>
@@ -17232,9 +18568,15 @@
         <v>0.08179959556317626</v>
       </c>
       <c r="W22" t="n">
+        <v>0.08588888888888979</v>
+      </c>
+      <c r="X22" t="n">
+        <v>1.643544561454601</v>
+      </c>
+      <c r="Y22" t="n">
         <v>5.2</v>
       </c>
-      <c r="X22" t="n">
+      <c r="Z22" t="n">
         <v>-0.7141146922364958</v>
       </c>
     </row>
@@ -17306,9 +18648,15 @@
         <v>-1.815231360718883</v>
       </c>
       <c r="W23" t="n">
+        <v>0.1560714285714275</v>
+      </c>
+      <c r="X23" t="n">
+        <v>2.721931283633474</v>
+      </c>
+      <c r="Y23" t="n">
         <v>5.233333333333333</v>
       </c>
-      <c r="X23" t="n">
+      <c r="Z23" t="n">
         <v>-0.7057968438876389</v>
       </c>
     </row>
@@ -17380,9 +18728,15 @@
         <v>-0.7521974454688446</v>
       </c>
       <c r="W24" t="n">
+        <v>0.2882699275362324</v>
+      </c>
+      <c r="X24" t="n">
+        <v>2.947527669609471</v>
+      </c>
+      <c r="Y24" t="n">
         <v>5.233333333333333</v>
       </c>
-      <c r="X24" t="n">
+      <c r="Z24" t="n">
         <v>0.08528008334099503</v>
       </c>
     </row>
@@ -17454,9 +18808,15 @@
         <v>-1.521584723725332</v>
       </c>
       <c r="W25" t="n">
+        <v>0.3705525362318833</v>
+      </c>
+      <c r="X25" t="n">
+        <v>2.213323210101831</v>
+      </c>
+      <c r="Y25" t="n">
         <v>5.366666666666667</v>
       </c>
-      <c r="X25" t="n">
+      <c r="Z25" t="n">
         <v>0.6407714198461927</v>
       </c>
     </row>
@@ -17528,9 +18888,15 @@
         <v>1.856593412253519</v>
       </c>
       <c r="W26" t="n">
+        <v>0.4446666666666679</v>
+      </c>
+      <c r="X26" t="n">
+        <v>3.257750385284998</v>
+      </c>
+      <c r="Y26" t="n">
         <v>5.3</v>
       </c>
-      <c r="X26" t="n">
+      <c r="Z26" t="n">
         <v>0.6923077894278937</v>
       </c>
     </row>
@@ -17602,9 +18968,15 @@
         <v>-3.531530571602695</v>
       </c>
       <c r="W27" t="n">
+        <v>0.4802481684981683</v>
+      </c>
+      <c r="X27" t="n">
+        <v>2.560864642558711</v>
+      </c>
+      <c r="Y27" t="n">
         <v>5.333333333333333</v>
       </c>
-      <c r="X27" t="n">
+      <c r="Z27" t="n">
         <v>0.9561899198492235</v>
       </c>
     </row>
@@ -17676,9 +19048,15 @@
         <v>-5.382664581262346</v>
       </c>
       <c r="W28" t="n">
+        <v>0.4706123188405811</v>
+      </c>
+      <c r="X28" t="n">
+        <v>2.122346525019553</v>
+      </c>
+      <c r="Y28" t="n">
         <v>5.7</v>
       </c>
-      <c r="X28" t="n">
+      <c r="Z28" t="n">
         <v>0.6269900166253765</v>
       </c>
     </row>
@@ -17750,9 +19128,15 @@
         <v>-5.543927728245711</v>
       </c>
       <c r="W29" t="n">
+        <v>0.5443242753623196</v>
+      </c>
+      <c r="X29" t="n">
+        <v>1.724470643360993</v>
+      </c>
+      <c r="Y29" t="n">
         <v>6.133333333333334</v>
       </c>
-      <c r="X29" t="n">
+      <c r="Z29" t="n">
         <v>0.08200849935616793</v>
       </c>
     </row>
@@ -17824,9 +19208,15 @@
         <v>-5.869411928637701</v>
       </c>
       <c r="W30" t="n">
+        <v>0.8115555555555565</v>
+      </c>
+      <c r="X30" t="n">
+        <v>1.59167876108484</v>
+      </c>
+      <c r="Y30" t="n">
         <v>6.600000000000001</v>
       </c>
-      <c r="X30" t="n">
+      <c r="Z30" t="n">
         <v>-0.3433735223151068</v>
       </c>
     </row>
@@ -17898,9 +19288,15 @@
         <v>2.778658182330028</v>
       </c>
       <c r="W31" t="n">
+        <v>0.9039835164835168</v>
+      </c>
+      <c r="X31" t="n">
+        <v>2.382521088255797</v>
+      </c>
+      <c r="Y31" t="n">
         <v>6.833333333333333</v>
       </c>
-      <c r="X31" t="n">
+      <c r="Z31" t="n">
         <v>1.202893412487421</v>
       </c>
     </row>
@@ -17972,9 +19368,15 @@
         <v>4.67238269063617</v>
       </c>
       <c r="W32" t="n">
+        <v>0.9203623188405803</v>
+      </c>
+      <c r="X32" t="n">
+        <v>0.9190509855307156</v>
+      </c>
+      <c r="Y32" t="n">
         <v>6.866666666666667</v>
       </c>
-      <c r="X32" t="n">
+      <c r="Z32" t="n">
         <v>0.3906350604859103</v>
       </c>
     </row>
@@ -18046,9 +19448,15 @@
         <v>1.837507530499412</v>
       </c>
       <c r="W33" t="n">
+        <v>0.9803804347826088</v>
+      </c>
+      <c r="X33" t="n">
+        <v>2.022589372440903</v>
+      </c>
+      <c r="Y33" t="n">
         <v>7.100000000000001</v>
       </c>
-      <c r="X33" t="n">
+      <c r="Z33" t="n">
         <v>0.5721631092897534</v>
       </c>
     </row>
@@ -18120,9 +19528,15 @@
         <v>4.652001563489291</v>
       </c>
       <c r="W34" t="n">
+        <v>1.093928571428571</v>
+      </c>
+      <c r="X34" t="n">
+        <v>1.503099379549398</v>
+      </c>
+      <c r="Y34" t="n">
         <v>7.366666666666667</v>
       </c>
-      <c r="X34" t="n">
+      <c r="Z34" t="n">
         <v>1.228339555379489</v>
       </c>
     </row>
@@ -18194,9 +19608,15 @@
         <v>4.658078189748251</v>
       </c>
       <c r="W35" t="n">
+        <v>1.173150183150183</v>
+      </c>
+      <c r="X35" t="n">
+        <v>1.211165913037192</v>
+      </c>
+      <c r="Y35" t="n">
         <v>7.600000000000001</v>
       </c>
-      <c r="X35" t="n">
+      <c r="Z35" t="n">
         <v>0.2624515558078852</v>
       </c>
     </row>
@@ -18268,9 +19688,15 @@
         <v>0.931420789569421</v>
       </c>
       <c r="W36" t="n">
+        <v>1.159356884057971</v>
+      </c>
+      <c r="X36" t="n">
+        <v>1.974645713851098</v>
+      </c>
+      <c r="Y36" t="n">
         <v>7.633333333333333</v>
       </c>
-      <c r="X36" t="n">
+      <c r="Z36" t="n">
         <v>1.054626980296685</v>
       </c>
     </row>
@@ -18342,9 +19768,15 @@
         <v>4.65200156348927</v>
       </c>
       <c r="W37" t="n">
+        <v>1.183777173913043</v>
+      </c>
+      <c r="X37" t="n">
+        <v>1.59825088905419</v>
+      </c>
+      <c r="Y37" t="n">
         <v>7.366666666666667</v>
       </c>
-      <c r="X37" t="n">
+      <c r="Z37" t="n">
         <v>-0.1371025309882777</v>
       </c>
     </row>
@@ -18416,9 +19848,15 @@
         <v>1.596203083978002</v>
       </c>
       <c r="W38" t="n">
+        <v>1.13275</v>
+      </c>
+      <c r="X38" t="n">
+        <v>0.4850840317691807</v>
+      </c>
+      <c r="Y38" t="n">
         <v>7.133333333333333</v>
       </c>
-      <c r="X38" t="n">
+      <c r="Z38" t="n">
         <v>-0.6124616996794719</v>
       </c>
     </row>
@@ -18490,9 +19928,15 @@
         <v>2.076470297090824</v>
       </c>
       <c r="W39" t="n">
+        <v>1.06985347985348</v>
+      </c>
+      <c r="X39" t="n">
+        <v>1.861439197710495</v>
+      </c>
+      <c r="Y39" t="n">
         <v>7.066666666666666</v>
       </c>
-      <c r="X39" t="n">
+      <c r="Z39" t="n">
         <v>-0.176749109855844</v>
       </c>
     </row>
@@ -18564,9 +20008,15 @@
         <v>4.325408693025432</v>
       </c>
       <c r="W40" t="n">
+        <v>0.9964039855072462</v>
+      </c>
+      <c r="X40" t="n">
+        <v>1.710166196199506</v>
+      </c>
+      <c r="Y40" t="n">
         <v>6.8</v>
       </c>
-      <c r="X40" t="n">
+      <c r="Z40" t="n">
         <v>-0.02716379543587344</v>
       </c>
     </row>
@@ -18638,9 +20088,15 @@
         <v>5.350028904258899</v>
       </c>
       <c r="W41" t="n">
+        <v>0.9521014492753619</v>
+      </c>
+      <c r="X41" t="n">
+        <v>1.380735594952812</v>
+      </c>
+      <c r="Y41" t="n">
         <v>6.633333333333333</v>
       </c>
-      <c r="X41" t="n">
+      <c r="Z41" t="n">
         <v>-0.1209793860945706</v>
       </c>
     </row>
@@ -18714,9 +20170,15 @@
         <v>3.118755885670458</v>
       </c>
       <c r="W42" t="n">
+        <v>0.9268333333333333</v>
+      </c>
+      <c r="X42" t="n">
+        <v>1.004696775533694</v>
+      </c>
+      <c r="Y42" t="n">
         <v>6.566666666666666</v>
       </c>
-      <c r="X42" t="n">
+      <c r="Z42" t="n">
         <v>0.4924393736602579</v>
       </c>
     </row>
@@ -18790,9 +20252,15 @@
         <v>3.881383827481651</v>
       </c>
       <c r="W43" t="n">
+        <v>0.8729945054945051</v>
+      </c>
+      <c r="X43" t="n">
+        <v>1.477308904247951</v>
+      </c>
+      <c r="Y43" t="n">
         <v>6.2</v>
       </c>
-      <c r="X43" t="n">
+      <c r="Z43" t="n">
         <v>-0.6396724750905918</v>
       </c>
     </row>
@@ -18866,9 +20334,15 @@
         <v>0.03281378208278333</v>
       </c>
       <c r="W44" t="n">
+        <v>0.8086413043478262</v>
+      </c>
+      <c r="X44" t="n">
+        <v>1.496829968862364</v>
+      </c>
+      <c r="Y44" t="n">
         <v>6</v>
       </c>
-      <c r="X44" t="n">
+      <c r="Z44" t="n">
         <v>-0.6618420825354925</v>
       </c>
     </row>
@@ -18942,9 +20416,15 @@
         <v>0</v>
       </c>
       <c r="W45" t="n">
+        <v>0.6613496376811594</v>
+      </c>
+      <c r="X45" t="n">
+        <v>1.425481922786129</v>
+      </c>
+      <c r="Y45" t="n">
         <v>5.633333333333333</v>
       </c>
-      <c r="X45" t="n">
+      <c r="Z45" t="n">
         <v>0.08668448171009542</v>
       </c>
     </row>
@@ -19018,9 +20498,15 @@
         <v>-1.022267764747582</v>
       </c>
       <c r="W46" t="n">
+        <v>0.5834722222222226</v>
+      </c>
+      <c r="X46" t="n">
+        <v>0.8164980190834302</v>
+      </c>
+      <c r="Y46" t="n">
         <v>5.466666666666666</v>
       </c>
-      <c r="X46" t="n">
+      <c r="Z46" t="n">
         <v>0.11955294510689</v>
       </c>
     </row>
@@ -19094,9 +20580,15 @@
         <v>-2.789628045613411</v>
       </c>
       <c r="W47" t="n">
+        <v>0.4902197802197803</v>
+      </c>
+      <c r="X47" t="n">
+        <v>1.437660580239144</v>
+      </c>
+      <c r="Y47" t="n">
         <v>5.666666666666667</v>
       </c>
-      <c r="X47" t="n">
+      <c r="Z47" t="n">
         <v>0.2013161345749452</v>
       </c>
     </row>
@@ -19170,9 +20662,15 @@
         <v>3.483272445279132</v>
       </c>
       <c r="W48" t="n">
+        <v>0.4848731884057966</v>
+      </c>
+      <c r="X48" t="n">
+        <v>1.576129160699601</v>
+      </c>
+      <c r="Y48" t="n">
         <v>5.666666666666667</v>
       </c>
-      <c r="X48" t="n">
+      <c r="Z48" t="n">
         <v>0.1910193290128673</v>
       </c>
     </row>
@@ -19246,9 +20744,15 @@
         <v>2.791482780385841</v>
       </c>
       <c r="W49" t="n">
+        <v>0.4534692028985505</v>
+      </c>
+      <c r="X49" t="n">
+        <v>0.9095470657360019</v>
+      </c>
+      <c r="Y49" t="n">
         <v>5.566666666666666</v>
       </c>
-      <c r="X49" t="n">
+      <c r="Z49" t="n">
         <v>0.4073443056279821</v>
       </c>
     </row>
@@ -19322,9 +20826,15 @@
         <v>2.9645816592752</v>
       </c>
       <c r="W50" t="n">
+        <v>0.4930860805860806</v>
+      </c>
+      <c r="X50" t="n">
+        <v>1.356277617020229</v>
+      </c>
+      <c r="Y50" t="n">
         <v>5.533333333333334</v>
       </c>
-      <c r="X50" t="n">
+      <c r="Z50" t="n">
         <v>0.3894648829464068</v>
       </c>
     </row>
@@ -19398,9 +20908,15 @@
         <v>4.585591585422436</v>
       </c>
       <c r="W51" t="n">
+        <v>0.6498443223443229</v>
+      </c>
+      <c r="X51" t="n">
+        <v>1.571612376995801</v>
+      </c>
+      <c r="Y51" t="n">
         <v>5.5</v>
       </c>
-      <c r="X51" t="n">
+      <c r="Z51" t="n">
         <v>0.6140741198165393</v>
       </c>
     </row>
@@ -19474,9 +20990,15 @@
         <v>0.8276724754031047</v>
       </c>
       <c r="W52" t="n">
+        <v>0.6659510869565224</v>
+      </c>
+      <c r="X52" t="n">
+        <v>1.656144073704366</v>
+      </c>
+      <c r="Y52" t="n">
         <v>5.266666666666667</v>
       </c>
-      <c r="X52" t="n">
+      <c r="Z52" t="n">
         <v>0.263547839650391</v>
       </c>
     </row>
@@ -19550,9 +21072,15 @@
         <v>-0.5312881446293959</v>
       </c>
       <c r="W53" t="n">
+        <v>0.6131159420289864</v>
+      </c>
+      <c r="X53" t="n">
+        <v>1.406354671425849</v>
+      </c>
+      <c r="Y53" t="n">
         <v>5.333333333333333</v>
       </c>
-      <c r="X53" t="n">
+      <c r="Z53" t="n">
         <v>0.0007919174444820637</v>
       </c>
     </row>
@@ -19626,9 +21154,15 @@
         <v>0.854580123491658</v>
       </c>
       <c r="W54" t="n">
+        <v>0.6153888888888899</v>
+      </c>
+      <c r="X54" t="n">
+        <v>1.180647927875349</v>
+      </c>
+      <c r="Y54" t="n">
         <v>5.233333333333333</v>
       </c>
-      <c r="X54" t="n">
+      <c r="Z54" t="n">
         <v>0.07030507817540305</v>
       </c>
     </row>
@@ -19702,9 +21236,15 @@
         <v>1.745244995122621</v>
       </c>
       <c r="W55" t="n">
+        <v>0.5961172161172166</v>
+      </c>
+      <c r="X55" t="n">
+        <v>1.424337088689091</v>
+      </c>
+      <c r="Y55" t="n">
         <v>5</v>
       </c>
-      <c r="X55" t="n">
+      <c r="Z55" t="n">
         <v>0.4352116222258141</v>
       </c>
     </row>
@@ -19778,9 +21318,15 @@
         <v>1.289231436539459</v>
       </c>
       <c r="W56" t="n">
+        <v>0.5271648550724641</v>
+      </c>
+      <c r="X56" t="n">
+        <v>2.322965781594291</v>
+      </c>
+      <c r="Y56" t="n">
         <v>4.866666666666666</v>
       </c>
-      <c r="X56" t="n">
+      <c r="Z56" t="n">
         <v>0.7191211831164686</v>
       </c>
     </row>
@@ -19854,9 +21400,15 @@
         <v>1.749480286228099</v>
       </c>
       <c r="W57" t="n">
+        <v>0.4906521739130436</v>
+      </c>
+      <c r="X57" t="n">
+        <v>1.007127150844211</v>
+      </c>
+      <c r="Y57" t="n">
         <v>4.666666666666667</v>
       </c>
-      <c r="X57" t="n">
+      <c r="Z57" t="n">
         <v>1.378383905522504</v>
       </c>
     </row>
@@ -19930,9 +21482,15 @@
         <v>2.322470989109863</v>
       </c>
       <c r="W58" t="n">
+        <v>0.4251666666666665</v>
+      </c>
+      <c r="X58" t="n">
+        <v>1.430647922414338</v>
+      </c>
+      <c r="Y58" t="n">
         <v>4.633333333333333</v>
       </c>
-      <c r="X58" t="n">
+      <c r="Z58" t="n">
         <v>1.627979111179489</v>
       </c>
     </row>
@@ -20006,9 +21564,15 @@
         <v>3.412016675006154</v>
       </c>
       <c r="W59" t="n">
+        <v>0.4264652014652011</v>
+      </c>
+      <c r="X59" t="n">
+        <v>2.077073107508811</v>
+      </c>
+      <c r="Y59" t="n">
         <v>4.399999999999999</v>
       </c>
-      <c r="X59" t="n">
+      <c r="Z59" t="n">
         <v>1.16971895877371</v>
       </c>
     </row>
@@ -20082,9 +21646,15 @@
         <v>3.682033770508832</v>
       </c>
       <c r="W60" t="n">
+        <v>0.3879257246376813</v>
+      </c>
+      <c r="X60" t="n">
+        <v>1.93886886274309</v>
+      </c>
+      <c r="Y60" t="n">
         <v>4.533333333333333</v>
       </c>
-      <c r="X60" t="n">
+      <c r="Z60" t="n">
         <v>1.289460685542643</v>
       </c>
     </row>
@@ -20158,9 +21728,15 @@
         <v>3.305258312142185</v>
       </c>
       <c r="W61" t="n">
+        <v>0.5048641304347825</v>
+      </c>
+      <c r="X61" t="n">
+        <v>2.304719006103026</v>
+      </c>
+      <c r="Y61" t="n">
         <v>4.433333333333334</v>
       </c>
-      <c r="X61" t="n">
+      <c r="Z61" t="n">
         <v>0.2216216966693823</v>
       </c>
     </row>
@@ -20234,9 +21810,15 @@
         <v>1.830435486201331</v>
       </c>
       <c r="W62" t="n">
+        <v>0.5521944444444442</v>
+      </c>
+      <c r="X62" t="n">
+        <v>1.927781765140204</v>
+      </c>
+      <c r="Y62" t="n">
         <v>4.3</v>
       </c>
-      <c r="X62" t="n">
+      <c r="Z62" t="n">
         <v>1.449840218383615</v>
       </c>
     </row>
@@ -20310,9 +21892,15 @@
         <v>1.963664628876818</v>
       </c>
       <c r="W63" t="n">
+        <v>0.586410256410256</v>
+      </c>
+      <c r="X63" t="n">
+        <v>2.323456692645795</v>
+      </c>
+      <c r="Y63" t="n">
         <v>4.266666666666667</v>
       </c>
-      <c r="X63" t="n">
+      <c r="Z63" t="n">
         <v>-0.03765634714971744</v>
       </c>
     </row>
@@ -20386,9 +21974,15 @@
         <v>1.436163589579108</v>
       </c>
       <c r="W64" t="n">
+        <v>0.6052807971014489</v>
+      </c>
+      <c r="X64" t="n">
+        <v>2.774187356268646</v>
+      </c>
+      <c r="Y64" t="n">
         <v>4.233333333333333</v>
       </c>
-      <c r="X64" t="n">
+      <c r="Z64" t="n">
         <v>0.5350136180958796</v>
       </c>
     </row>
@@ -20462,9 +22056,15 @@
         <v>2.013257863135171</v>
       </c>
       <c r="W65" t="n">
+        <v>0.5689945652173918</v>
+      </c>
+      <c r="X65" t="n">
+        <v>1.864078036767872</v>
+      </c>
+      <c r="Y65" t="n">
         <v>4.066666666666666</v>
       </c>
-      <c r="X65" t="n">
+      <c r="Z65" t="n">
         <v>1.554162740819812</v>
       </c>
     </row>
@@ -20538,9 +22138,15 @@
         <v>2.712030621919382</v>
       </c>
       <c r="W66" t="n">
+        <v>0.5647435897435895</v>
+      </c>
+      <c r="X66" t="n">
+        <v>1.393692804223548</v>
+      </c>
+      <c r="Y66" t="n">
         <v>4.033333333333333</v>
       </c>
-      <c r="X66" t="n">
+      <c r="Z66" t="n">
         <v>2.643571474736089</v>
       </c>
     </row>
@@ -20614,9 +22220,15 @@
         <v>0.06686727096358838</v>
       </c>
       <c r="W67" t="n">
+        <v>0.4561721611721612</v>
+      </c>
+      <c r="X67" t="n">
+        <v>2.458237156983756</v>
+      </c>
+      <c r="Y67" t="n">
         <v>3.933333333333334</v>
       </c>
-      <c r="X67" t="n">
+      <c r="Z67" t="n">
         <v>-0.2252730410481293</v>
       </c>
     </row>
@@ -20690,9 +22302,15 @@
         <v>-1.278187600304275</v>
       </c>
       <c r="W68" t="n">
+        <v>0.3718025362318842</v>
+      </c>
+      <c r="X68" t="n">
+        <v>2.444978016499623</v>
+      </c>
+      <c r="Y68" t="n">
         <v>4</v>
       </c>
-      <c r="X68" t="n">
+      <c r="Z68" t="n">
         <v>1.498950395177451</v>
       </c>
     </row>
@@ -20766,9 +22384,15 @@
         <v>0.9210443635445466</v>
       </c>
       <c r="W69" t="n">
+        <v>0.319610507246376</v>
+      </c>
+      <c r="X69" t="n">
+        <v>2.000984498798462</v>
+      </c>
+      <c r="Y69" t="n">
         <v>3.9</v>
       </c>
-      <c r="X69" t="n">
+      <c r="Z69" t="n">
         <v>0.1252227237608183</v>
       </c>
     </row>
@@ -20842,9 +22466,15 @@
         <v>1.860930973213774</v>
       </c>
       <c r="W70" t="n">
+        <v>0.3999166666666676</v>
+      </c>
+      <c r="X70" t="n">
+        <v>1.755115980828378</v>
+      </c>
+      <c r="Y70" t="n">
         <v>4.233333333333333</v>
       </c>
-      <c r="X70" t="n">
+      <c r="Z70" t="n">
         <v>0.8302048569634537</v>
       </c>
     </row>
@@ -20918,9 +22548,15 @@
         <v>2.599799802488617</v>
       </c>
       <c r="W71" t="n">
+        <v>0.7041575091575094</v>
+      </c>
+      <c r="X71" t="n">
+        <v>3.226908585445039</v>
+      </c>
+      <c r="Y71" t="n">
         <v>4.399999999999999</v>
       </c>
-      <c r="X71" t="n">
+      <c r="Z71" t="n">
         <v>-0.1828974110579861</v>
       </c>
     </row>
@@ -20994,9 +22630,15 @@
         <v>2.116033248047892</v>
       </c>
       <c r="W72" t="n">
+        <v>0.8896195652173914</v>
+      </c>
+      <c r="X72" t="n">
+        <v>2.956962076923184</v>
+      </c>
+      <c r="Y72" t="n">
         <v>4.833333333333333</v>
       </c>
-      <c r="X72" t="n">
+      <c r="Z72" t="n">
         <v>0.1532205057472692</v>
       </c>
     </row>
@@ -21070,9 +22712,15 @@
         <v>-0.2725654271577613</v>
       </c>
       <c r="W73" t="n">
+        <v>1.144057971014493</v>
+      </c>
+      <c r="X73" t="n">
+        <v>2.106507940897485</v>
+      </c>
+      <c r="Y73" t="n">
         <v>5.5</v>
       </c>
-      <c r="X73" t="n">
+      <c r="Z73" t="n">
         <v>0.3076405365812666</v>
       </c>
     </row>
@@ -21146,9 +22794,15 @@
         <v>2.262680858887241</v>
       </c>
       <c r="W74" t="n">
+        <v>1.280111111111111</v>
+      </c>
+      <c r="X74" t="n">
+        <v>2.556290508934249</v>
+      </c>
+      <c r="Y74" t="n">
         <v>5.7</v>
       </c>
-      <c r="X74" t="n">
+      <c r="Z74" t="n">
         <v>1.153584418529487</v>
       </c>
     </row>
@@ -21222,9 +22876,15 @@
         <v>2.793138468917747</v>
       </c>
       <c r="W75" t="n">
+        <v>1.260448717948718</v>
+      </c>
+      <c r="X75" t="n">
+        <v>3.193849598429004</v>
+      </c>
+      <c r="Y75" t="n">
         <v>5.833333333333333</v>
       </c>
-      <c r="X75" t="n">
+      <c r="Z75" t="n">
         <v>0.6721419935359457</v>
       </c>
     </row>
@@ -21298,9 +22958,15 @@
         <v>0.8744093869229062</v>
       </c>
       <c r="W76" t="n">
+        <v>1.163115942028986</v>
+      </c>
+      <c r="X76" t="n">
+        <v>3.382704536301659</v>
+      </c>
+      <c r="Y76" t="n">
         <v>5.733333333333333</v>
       </c>
-      <c r="X76" t="n">
+      <c r="Z76" t="n">
         <v>0.1220987828536571</v>
       </c>
     </row>
@@ -21374,9 +23040,15 @@
         <v>3.250894546241287</v>
       </c>
       <c r="W77" t="n">
+        <v>1.164773550724638</v>
+      </c>
+      <c r="X77" t="n">
+        <v>3.335926404035621</v>
+      </c>
+      <c r="Y77" t="n">
         <v>5.866666666666667</v>
       </c>
-      <c r="X77" t="n">
+      <c r="Z77" t="n">
         <v>-0.573988567694194</v>
       </c>
     </row>
@@ -21450,9 +23122,15 @@
         <v>3.241286192667455</v>
       </c>
       <c r="W78" t="n">
+        <v>1.16175</v>
+      </c>
+      <c r="X78" t="n">
+        <v>2.883834431706596</v>
+      </c>
+      <c r="Y78" t="n">
         <v>5.866666666666667</v>
       </c>
-      <c r="X78" t="n">
+      <c r="Z78" t="n">
         <v>0.6024531868168667</v>
       </c>
     </row>
@@ -21526,9 +23204,15 @@
         <v>2.544759744742195</v>
       </c>
       <c r="W79" t="n">
+        <v>1.08915750915751</v>
+      </c>
+      <c r="X79" t="n">
+        <v>4.092584021883129</v>
+      </c>
+      <c r="Y79" t="n">
         <v>6.133333333333333</v>
       </c>
-      <c r="X79" t="n">
+      <c r="Z79" t="n">
         <v>1.283160434102258</v>
       </c>
     </row>
@@ -21602,9 +23286,15 @@
         <v>5.657577446718212</v>
       </c>
       <c r="W80" t="n">
+        <v>1.165788043478261</v>
+      </c>
+      <c r="X80" t="n">
+        <v>3.700284309245446</v>
+      </c>
+      <c r="Y80" t="n">
         <v>6.133333333333333</v>
       </c>
-      <c r="X80" t="n">
+      <c r="Z80" t="n">
         <v>0.8035425434530054</v>
       </c>
     </row>
@@ -21678,9 +23368,15 @@
         <v>4.378309979712185</v>
       </c>
       <c r="W81" t="n">
+        <v>1.208315217391304</v>
+      </c>
+      <c r="X81" t="n">
+        <v>3.053349690820164</v>
+      </c>
+      <c r="Y81" t="n">
         <v>5.833333333333333</v>
       </c>
-      <c r="X81" t="n">
+      <c r="Z81" t="n">
         <v>0.3021226481335962</v>
       </c>
     </row>
@@ -21754,9 +23450,15 @@
         <v>3.312732572661011</v>
       </c>
       <c r="W82" t="n">
+        <v>1.154532967032967</v>
+      </c>
+      <c r="X82" t="n">
+        <v>2.442215663267359</v>
+      </c>
+      <c r="Y82" t="n">
         <v>5.7</v>
       </c>
-      <c r="X82" t="n">
+      <c r="Z82" t="n">
         <v>-0.9344074427186128</v>
       </c>
     </row>
@@ -21830,9 +23532,15 @@
         <v>5.971235738267619</v>
       </c>
       <c r="W83" t="n">
+        <v>1.178003663003663</v>
+      </c>
+      <c r="X83" t="n">
+        <v>3.778850455339486</v>
+      </c>
+      <c r="Y83" t="n">
         <v>5.599999999999999</v>
       </c>
-      <c r="X83" t="n">
+      <c r="Z83" t="n">
         <v>0.2964375750173121</v>
       </c>
     </row>
@@ -21906,9 +23614,15 @@
         <v>3.066779845347599</v>
       </c>
       <c r="W84" t="n">
+        <v>1.098976449275362</v>
+      </c>
+      <c r="X84" t="n">
+        <v>3.243024438646115</v>
+      </c>
+      <c r="Y84" t="n">
         <v>5.433333333333334</v>
       </c>
-      <c r="X84" t="n">
+      <c r="Z84" t="n">
         <v>0.764010936566182</v>
       </c>
     </row>
@@ -21982,9 +23696,15 @@
         <v>2.087877930737528</v>
       </c>
       <c r="W85" t="n">
+        <v>0.9550271739130435</v>
+      </c>
+      <c r="X85" t="n">
+        <v>3.328424582974502</v>
+      </c>
+      <c r="Y85" t="n">
         <v>5.433333333333334</v>
       </c>
-      <c r="X85" t="n">
+      <c r="Z85" t="n">
         <v>0.499586314917211</v>
       </c>
     </row>
@@ -22058,9 +23778,15 @@
         <v>3.21687558465296</v>
       </c>
       <c r="W86" t="n">
+        <v>0.8302499999999997</v>
+      </c>
+      <c r="X86" t="n">
+        <v>2.703413482439003</v>
+      </c>
+      <c r="Y86" t="n">
         <v>5.266666666666667</v>
       </c>
-      <c r="X86" t="n">
+      <c r="Z86" t="n">
         <v>-0.3050959360992143</v>
       </c>
     </row>
@@ -22134,9 +23860,15 @@
         <v>3.976346544761345</v>
       </c>
       <c r="W87" t="n">
+        <v>0.7203937728937729</v>
+      </c>
+      <c r="X87" t="n">
+        <v>3.43869398959077</v>
+      </c>
+      <c r="Y87" t="n">
         <v>5.066666666666666</v>
       </c>
-      <c r="X87" t="n">
+      <c r="Z87" t="n">
         <v>-0.04282294119780695</v>
       </c>
     </row>
@@ -22210,9 +23942,15 @@
         <v>3.595834892921651</v>
       </c>
       <c r="W88" t="n">
+        <v>0.5941666666666664</v>
+      </c>
+      <c r="X88" t="n">
+        <v>3.391335399011536</v>
+      </c>
+      <c r="Y88" t="n">
         <v>5</v>
       </c>
-      <c r="X88" t="n">
+      <c r="Z88" t="n">
         <v>0.4957452109110861</v>
       </c>
     </row>
@@ -22286,9 +24024,15 @@
         <v>1.937654985576635</v>
       </c>
       <c r="W89" t="n">
+        <v>0.557934782608696</v>
+      </c>
+      <c r="X89" t="n">
+        <v>2.918458922592683</v>
+      </c>
+      <c r="Y89" t="n">
         <v>4.933333333333334</v>
       </c>
-      <c r="X89" t="n">
+      <c r="Z89" t="n">
         <v>-0.01852266143093755</v>
       </c>
     </row>
@@ -22362,9 +24106,15 @@
         <v>0.6953958235231033</v>
       </c>
       <c r="W90" t="n">
+        <v>0.4848055555555564</v>
+      </c>
+      <c r="X90" t="n">
+        <v>3.299154487576608</v>
+      </c>
+      <c r="Y90" t="n">
         <v>4.7</v>
       </c>
-      <c r="X90" t="n">
+      <c r="Z90" t="n">
         <v>0.4074557379012421</v>
       </c>
     </row>
@@ -22438,9 +24188,15 @@
         <v>-3.590484560599622</v>
       </c>
       <c r="W91" t="n">
+        <v>0.4356043956043951</v>
+      </c>
+      <c r="X91" t="n">
+        <v>3.270203388442527</v>
+      </c>
+      <c r="Y91" t="n">
         <v>4.666666666666667</v>
       </c>
-      <c r="X91" t="n">
+      <c r="Z91" t="n">
         <v>-0.5011850671494409</v>
       </c>
     </row>
@@ -22514,9 +24270,15 @@
         <v>-5.727914668848501</v>
       </c>
       <c r="W92" t="n">
+        <v>0.3803351449275361</v>
+      </c>
+      <c r="X92" t="n">
+        <v>2.452670051098675</v>
+      </c>
+      <c r="Y92" t="n">
         <v>4.633333333333334</v>
       </c>
-      <c r="X92" t="n">
+      <c r="Z92" t="n">
         <v>-0.197349322803286</v>
       </c>
     </row>
@@ -22590,9 +24352,15 @@
         <v>-4.472346478687847</v>
       </c>
       <c r="W93" t="n">
+        <v>0.3200996376811596</v>
+      </c>
+      <c r="X93" t="n">
+        <v>1.561745592277124</v>
+      </c>
+      <c r="Y93" t="n">
         <v>4.433333333333334</v>
       </c>
-      <c r="X93" t="n">
+      <c r="Z93" t="n">
         <v>1.692718040446249</v>
       </c>
     </row>
@@ -22666,9 +24434,15 @@
         <v>-3.910708324576738</v>
       </c>
       <c r="W94" t="n">
+        <v>0.2855277777777772</v>
+      </c>
+      <c r="X94" t="n">
+        <v>1.985720555225968</v>
+      </c>
+      <c r="Y94" t="n">
         <v>4.5</v>
       </c>
-      <c r="X94" t="n">
+      <c r="Z94" t="n">
         <v>0.189263666879081</v>
       </c>
     </row>
@@ -22742,9 +24516,15 @@
         <v>-3.395248762373774</v>
       </c>
       <c r="W95" t="n">
+        <v>0.2968956043956039</v>
+      </c>
+      <c r="X95" t="n">
+        <v>2.009313040563272</v>
+      </c>
+      <c r="Y95" t="n">
         <v>4.533333333333333</v>
       </c>
-      <c r="X95" t="n">
+      <c r="Z95" t="n">
         <v>-0.2963218980143068</v>
       </c>
     </row>
@@ -22818,9 +24598,15 @@
         <v>-5.706852862330961</v>
       </c>
       <c r="W96" t="n">
+        <v>0.4147463768115944</v>
+      </c>
+      <c r="X96" t="n">
+        <v>1.466721578856795</v>
+      </c>
+      <c r="Y96" t="n">
         <v>4.7</v>
       </c>
-      <c r="X96" t="n">
+      <c r="Z96" t="n">
         <v>0.4266524867614028</v>
       </c>
     </row>
@@ -22894,9 +24680,15 @@
         <v>-7.873579093481088</v>
       </c>
       <c r="W97" t="n">
+        <v>0.480253623188406</v>
+      </c>
+      <c r="X97" t="n">
+        <v>1.142426764255193</v>
+      </c>
+      <c r="Y97" t="n">
         <v>4.833333333333333</v>
       </c>
-      <c r="X97" t="n">
+      <c r="Z97" t="n">
         <v>0.6032442192905649</v>
       </c>
     </row>
@@ -22970,9 +24762,15 @@
         <v>-7.862880601752931</v>
       </c>
       <c r="W98" t="n">
+        <v>0.7096428571428575</v>
+      </c>
+      <c r="X98" t="n">
+        <v>0.6990711183999552</v>
+      </c>
+      <c r="Y98" t="n">
         <v>4.933333333333333</v>
       </c>
-      <c r="X98" t="n">
+      <c r="Z98" t="n">
         <v>0.2911764582629277</v>
       </c>
     </row>
@@ -23046,9 +24844,15 @@
         <v>-4.472723043752771</v>
       </c>
       <c r="W99" t="n">
+        <v>1.009652014652014</v>
+      </c>
+      <c r="X99" t="n">
+        <v>-0.03901832214169923</v>
+      </c>
+      <c r="Y99" t="n">
         <v>5.333333333333333</v>
       </c>
-      <c r="X99" t="n">
+      <c r="Z99" t="n">
         <v>0.5900572756261816</v>
       </c>
     </row>
@@ -23120,9 +24924,13 @@
         <v>-5.578486719696743</v>
       </c>
       <c r="W100" t="n">
+        <v>1.112336956521739</v>
+      </c>
+      <c r="X100" t="inlineStr"/>
+      <c r="Y100" t="n">
         <v>5.966666666666666</v>
       </c>
-      <c r="X100" t="n">
+      <c r="Z100" t="n">
         <v>0.1159823575718521</v>
       </c>
     </row>
@@ -23154,9 +24962,7 @@
       <c r="M101" t="inlineStr"/>
       <c r="N101" t="inlineStr"/>
       <c r="O101" t="inlineStr"/>
-      <c r="P101" t="n">
-        <v>-47.35208708671777</v>
-      </c>
+      <c r="P101" t="inlineStr"/>
       <c r="Q101" t="inlineStr"/>
       <c r="R101" t="inlineStr"/>
       <c r="S101" t="inlineStr"/>
@@ -23165,6 +24971,8 @@
       <c r="V101" t="inlineStr"/>
       <c r="W101" t="inlineStr"/>
       <c r="X101" t="inlineStr"/>
+      <c r="Y101" t="inlineStr"/>
+      <c r="Z101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
@@ -23177,7 +24985,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X101"/>
+  <dimension ref="A1:Z101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23293,10 +25101,20 @@
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
+          <t>mortffr_obs</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>mortgage_nom_obs</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
           <t>unr_obs</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>wage_rgd_obs</t>
         </is>
@@ -23370,9 +25188,15 @@
         <v>3.339400681539008</v>
       </c>
       <c r="W2" t="n">
+        <v>0.6303571428571426</v>
+      </c>
+      <c r="X2" t="n">
+        <v>2.447779857357557</v>
+      </c>
+      <c r="Y2" t="n">
         <v>7.866666666666667</v>
       </c>
-      <c r="X2" t="n">
+      <c r="Z2" t="n">
         <v>0.0187856805383563</v>
       </c>
     </row>
@@ -23444,9 +25268,15 @@
         <v>2.681724951117663</v>
       </c>
       <c r="W3" t="n">
+        <v>0.3996520146520153</v>
+      </c>
+      <c r="X3" t="n">
+        <v>2.884840292812955</v>
+      </c>
+      <c r="Y3" t="n">
         <v>7.433333333333334</v>
       </c>
-      <c r="X3" t="n">
+      <c r="Z3" t="n">
         <v>0.08341637990603153</v>
       </c>
     </row>
@@ -23518,9 +25348,15 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
+        <v>0.3219293478260878</v>
+      </c>
+      <c r="X4" t="n">
+        <v>2.825415705076066</v>
+      </c>
+      <c r="Y4" t="n">
         <v>7.433333333333334</v>
       </c>
-      <c r="X4" t="n">
+      <c r="Z4" t="n">
         <v>0.5550377060815963</v>
       </c>
     </row>
@@ -23592,9 +25428,15 @@
         <v>0.8781615160384618</v>
       </c>
       <c r="W5" t="n">
+        <v>0.9002083333333348</v>
+      </c>
+      <c r="X5" t="n">
+        <v>2.585374281902362</v>
+      </c>
+      <c r="Y5" t="n">
         <v>7.300000000000001</v>
       </c>
-      <c r="X5" t="n">
+      <c r="Z5" t="n">
         <v>0.1708529278791655</v>
       </c>
     </row>
@@ -23666,9 +25508,15 @@
         <v>0.163800200423837</v>
       </c>
       <c r="W6" t="n">
+        <v>0.970388888888889</v>
+      </c>
+      <c r="X6" t="n">
+        <v>4.838279261661252</v>
+      </c>
+      <c r="Y6" t="n">
         <v>7.233333333333333</v>
       </c>
-      <c r="X6" t="n">
+      <c r="Z6" t="n">
         <v>0.0936451387024257</v>
       </c>
     </row>
@@ -23740,9 +25588,15 @@
         <v>0.9772064733792302</v>
       </c>
       <c r="W7" t="n">
+        <v>1.014734432234433</v>
+      </c>
+      <c r="X7" t="n">
+        <v>2.887889102968135</v>
+      </c>
+      <c r="Y7" t="n">
         <v>7.3</v>
       </c>
-      <c r="X7" t="n">
+      <c r="Z7" t="n">
         <v>0.2652226031985177</v>
       </c>
     </row>
@@ -23814,9 +25668,15 @@
         <v>1.979203413194857</v>
       </c>
       <c r="W8" t="n">
+        <v>0.8547554347826087</v>
+      </c>
+      <c r="X8" t="n">
+        <v>4.283328736272085</v>
+      </c>
+      <c r="Y8" t="n">
         <v>7.2</v>
       </c>
-      <c r="X8" t="n">
+      <c r="Z8" t="n">
         <v>0.9137733930902497</v>
       </c>
     </row>
@@ -23888,9 +25748,15 @@
         <v>3.487212571402014</v>
       </c>
       <c r="W9" t="n">
+        <v>0.7705525362318832</v>
+      </c>
+      <c r="X9" t="n">
+        <v>3.377405381157359</v>
+      </c>
+      <c r="Y9" t="n">
         <v>7.033333333333334</v>
       </c>
-      <c r="X9" t="n">
+      <c r="Z9" t="n">
         <v>1.131977420649275</v>
       </c>
     </row>
@@ -23962,9 +25828,15 @@
         <v>5.377104065178582</v>
       </c>
       <c r="W10" t="n">
+        <v>0.7299444444444461</v>
+      </c>
+      <c r="X10" t="n">
+        <v>1.821793037383781</v>
+      </c>
+      <c r="Y10" t="n">
         <v>7.033333333333334</v>
       </c>
-      <c r="X10" t="n">
+      <c r="Z10" t="n">
         <v>0.8327718915132062</v>
       </c>
     </row>
@@ -24036,9 +25908,15 @@
         <v>6.338662189231478</v>
       </c>
       <c r="W11" t="n">
+        <v>0.8312179487179467</v>
+      </c>
+      <c r="X11" t="n">
+        <v>3.266066946893799</v>
+      </c>
+      <c r="Y11" t="n">
         <v>7.166666666666667</v>
       </c>
-      <c r="X11" t="n">
+      <c r="Z11" t="n">
         <v>0.3604664869711737</v>
       </c>
     </row>
@@ -24110,9 +25988,15 @@
         <v>2.825933731440306</v>
       </c>
       <c r="W12" t="n">
+        <v>0.9993025362318846</v>
+      </c>
+      <c r="X12" t="n">
+        <v>3.995249609571855</v>
+      </c>
+      <c r="Y12" t="n">
         <v>6.966666666666666</v>
       </c>
-      <c r="X12" t="n">
+      <c r="Z12" t="n">
         <v>0.3346420717301988</v>
       </c>
     </row>
@@ -24184,9 +26068,15 @@
         <v>0.9683174251825857</v>
       </c>
       <c r="W13" t="n">
+        <v>0.8933152173913048</v>
+      </c>
+      <c r="X13" t="n">
+        <v>3.767756284239854</v>
+      </c>
+      <c r="Y13" t="n">
         <v>6.833333333333333</v>
       </c>
-      <c r="X13" t="n">
+      <c r="Z13" t="n">
         <v>0.9439049497590892</v>
       </c>
     </row>
@@ -24258,9 +26148,15 @@
         <v>0.7853443505570304</v>
       </c>
       <c r="W14" t="n">
+        <v>0.7668611111111105</v>
+      </c>
+      <c r="X14" t="n">
+        <v>1.947735118636464</v>
+      </c>
+      <c r="Y14" t="n">
         <v>6.599999999999999</v>
       </c>
-      <c r="X14" t="n">
+      <c r="Z14" t="n">
         <v>-0.6129512377825054</v>
       </c>
     </row>
@@ -24332,9 +26228,15 @@
         <v>1.209517984897514</v>
       </c>
       <c r="W15" t="n">
+        <v>0.6541666666666672</v>
+      </c>
+      <c r="X15" t="n">
+        <v>4.147767327829527</v>
+      </c>
+      <c r="Y15" t="n">
         <v>6.266666666666667</v>
       </c>
-      <c r="X15" t="n">
+      <c r="Z15" t="n">
         <v>0.4206078914575486</v>
       </c>
     </row>
@@ -24406,9 +26308,15 @@
         <v>0.5566274273321643</v>
       </c>
       <c r="W16" t="n">
+        <v>0.6326086956521739</v>
+      </c>
+      <c r="X16" t="n">
+        <v>2.826774900665543</v>
+      </c>
+      <c r="Y16" t="n">
         <v>6</v>
       </c>
-      <c r="X16" t="n">
+      <c r="Z16" t="n">
         <v>0.2696876592827458</v>
       </c>
     </row>
@@ -24480,9 +26388,15 @@
         <v>1.399217231107909</v>
       </c>
       <c r="W17" t="n">
+        <v>0.5842481884057971</v>
+      </c>
+      <c r="X17" t="n">
+        <v>1.41489184132428</v>
+      </c>
+      <c r="Y17" t="n">
         <v>5.833333333333333</v>
       </c>
-      <c r="X17" t="n">
+      <c r="Z17" t="n">
         <v>0.557371050331582</v>
       </c>
     </row>
@@ -24554,9 +26468,15 @@
         <v>-1.31385657718383</v>
       </c>
       <c r="W18" t="n">
+        <v>0.6285164835164825</v>
+      </c>
+      <c r="X18" t="n">
+        <v>2.538290967561651</v>
+      </c>
+      <c r="Y18" t="n">
         <v>5.7</v>
       </c>
-      <c r="X18" t="n">
+      <c r="Z18" t="n">
         <v>0.7435998434387213</v>
       </c>
     </row>
@@ -24628,9 +26548,15 @@
         <v>1.692087748833718</v>
       </c>
       <c r="W19" t="n">
+        <v>0.5179304029304042</v>
+      </c>
+      <c r="X19" t="n">
+        <v>3.489634163901059</v>
+      </c>
+      <c r="Y19" t="n">
         <v>5.466666666666666</v>
       </c>
-      <c r="X19" t="n">
+      <c r="Z19" t="n">
         <v>0.1473501260968532</v>
       </c>
     </row>
@@ -24702,9 +26628,15 @@
         <v>0.6688988150796489</v>
       </c>
       <c r="W20" t="n">
+        <v>0.3266304347826092</v>
+      </c>
+      <c r="X20" t="n">
+        <v>2.91823679065083</v>
+      </c>
+      <c r="Y20" t="n">
         <v>5.466666666666666</v>
       </c>
-      <c r="X20" t="n">
+      <c r="Z20" t="n">
         <v>-0.03367691419229579</v>
       </c>
     </row>
@@ -24776,9 +26708,15 @@
         <v>1.816730395544893</v>
       </c>
       <c r="W21" t="n">
+        <v>0.2487137681159424</v>
+      </c>
+      <c r="X21" t="n">
+        <v>2.726497326586302</v>
+      </c>
+      <c r="Y21" t="n">
         <v>5.333333333333333</v>
       </c>
-      <c r="X21" t="n">
+      <c r="Z21" t="n">
         <v>-0.1885353706679958</v>
       </c>
     </row>
@@ -24850,9 +26788,15 @@
         <v>0.08179959556317626</v>
       </c>
       <c r="W22" t="n">
+        <v>0.08588888888888979</v>
+      </c>
+      <c r="X22" t="n">
+        <v>1.643544561454601</v>
+      </c>
+      <c r="Y22" t="n">
         <v>5.2</v>
       </c>
-      <c r="X22" t="n">
+      <c r="Z22" t="n">
         <v>-0.7141146922364958</v>
       </c>
     </row>
@@ -24924,9 +26868,15 @@
         <v>-1.815231360718883</v>
       </c>
       <c r="W23" t="n">
+        <v>0.1560714285714275</v>
+      </c>
+      <c r="X23" t="n">
+        <v>2.721931283633474</v>
+      </c>
+      <c r="Y23" t="n">
         <v>5.233333333333333</v>
       </c>
-      <c r="X23" t="n">
+      <c r="Z23" t="n">
         <v>-0.7057968438876389</v>
       </c>
     </row>
@@ -24998,9 +26948,15 @@
         <v>-0.7521974454688446</v>
       </c>
       <c r="W24" t="n">
+        <v>0.2882699275362324</v>
+      </c>
+      <c r="X24" t="n">
+        <v>2.947527669609471</v>
+      </c>
+      <c r="Y24" t="n">
         <v>5.233333333333333</v>
       </c>
-      <c r="X24" t="n">
+      <c r="Z24" t="n">
         <v>0.08528008334099503</v>
       </c>
     </row>
@@ -25072,9 +27028,15 @@
         <v>-1.521584723725332</v>
       </c>
       <c r="W25" t="n">
+        <v>0.3705525362318833</v>
+      </c>
+      <c r="X25" t="n">
+        <v>2.213323210101831</v>
+      </c>
+      <c r="Y25" t="n">
         <v>5.366666666666667</v>
       </c>
-      <c r="X25" t="n">
+      <c r="Z25" t="n">
         <v>0.6407714198461927</v>
       </c>
     </row>
@@ -25146,9 +27108,15 @@
         <v>1.856593412253519</v>
       </c>
       <c r="W26" t="n">
+        <v>0.4446666666666679</v>
+      </c>
+      <c r="X26" t="n">
+        <v>3.257750385284998</v>
+      </c>
+      <c r="Y26" t="n">
         <v>5.3</v>
       </c>
-      <c r="X26" t="n">
+      <c r="Z26" t="n">
         <v>0.6923077894278937</v>
       </c>
     </row>
@@ -25220,9 +27188,15 @@
         <v>-3.531530571602695</v>
       </c>
       <c r="W27" t="n">
+        <v>0.4802481684981683</v>
+      </c>
+      <c r="X27" t="n">
+        <v>2.560864642558711</v>
+      </c>
+      <c r="Y27" t="n">
         <v>5.333333333333333</v>
       </c>
-      <c r="X27" t="n">
+      <c r="Z27" t="n">
         <v>0.9561899198492235</v>
       </c>
     </row>
@@ -25294,9 +27268,15 @@
         <v>-5.382664581262346</v>
       </c>
       <c r="W28" t="n">
+        <v>0.4706123188405811</v>
+      </c>
+      <c r="X28" t="n">
+        <v>2.122346525019553</v>
+      </c>
+      <c r="Y28" t="n">
         <v>5.7</v>
       </c>
-      <c r="X28" t="n">
+      <c r="Z28" t="n">
         <v>0.6269900166253765</v>
       </c>
     </row>
@@ -25368,9 +27348,15 @@
         <v>-5.543927728245711</v>
       </c>
       <c r="W29" t="n">
+        <v>0.5443242753623196</v>
+      </c>
+      <c r="X29" t="n">
+        <v>1.724470643360993</v>
+      </c>
+      <c r="Y29" t="n">
         <v>6.133333333333334</v>
       </c>
-      <c r="X29" t="n">
+      <c r="Z29" t="n">
         <v>0.08200849935616793</v>
       </c>
     </row>
@@ -25442,9 +27428,15 @@
         <v>-5.869411928637701</v>
       </c>
       <c r="W30" t="n">
+        <v>0.8115555555555565</v>
+      </c>
+      <c r="X30" t="n">
+        <v>1.59167876108484</v>
+      </c>
+      <c r="Y30" t="n">
         <v>6.600000000000001</v>
       </c>
-      <c r="X30" t="n">
+      <c r="Z30" t="n">
         <v>-0.3433735223151068</v>
       </c>
     </row>
@@ -25516,9 +27508,15 @@
         <v>2.778658182330028</v>
       </c>
       <c r="W31" t="n">
+        <v>0.9039835164835168</v>
+      </c>
+      <c r="X31" t="n">
+        <v>2.382521088255797</v>
+      </c>
+      <c r="Y31" t="n">
         <v>6.833333333333333</v>
       </c>
-      <c r="X31" t="n">
+      <c r="Z31" t="n">
         <v>1.202893412487421</v>
       </c>
     </row>
@@ -25590,9 +27588,15 @@
         <v>4.67238269063617</v>
       </c>
       <c r="W32" t="n">
+        <v>0.9203623188405803</v>
+      </c>
+      <c r="X32" t="n">
+        <v>0.9190509855307156</v>
+      </c>
+      <c r="Y32" t="n">
         <v>6.866666666666667</v>
       </c>
-      <c r="X32" t="n">
+      <c r="Z32" t="n">
         <v>0.3906350604859103</v>
       </c>
     </row>
@@ -25664,9 +27668,15 @@
         <v>1.837507530499412</v>
       </c>
       <c r="W33" t="n">
+        <v>0.9803804347826088</v>
+      </c>
+      <c r="X33" t="n">
+        <v>2.022589372440903</v>
+      </c>
+      <c r="Y33" t="n">
         <v>7.100000000000001</v>
       </c>
-      <c r="X33" t="n">
+      <c r="Z33" t="n">
         <v>0.5721631092897534</v>
       </c>
     </row>
@@ -25738,9 +27748,15 @@
         <v>4.652001563489291</v>
       </c>
       <c r="W34" t="n">
+        <v>1.093928571428571</v>
+      </c>
+      <c r="X34" t="n">
+        <v>1.503099379549398</v>
+      </c>
+      <c r="Y34" t="n">
         <v>7.366666666666667</v>
       </c>
-      <c r="X34" t="n">
+      <c r="Z34" t="n">
         <v>1.228339555379489</v>
       </c>
     </row>
@@ -25812,9 +27828,15 @@
         <v>4.658078189748251</v>
       </c>
       <c r="W35" t="n">
+        <v>1.173150183150183</v>
+      </c>
+      <c r="X35" t="n">
+        <v>1.211165913037192</v>
+      </c>
+      <c r="Y35" t="n">
         <v>7.600000000000001</v>
       </c>
-      <c r="X35" t="n">
+      <c r="Z35" t="n">
         <v>0.2624515558078852</v>
       </c>
     </row>
@@ -25886,9 +27908,15 @@
         <v>0.931420789569421</v>
       </c>
       <c r="W36" t="n">
+        <v>1.159356884057971</v>
+      </c>
+      <c r="X36" t="n">
+        <v>1.974645713851098</v>
+      </c>
+      <c r="Y36" t="n">
         <v>7.633333333333333</v>
       </c>
-      <c r="X36" t="n">
+      <c r="Z36" t="n">
         <v>1.054626980296685</v>
       </c>
     </row>
@@ -25960,9 +27988,15 @@
         <v>4.65200156348927</v>
       </c>
       <c r="W37" t="n">
+        <v>1.183777173913043</v>
+      </c>
+      <c r="X37" t="n">
+        <v>1.59825088905419</v>
+      </c>
+      <c r="Y37" t="n">
         <v>7.366666666666667</v>
       </c>
-      <c r="X37" t="n">
+      <c r="Z37" t="n">
         <v>-0.1371025309882777</v>
       </c>
     </row>
@@ -26034,9 +28068,15 @@
         <v>1.596203083978002</v>
       </c>
       <c r="W38" t="n">
+        <v>1.13275</v>
+      </c>
+      <c r="X38" t="n">
+        <v>0.4850840317691807</v>
+      </c>
+      <c r="Y38" t="n">
         <v>7.133333333333333</v>
       </c>
-      <c r="X38" t="n">
+      <c r="Z38" t="n">
         <v>-0.6124616996794719</v>
       </c>
     </row>
@@ -26108,9 +28148,15 @@
         <v>2.076470297090824</v>
       </c>
       <c r="W39" t="n">
+        <v>1.06985347985348</v>
+      </c>
+      <c r="X39" t="n">
+        <v>1.861439197710495</v>
+      </c>
+      <c r="Y39" t="n">
         <v>7.066666666666666</v>
       </c>
-      <c r="X39" t="n">
+      <c r="Z39" t="n">
         <v>-0.176749109855844</v>
       </c>
     </row>
@@ -26182,9 +28228,15 @@
         <v>4.325408693025432</v>
       </c>
       <c r="W40" t="n">
+        <v>0.9964039855072462</v>
+      </c>
+      <c r="X40" t="n">
+        <v>1.710166196199506</v>
+      </c>
+      <c r="Y40" t="n">
         <v>6.8</v>
       </c>
-      <c r="X40" t="n">
+      <c r="Z40" t="n">
         <v>-0.02716379543587344</v>
       </c>
     </row>
@@ -26256,9 +28308,15 @@
         <v>5.350028904258899</v>
       </c>
       <c r="W41" t="n">
+        <v>0.9521014492753619</v>
+      </c>
+      <c r="X41" t="n">
+        <v>1.380735594952812</v>
+      </c>
+      <c r="Y41" t="n">
         <v>6.633333333333333</v>
       </c>
-      <c r="X41" t="n">
+      <c r="Z41" t="n">
         <v>-0.1209793860945706</v>
       </c>
     </row>
@@ -26332,9 +28390,15 @@
         <v>3.118755885670458</v>
       </c>
       <c r="W42" t="n">
+        <v>0.9268333333333333</v>
+      </c>
+      <c r="X42" t="n">
+        <v>1.004696775533694</v>
+      </c>
+      <c r="Y42" t="n">
         <v>6.566666666666666</v>
       </c>
-      <c r="X42" t="n">
+      <c r="Z42" t="n">
         <v>0.4924393736602579</v>
       </c>
     </row>
@@ -26408,9 +28472,15 @@
         <v>3.881383827481651</v>
       </c>
       <c r="W43" t="n">
+        <v>0.8729945054945051</v>
+      </c>
+      <c r="X43" t="n">
+        <v>1.477308904247951</v>
+      </c>
+      <c r="Y43" t="n">
         <v>6.2</v>
       </c>
-      <c r="X43" t="n">
+      <c r="Z43" t="n">
         <v>-0.6396724750905918</v>
       </c>
     </row>
@@ -26484,9 +28554,15 @@
         <v>0.03281378208278333</v>
       </c>
       <c r="W44" t="n">
+        <v>0.8086413043478262</v>
+      </c>
+      <c r="X44" t="n">
+        <v>1.496829968862364</v>
+      </c>
+      <c r="Y44" t="n">
         <v>6</v>
       </c>
-      <c r="X44" t="n">
+      <c r="Z44" t="n">
         <v>-0.6618420825354925</v>
       </c>
     </row>
@@ -26560,9 +28636,15 @@
         <v>0</v>
       </c>
       <c r="W45" t="n">
+        <v>0.6613496376811594</v>
+      </c>
+      <c r="X45" t="n">
+        <v>1.425481922786129</v>
+      </c>
+      <c r="Y45" t="n">
         <v>5.633333333333333</v>
       </c>
-      <c r="X45" t="n">
+      <c r="Z45" t="n">
         <v>0.08668448171009542</v>
       </c>
     </row>
@@ -26636,9 +28718,15 @@
         <v>-1.022267764747582</v>
       </c>
       <c r="W46" t="n">
+        <v>0.5834722222222226</v>
+      </c>
+      <c r="X46" t="n">
+        <v>0.8164980190834302</v>
+      </c>
+      <c r="Y46" t="n">
         <v>5.466666666666666</v>
       </c>
-      <c r="X46" t="n">
+      <c r="Z46" t="n">
         <v>0.11955294510689</v>
       </c>
     </row>
@@ -26712,9 +28800,15 @@
         <v>-2.789628045613411</v>
       </c>
       <c r="W47" t="n">
+        <v>0.4902197802197803</v>
+      </c>
+      <c r="X47" t="n">
+        <v>1.437660580239144</v>
+      </c>
+      <c r="Y47" t="n">
         <v>5.666666666666667</v>
       </c>
-      <c r="X47" t="n">
+      <c r="Z47" t="n">
         <v>0.2013161345749452</v>
       </c>
     </row>
@@ -26788,9 +28882,15 @@
         <v>3.483272445279132</v>
       </c>
       <c r="W48" t="n">
+        <v>0.4848731884057966</v>
+      </c>
+      <c r="X48" t="n">
+        <v>1.576129160699601</v>
+      </c>
+      <c r="Y48" t="n">
         <v>5.666666666666667</v>
       </c>
-      <c r="X48" t="n">
+      <c r="Z48" t="n">
         <v>0.1910193290128673</v>
       </c>
     </row>
@@ -26864,9 +28964,15 @@
         <v>2.791482780385841</v>
       </c>
       <c r="W49" t="n">
+        <v>0.4534692028985505</v>
+      </c>
+      <c r="X49" t="n">
+        <v>0.9095470657360019</v>
+      </c>
+      <c r="Y49" t="n">
         <v>5.566666666666666</v>
       </c>
-      <c r="X49" t="n">
+      <c r="Z49" t="n">
         <v>0.4073443056279821</v>
       </c>
     </row>
@@ -26940,9 +29046,15 @@
         <v>2.9645816592752</v>
       </c>
       <c r="W50" t="n">
+        <v>0.4930860805860806</v>
+      </c>
+      <c r="X50" t="n">
+        <v>1.356277617020229</v>
+      </c>
+      <c r="Y50" t="n">
         <v>5.533333333333334</v>
       </c>
-      <c r="X50" t="n">
+      <c r="Z50" t="n">
         <v>0.3894648829464068</v>
       </c>
     </row>
@@ -27016,9 +29128,15 @@
         <v>4.585591585422436</v>
       </c>
       <c r="W51" t="n">
+        <v>0.6498443223443229</v>
+      </c>
+      <c r="X51" t="n">
+        <v>1.571612376995801</v>
+      </c>
+      <c r="Y51" t="n">
         <v>5.5</v>
       </c>
-      <c r="X51" t="n">
+      <c r="Z51" t="n">
         <v>0.6140741198165393</v>
       </c>
     </row>
@@ -27092,9 +29210,15 @@
         <v>0.8276724754031047</v>
       </c>
       <c r="W52" t="n">
+        <v>0.6659510869565224</v>
+      </c>
+      <c r="X52" t="n">
+        <v>1.656144073704366</v>
+      </c>
+      <c r="Y52" t="n">
         <v>5.266666666666667</v>
       </c>
-      <c r="X52" t="n">
+      <c r="Z52" t="n">
         <v>0.263547839650391</v>
       </c>
     </row>
@@ -27168,9 +29292,15 @@
         <v>-0.5312881446293959</v>
       </c>
       <c r="W53" t="n">
+        <v>0.6131159420289864</v>
+      </c>
+      <c r="X53" t="n">
+        <v>1.406354671425849</v>
+      </c>
+      <c r="Y53" t="n">
         <v>5.333333333333333</v>
       </c>
-      <c r="X53" t="n">
+      <c r="Z53" t="n">
         <v>0.0007919174444820637</v>
       </c>
     </row>
@@ -27244,9 +29374,15 @@
         <v>0.854580123491658</v>
       </c>
       <c r="W54" t="n">
+        <v>0.6153888888888899</v>
+      </c>
+      <c r="X54" t="n">
+        <v>1.180647927875349</v>
+      </c>
+      <c r="Y54" t="n">
         <v>5.233333333333333</v>
       </c>
-      <c r="X54" t="n">
+      <c r="Z54" t="n">
         <v>0.07030507817540305</v>
       </c>
     </row>
@@ -27320,9 +29456,15 @@
         <v>1.745244995122621</v>
       </c>
       <c r="W55" t="n">
+        <v>0.5961172161172166</v>
+      </c>
+      <c r="X55" t="n">
+        <v>1.424337088689091</v>
+      </c>
+      <c r="Y55" t="n">
         <v>5</v>
       </c>
-      <c r="X55" t="n">
+      <c r="Z55" t="n">
         <v>0.4352116222258141</v>
       </c>
     </row>
@@ -27396,9 +29538,15 @@
         <v>1.289231436539459</v>
       </c>
       <c r="W56" t="n">
+        <v>0.5271648550724641</v>
+      </c>
+      <c r="X56" t="n">
+        <v>2.322965781594291</v>
+      </c>
+      <c r="Y56" t="n">
         <v>4.866666666666666</v>
       </c>
-      <c r="X56" t="n">
+      <c r="Z56" t="n">
         <v>0.7191211831164686</v>
       </c>
     </row>
@@ -27472,9 +29620,15 @@
         <v>1.749480286228099</v>
       </c>
       <c r="W57" t="n">
+        <v>0.4906521739130436</v>
+      </c>
+      <c r="X57" t="n">
+        <v>1.007127150844211</v>
+      </c>
+      <c r="Y57" t="n">
         <v>4.666666666666667</v>
       </c>
-      <c r="X57" t="n">
+      <c r="Z57" t="n">
         <v>1.378383905522504</v>
       </c>
     </row>
@@ -27548,9 +29702,15 @@
         <v>2.322470989109863</v>
       </c>
       <c r="W58" t="n">
+        <v>0.4251666666666665</v>
+      </c>
+      <c r="X58" t="n">
+        <v>1.430647922414338</v>
+      </c>
+      <c r="Y58" t="n">
         <v>4.633333333333333</v>
       </c>
-      <c r="X58" t="n">
+      <c r="Z58" t="n">
         <v>1.627979111179489</v>
       </c>
     </row>
@@ -27624,9 +29784,15 @@
         <v>3.412016675006154</v>
       </c>
       <c r="W59" t="n">
+        <v>0.4264652014652011</v>
+      </c>
+      <c r="X59" t="n">
+        <v>2.077073107508811</v>
+      </c>
+      <c r="Y59" t="n">
         <v>4.399999999999999</v>
       </c>
-      <c r="X59" t="n">
+      <c r="Z59" t="n">
         <v>1.16971895877371</v>
       </c>
     </row>
@@ -27700,9 +29866,15 @@
         <v>3.682033770508832</v>
       </c>
       <c r="W60" t="n">
+        <v>0.3879257246376813</v>
+      </c>
+      <c r="X60" t="n">
+        <v>1.93886886274309</v>
+      </c>
+      <c r="Y60" t="n">
         <v>4.533333333333333</v>
       </c>
-      <c r="X60" t="n">
+      <c r="Z60" t="n">
         <v>1.289460685542643</v>
       </c>
     </row>
@@ -27776,9 +29948,15 @@
         <v>3.305258312142185</v>
       </c>
       <c r="W61" t="n">
+        <v>0.5048641304347825</v>
+      </c>
+      <c r="X61" t="n">
+        <v>2.304719006103026</v>
+      </c>
+      <c r="Y61" t="n">
         <v>4.433333333333334</v>
       </c>
-      <c r="X61" t="n">
+      <c r="Z61" t="n">
         <v>0.2216216966693823</v>
       </c>
     </row>
@@ -27852,9 +30030,15 @@
         <v>1.830435486201331</v>
       </c>
       <c r="W62" t="n">
+        <v>0.5521944444444442</v>
+      </c>
+      <c r="X62" t="n">
+        <v>1.927781765140204</v>
+      </c>
+      <c r="Y62" t="n">
         <v>4.3</v>
       </c>
-      <c r="X62" t="n">
+      <c r="Z62" t="n">
         <v>1.449840218383615</v>
       </c>
     </row>
@@ -27928,9 +30112,15 @@
         <v>1.963664628876818</v>
       </c>
       <c r="W63" t="n">
+        <v>0.586410256410256</v>
+      </c>
+      <c r="X63" t="n">
+        <v>2.323456692645795</v>
+      </c>
+      <c r="Y63" t="n">
         <v>4.266666666666667</v>
       </c>
-      <c r="X63" t="n">
+      <c r="Z63" t="n">
         <v>-0.03765634714971744</v>
       </c>
     </row>
@@ -28004,9 +30194,15 @@
         <v>1.436163589579108</v>
       </c>
       <c r="W64" t="n">
+        <v>0.6052807971014489</v>
+      </c>
+      <c r="X64" t="n">
+        <v>2.774187356268646</v>
+      </c>
+      <c r="Y64" t="n">
         <v>4.233333333333333</v>
       </c>
-      <c r="X64" t="n">
+      <c r="Z64" t="n">
         <v>0.5350136180958796</v>
       </c>
     </row>
@@ -28080,9 +30276,15 @@
         <v>2.013257863135171</v>
       </c>
       <c r="W65" t="n">
+        <v>0.5689945652173918</v>
+      </c>
+      <c r="X65" t="n">
+        <v>1.864078036767872</v>
+      </c>
+      <c r="Y65" t="n">
         <v>4.066666666666666</v>
       </c>
-      <c r="X65" t="n">
+      <c r="Z65" t="n">
         <v>1.554162740819812</v>
       </c>
     </row>
@@ -28156,9 +30358,15 @@
         <v>2.712030621919382</v>
       </c>
       <c r="W66" t="n">
+        <v>0.5647435897435895</v>
+      </c>
+      <c r="X66" t="n">
+        <v>1.393692804223548</v>
+      </c>
+      <c r="Y66" t="n">
         <v>4.033333333333333</v>
       </c>
-      <c r="X66" t="n">
+      <c r="Z66" t="n">
         <v>2.643571474736089</v>
       </c>
     </row>
@@ -28232,9 +30440,15 @@
         <v>0.06686727096358838</v>
       </c>
       <c r="W67" t="n">
+        <v>0.4561721611721612</v>
+      </c>
+      <c r="X67" t="n">
+        <v>2.458237156983756</v>
+      </c>
+      <c r="Y67" t="n">
         <v>3.933333333333334</v>
       </c>
-      <c r="X67" t="n">
+      <c r="Z67" t="n">
         <v>-0.2252730410481293</v>
       </c>
     </row>
@@ -28308,9 +30522,15 @@
         <v>-1.278187600304275</v>
       </c>
       <c r="W68" t="n">
+        <v>0.3718025362318842</v>
+      </c>
+      <c r="X68" t="n">
+        <v>2.444978016499623</v>
+      </c>
+      <c r="Y68" t="n">
         <v>4</v>
       </c>
-      <c r="X68" t="n">
+      <c r="Z68" t="n">
         <v>1.498950395177451</v>
       </c>
     </row>
@@ -28384,9 +30604,15 @@
         <v>0.9210443635445466</v>
       </c>
       <c r="W69" t="n">
+        <v>0.319610507246376</v>
+      </c>
+      <c r="X69" t="n">
+        <v>2.000984498798462</v>
+      </c>
+      <c r="Y69" t="n">
         <v>3.9</v>
       </c>
-      <c r="X69" t="n">
+      <c r="Z69" t="n">
         <v>0.1252227237608183</v>
       </c>
     </row>
@@ -28460,9 +30686,15 @@
         <v>1.860930973213774</v>
       </c>
       <c r="W70" t="n">
+        <v>0.3999166666666676</v>
+      </c>
+      <c r="X70" t="n">
+        <v>1.755115980828378</v>
+      </c>
+      <c r="Y70" t="n">
         <v>4.233333333333333</v>
       </c>
-      <c r="X70" t="n">
+      <c r="Z70" t="n">
         <v>0.8302048569634537</v>
       </c>
     </row>
@@ -28536,9 +30768,15 @@
         <v>2.599799802488617</v>
       </c>
       <c r="W71" t="n">
+        <v>0.7041575091575094</v>
+      </c>
+      <c r="X71" t="n">
+        <v>3.226908585445039</v>
+      </c>
+      <c r="Y71" t="n">
         <v>4.399999999999999</v>
       </c>
-      <c r="X71" t="n">
+      <c r="Z71" t="n">
         <v>-0.1828974110579861</v>
       </c>
     </row>
@@ -28612,9 +30850,15 @@
         <v>2.116033248047892</v>
       </c>
       <c r="W72" t="n">
+        <v>0.8896195652173914</v>
+      </c>
+      <c r="X72" t="n">
+        <v>2.956962076923184</v>
+      </c>
+      <c r="Y72" t="n">
         <v>4.833333333333333</v>
       </c>
-      <c r="X72" t="n">
+      <c r="Z72" t="n">
         <v>0.1532205057472692</v>
       </c>
     </row>
@@ -28688,9 +30932,15 @@
         <v>-0.2725654271577613</v>
       </c>
       <c r="W73" t="n">
+        <v>1.144057971014493</v>
+      </c>
+      <c r="X73" t="n">
+        <v>2.106507940897485</v>
+      </c>
+      <c r="Y73" t="n">
         <v>5.5</v>
       </c>
-      <c r="X73" t="n">
+      <c r="Z73" t="n">
         <v>0.3076405365812666</v>
       </c>
     </row>
@@ -28764,9 +31014,15 @@
         <v>2.262680858887241</v>
       </c>
       <c r="W74" t="n">
+        <v>1.280111111111111</v>
+      </c>
+      <c r="X74" t="n">
+        <v>2.556290508934249</v>
+      </c>
+      <c r="Y74" t="n">
         <v>5.7</v>
       </c>
-      <c r="X74" t="n">
+      <c r="Z74" t="n">
         <v>1.153584418529487</v>
       </c>
     </row>
@@ -28840,9 +31096,15 @@
         <v>2.793138468917747</v>
       </c>
       <c r="W75" t="n">
+        <v>1.260448717948718</v>
+      </c>
+      <c r="X75" t="n">
+        <v>3.193849598429004</v>
+      </c>
+      <c r="Y75" t="n">
         <v>5.833333333333333</v>
       </c>
-      <c r="X75" t="n">
+      <c r="Z75" t="n">
         <v>0.6721419935359457</v>
       </c>
     </row>
@@ -28916,9 +31178,15 @@
         <v>0.8744093869229062</v>
       </c>
       <c r="W76" t="n">
+        <v>1.163115942028986</v>
+      </c>
+      <c r="X76" t="n">
+        <v>3.382704536301659</v>
+      </c>
+      <c r="Y76" t="n">
         <v>5.733333333333333</v>
       </c>
-      <c r="X76" t="n">
+      <c r="Z76" t="n">
         <v>0.1220987828536571</v>
       </c>
     </row>
@@ -28992,9 +31260,15 @@
         <v>3.250894546241287</v>
       </c>
       <c r="W77" t="n">
+        <v>1.164773550724638</v>
+      </c>
+      <c r="X77" t="n">
+        <v>3.335926404035621</v>
+      </c>
+      <c r="Y77" t="n">
         <v>5.866666666666667</v>
       </c>
-      <c r="X77" t="n">
+      <c r="Z77" t="n">
         <v>-0.573988567694194</v>
       </c>
     </row>
@@ -29068,9 +31342,15 @@
         <v>3.241286192667455</v>
       </c>
       <c r="W78" t="n">
+        <v>1.16175</v>
+      </c>
+      <c r="X78" t="n">
+        <v>2.883834431706596</v>
+      </c>
+      <c r="Y78" t="n">
         <v>5.866666666666667</v>
       </c>
-      <c r="X78" t="n">
+      <c r="Z78" t="n">
         <v>0.6024531868168667</v>
       </c>
     </row>
@@ -29144,9 +31424,15 @@
         <v>2.544759744742195</v>
       </c>
       <c r="W79" t="n">
+        <v>1.08915750915751</v>
+      </c>
+      <c r="X79" t="n">
+        <v>4.092584021883129</v>
+      </c>
+      <c r="Y79" t="n">
         <v>6.133333333333333</v>
       </c>
-      <c r="X79" t="n">
+      <c r="Z79" t="n">
         <v>1.283160434102258</v>
       </c>
     </row>
@@ -29220,9 +31506,15 @@
         <v>5.657577446718212</v>
       </c>
       <c r="W80" t="n">
+        <v>1.165788043478261</v>
+      </c>
+      <c r="X80" t="n">
+        <v>3.700284309245446</v>
+      </c>
+      <c r="Y80" t="n">
         <v>6.133333333333333</v>
       </c>
-      <c r="X80" t="n">
+      <c r="Z80" t="n">
         <v>0.8035425434530054</v>
       </c>
     </row>
@@ -29296,9 +31588,15 @@
         <v>4.378309979712185</v>
       </c>
       <c r="W81" t="n">
+        <v>1.208315217391304</v>
+      </c>
+      <c r="X81" t="n">
+        <v>3.053349690820164</v>
+      </c>
+      <c r="Y81" t="n">
         <v>5.833333333333333</v>
       </c>
-      <c r="X81" t="n">
+      <c r="Z81" t="n">
         <v>0.3021226481335962</v>
       </c>
     </row>
@@ -29372,9 +31670,15 @@
         <v>3.312732572661011</v>
       </c>
       <c r="W82" t="n">
+        <v>1.154532967032967</v>
+      </c>
+      <c r="X82" t="n">
+        <v>2.442215663267359</v>
+      </c>
+      <c r="Y82" t="n">
         <v>5.7</v>
       </c>
-      <c r="X82" t="n">
+      <c r="Z82" t="n">
         <v>-0.9344074427186128</v>
       </c>
     </row>
@@ -29448,9 +31752,15 @@
         <v>5.971235738267619</v>
       </c>
       <c r="W83" t="n">
+        <v>1.178003663003663</v>
+      </c>
+      <c r="X83" t="n">
+        <v>3.778850455339486</v>
+      </c>
+      <c r="Y83" t="n">
         <v>5.599999999999999</v>
       </c>
-      <c r="X83" t="n">
+      <c r="Z83" t="n">
         <v>0.2964375750173121</v>
       </c>
     </row>
@@ -29524,9 +31834,15 @@
         <v>3.066779845347599</v>
       </c>
       <c r="W84" t="n">
+        <v>1.098976449275362</v>
+      </c>
+      <c r="X84" t="n">
+        <v>3.243024438646115</v>
+      </c>
+      <c r="Y84" t="n">
         <v>5.433333333333334</v>
       </c>
-      <c r="X84" t="n">
+      <c r="Z84" t="n">
         <v>0.764010936566182</v>
       </c>
     </row>
@@ -29600,9 +31916,15 @@
         <v>2.087877930737528</v>
       </c>
       <c r="W85" t="n">
+        <v>0.9550271739130435</v>
+      </c>
+      <c r="X85" t="n">
+        <v>3.328424582974502</v>
+      </c>
+      <c r="Y85" t="n">
         <v>5.433333333333334</v>
       </c>
-      <c r="X85" t="n">
+      <c r="Z85" t="n">
         <v>0.499586314917211</v>
       </c>
     </row>
@@ -29676,9 +31998,15 @@
         <v>3.21687558465296</v>
       </c>
       <c r="W86" t="n">
+        <v>0.8302499999999997</v>
+      </c>
+      <c r="X86" t="n">
+        <v>2.703413482439003</v>
+      </c>
+      <c r="Y86" t="n">
         <v>5.266666666666667</v>
       </c>
-      <c r="X86" t="n">
+      <c r="Z86" t="n">
         <v>-0.3050959360992143</v>
       </c>
     </row>
@@ -29752,9 +32080,15 @@
         <v>3.976346544761345</v>
       </c>
       <c r="W87" t="n">
+        <v>0.7203937728937729</v>
+      </c>
+      <c r="X87" t="n">
+        <v>3.43869398959077</v>
+      </c>
+      <c r="Y87" t="n">
         <v>5.066666666666666</v>
       </c>
-      <c r="X87" t="n">
+      <c r="Z87" t="n">
         <v>-0.04282294119780695</v>
       </c>
     </row>
@@ -29828,9 +32162,15 @@
         <v>3.595834892921651</v>
       </c>
       <c r="W88" t="n">
+        <v>0.5941666666666664</v>
+      </c>
+      <c r="X88" t="n">
+        <v>3.391335399011536</v>
+      </c>
+      <c r="Y88" t="n">
         <v>5</v>
       </c>
-      <c r="X88" t="n">
+      <c r="Z88" t="n">
         <v>0.4957452109110861</v>
       </c>
     </row>
@@ -29904,9 +32244,15 @@
         <v>1.937654985576635</v>
       </c>
       <c r="W89" t="n">
+        <v>0.557934782608696</v>
+      </c>
+      <c r="X89" t="n">
+        <v>2.918458922592683</v>
+      </c>
+      <c r="Y89" t="n">
         <v>4.933333333333334</v>
       </c>
-      <c r="X89" t="n">
+      <c r="Z89" t="n">
         <v>-0.01852266143093755</v>
       </c>
     </row>
@@ -29980,9 +32326,15 @@
         <v>0.6953958235231033</v>
       </c>
       <c r="W90" t="n">
+        <v>0.4848055555555564</v>
+      </c>
+      <c r="X90" t="n">
+        <v>3.299154487576608</v>
+      </c>
+      <c r="Y90" t="n">
         <v>4.7</v>
       </c>
-      <c r="X90" t="n">
+      <c r="Z90" t="n">
         <v>0.4074557379012421</v>
       </c>
     </row>
@@ -30056,9 +32408,15 @@
         <v>-3.590484560599622</v>
       </c>
       <c r="W91" t="n">
+        <v>0.4356043956043951</v>
+      </c>
+      <c r="X91" t="n">
+        <v>3.270203388442527</v>
+      </c>
+      <c r="Y91" t="n">
         <v>4.666666666666667</v>
       </c>
-      <c r="X91" t="n">
+      <c r="Z91" t="n">
         <v>-0.5011850671494409</v>
       </c>
     </row>
@@ -30132,9 +32490,15 @@
         <v>-5.727914668848501</v>
       </c>
       <c r="W92" t="n">
+        <v>0.3803351449275361</v>
+      </c>
+      <c r="X92" t="n">
+        <v>2.452670051098675</v>
+      </c>
+      <c r="Y92" t="n">
         <v>4.633333333333334</v>
       </c>
-      <c r="X92" t="n">
+      <c r="Z92" t="n">
         <v>-0.197349322803286</v>
       </c>
     </row>
@@ -30208,9 +32572,15 @@
         <v>-4.472346478687847</v>
       </c>
       <c r="W93" t="n">
+        <v>0.3200996376811596</v>
+      </c>
+      <c r="X93" t="n">
+        <v>1.561745592277124</v>
+      </c>
+      <c r="Y93" t="n">
         <v>4.433333333333334</v>
       </c>
-      <c r="X93" t="n">
+      <c r="Z93" t="n">
         <v>1.692718040446249</v>
       </c>
     </row>
@@ -30284,9 +32654,15 @@
         <v>-3.910708324576738</v>
       </c>
       <c r="W94" t="n">
+        <v>0.2855277777777772</v>
+      </c>
+      <c r="X94" t="n">
+        <v>1.985720555225968</v>
+      </c>
+      <c r="Y94" t="n">
         <v>4.5</v>
       </c>
-      <c r="X94" t="n">
+      <c r="Z94" t="n">
         <v>0.189263666879081</v>
       </c>
     </row>
@@ -30360,9 +32736,15 @@
         <v>-3.395248762373774</v>
       </c>
       <c r="W95" t="n">
+        <v>0.2968956043956039</v>
+      </c>
+      <c r="X95" t="n">
+        <v>2.009313040563272</v>
+      </c>
+      <c r="Y95" t="n">
         <v>4.533333333333333</v>
       </c>
-      <c r="X95" t="n">
+      <c r="Z95" t="n">
         <v>-0.2963218980143068</v>
       </c>
     </row>
@@ -30436,9 +32818,15 @@
         <v>-5.706852862330961</v>
       </c>
       <c r="W96" t="n">
+        <v>0.4147463768115944</v>
+      </c>
+      <c r="X96" t="n">
+        <v>1.466721578856795</v>
+      </c>
+      <c r="Y96" t="n">
         <v>4.7</v>
       </c>
-      <c r="X96" t="n">
+      <c r="Z96" t="n">
         <v>0.4266524867614028</v>
       </c>
     </row>
@@ -30512,9 +32900,15 @@
         <v>-7.873579093481088</v>
       </c>
       <c r="W97" t="n">
+        <v>0.480253623188406</v>
+      </c>
+      <c r="X97" t="n">
+        <v>1.142426764255193</v>
+      </c>
+      <c r="Y97" t="n">
         <v>4.833333333333333</v>
       </c>
-      <c r="X97" t="n">
+      <c r="Z97" t="n">
         <v>0.6032442192905649</v>
       </c>
     </row>
@@ -30588,9 +32982,15 @@
         <v>-7.862880601752931</v>
       </c>
       <c r="W98" t="n">
+        <v>0.7096428571428575</v>
+      </c>
+      <c r="X98" t="n">
+        <v>0.6990711183999552</v>
+      </c>
+      <c r="Y98" t="n">
         <v>4.933333333333333</v>
       </c>
-      <c r="X98" t="n">
+      <c r="Z98" t="n">
         <v>0.2911764582629277</v>
       </c>
     </row>
@@ -30664,9 +33064,15 @@
         <v>-4.472723043752771</v>
       </c>
       <c r="W99" t="n">
+        <v>1.009652014652014</v>
+      </c>
+      <c r="X99" t="n">
+        <v>-0.03901832214169923</v>
+      </c>
+      <c r="Y99" t="n">
         <v>5.333333333333333</v>
       </c>
-      <c r="X99" t="n">
+      <c r="Z99" t="n">
         <v>0.5900572756261816</v>
       </c>
     </row>
@@ -30738,9 +33144,13 @@
         <v>-5.578486719696743</v>
       </c>
       <c r="W100" t="n">
+        <v>1.112336956521739</v>
+      </c>
+      <c r="X100" t="inlineStr"/>
+      <c r="Y100" t="n">
         <v>5.966666666666666</v>
       </c>
-      <c r="X100" t="n">
+      <c r="Z100" t="n">
         <v>0.1159823575718521</v>
       </c>
     </row>
@@ -30780,9 +33190,7 @@
       <c r="O101" t="n">
         <v>936.2365165135385</v>
       </c>
-      <c r="P101" t="n">
-        <v>-47.35208708671777</v>
-      </c>
+      <c r="P101" t="inlineStr"/>
       <c r="Q101" t="inlineStr"/>
       <c r="R101" t="inlineStr"/>
       <c r="S101" t="inlineStr"/>
@@ -30795,6 +33203,8 @@
       </c>
       <c r="W101" t="inlineStr"/>
       <c r="X101" t="inlineStr"/>
+      <c r="Y101" t="inlineStr"/>
+      <c r="Z101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/data/vintage_data/data_20081110.xlsx
+++ b/data/vintage_data/data_20081110.xlsx
@@ -16751,7 +16751,9 @@
       </c>
       <c r="W101" t="inlineStr"/>
       <c r="X101" t="inlineStr"/>
-      <c r="Y101" t="inlineStr"/>
+      <c r="Y101" t="n">
+        <v>6.6085</v>
+      </c>
       <c r="Z101" t="inlineStr"/>
     </row>
   </sheetData>
@@ -33203,7 +33205,9 @@
       </c>
       <c r="W101" t="inlineStr"/>
       <c r="X101" t="inlineStr"/>
-      <c r="Y101" t="inlineStr"/>
+      <c r="Y101" t="n">
+        <v>6.6085</v>
+      </c>
       <c r="Z101" t="inlineStr"/>
     </row>
   </sheetData>

--- a/data/vintage_data/data_20081110.xlsx
+++ b/data/vintage_data/data_20081110.xlsx
@@ -1083,7 +1083,7 @@
         <v>7.030068561497573</v>
       </c>
       <c r="AI2">
-        <v>0.01092912457912458</v>
+        <v>0.01094201337324734</v>
       </c>
       <c r="AJ2">
         <v>1.943971012166603</v>
@@ -1235,7 +1235,7 @@
         <v>2.162979889789688</v>
       </c>
       <c r="AI3">
-        <v>0.01249579124579125</v>
+        <v>0.01250044271272507</v>
       </c>
       <c r="AJ3">
         <v>3.573903360677676</v>
@@ -1387,7 +1387,7 @@
         <v>0.6026703549602117</v>
       </c>
       <c r="AI4">
-        <v>0.01380412457912458</v>
+        <v>0.01379806176034413</v>
       </c>
       <c r="AJ4">
         <v>1.606450772325527</v>
@@ -1539,7 +1539,7 @@
         <v>-0.9690453180746034</v>
       </c>
       <c r="AI5">
-        <v>0.01001245791245792</v>
+        <v>0.01008412733411461</v>
       </c>
       <c r="AJ5">
         <v>1.469439594879773</v>
@@ -1691,7 +1691,7 @@
         <v>-2.129080249046173</v>
       </c>
       <c r="AI6">
-        <v>0.008462457912457914</v>
+        <v>0.008435561760344119</v>
       </c>
       <c r="AJ6">
         <v>-0.07423218461064494</v>
@@ -1843,7 +1843,7 @@
         <v>0.6947330498082935</v>
       </c>
       <c r="AI7">
-        <v>0.006654124579124579</v>
+        <v>0.006669093506375862</v>
       </c>
       <c r="AJ7">
         <v>0.8749398006763178</v>
@@ -1995,7 +1995,7 @@
         <v>0.1737521447732664</v>
       </c>
       <c r="AI8">
-        <v>0.005770791245791246</v>
+        <v>0.005763141125423484</v>
       </c>
       <c r="AJ8">
         <v>-0.8722289092771164</v>
@@ -2147,7 +2147,7 @@
         <v>0.7692291054115152</v>
       </c>
       <c r="AI9">
-        <v>0.005920791245791247</v>
+        <v>0.005907335953892506</v>
       </c>
       <c r="AJ9">
         <v>1.924379255555116</v>
@@ -2299,7 +2299,7 @@
         <v>-0.3605714881851284</v>
       </c>
       <c r="AI10">
-        <v>0.005245791245791245</v>
+        <v>0.005247228427010787</v>
       </c>
       <c r="AJ10">
         <v>0.08946328040320277</v>
@@ -2451,7 +2451,7 @@
         <v>-0.8040610321803894</v>
       </c>
       <c r="AI11">
-        <v>0.00335412457912458</v>
+        <v>0.003341030510344112</v>
       </c>
       <c r="AJ11">
         <v>0.03529478943955385</v>
@@ -2603,7 +2603,7 @@
         <v>0.3484615343210662</v>
       </c>
       <c r="AI12">
-        <v>0.001812457912457913</v>
+        <v>0.001814468010344121</v>
       </c>
       <c r="AJ12">
         <v>-0.3394502329336466</v>
@@ -2755,7 +2755,7 @@
         <v>-1.181205747286936</v>
       </c>
       <c r="AI13">
-        <v>0.001387457912457911</v>
+        <v>0.00137951337324734</v>
       </c>
       <c r="AJ13">
         <v>0.6389507243223675</v>
@@ -2907,7 +2907,7 @@
         <v>-0.7679471861528299</v>
       </c>
       <c r="AI14">
-        <v>0.001845791245791244</v>
+        <v>0.001843963399688377</v>
       </c>
       <c r="AJ14">
         <v>-2.448766293781741</v>
@@ -3059,7 +3059,7 @@
         <v>0.7674115920176277</v>
       </c>
       <c r="AI15">
-        <v>0.002145791245791244</v>
+        <v>0.002135363347645705</v>
       </c>
       <c r="AJ15">
         <v>1.358704597563786</v>
@@ -3211,7 +3211,7 @@
         <v>0.7222228365032826</v>
       </c>
       <c r="AI16">
-        <v>0.003112457912457914</v>
+        <v>0.003089858635344115</v>
       </c>
       <c r="AJ16">
         <v>1.544036886062381</v>
@@ -3363,7 +3363,7 @@
         <v>3.440702679963102</v>
       </c>
       <c r="AI17">
-        <v>0.002662457912457913</v>
+        <v>0.002671045631311859</v>
       </c>
       <c r="AJ17">
         <v>0.1278053788893364</v>
@@ -3515,7 +3515,7 @@
         <v>-2.732251424217574</v>
       </c>
       <c r="AI18">
-        <v>0.002312457912457912</v>
+        <v>0.00230612627647315</v>
       </c>
       <c r="AJ18">
         <v>-0.07086764081422642</v>
@@ -3667,7 +3667,7 @@
         <v>0.8361419439176918</v>
       </c>
       <c r="AI19">
-        <v>0.00352912457912458</v>
+        <v>0.003539728427010783</v>
       </c>
       <c r="AJ19">
         <v>1.565429479412046</v>
@@ -3819,7 +3819,7 @@
         <v>-0.9841076167496475</v>
       </c>
       <c r="AI20">
-        <v>0.005529124579124581</v>
+        <v>0.005538686760344115</v>
       </c>
       <c r="AJ20">
         <v>-0.3188984532778949</v>
@@ -3971,7 +3971,7 @@
         <v>1.337623594104196</v>
       </c>
       <c r="AI21">
-        <v>0.007320791245791245</v>
+        <v>0.007325110940671987</v>
       </c>
       <c r="AJ21">
         <v>1.167086974702332</v>
@@ -4123,7 +4123,7 @@
         <v>1.92359642698101</v>
       </c>
       <c r="AI22">
-        <v>0.009354124579124577</v>
+        <v>0.009364455202967071</v>
       </c>
       <c r="AJ22">
         <v>0.4554994901184618</v>
@@ -4275,7 +4275,7 @@
         <v>-1.083604906326291</v>
       </c>
       <c r="AI23">
-        <v>0.009029124579124574</v>
+        <v>0.009005874260344122</v>
       </c>
       <c r="AJ23">
         <v>-0.2281298267075077</v>
@@ -4427,7 +4427,7 @@
         <v>-0.8765680157268148</v>
       </c>
       <c r="AI24">
-        <v>0.007612457912457914</v>
+        <v>0.007615522077804433</v>
       </c>
       <c r="AJ24">
         <v>1.423650320612265</v>
@@ -4579,7 +4579,7 @@
         <v>-2.444208439406944</v>
       </c>
       <c r="AI25">
-        <v>0.007137457912457911</v>
+        <v>0.007126690792602183</v>
       </c>
       <c r="AJ25">
         <v>-1.802333380525778</v>
@@ -4731,7 +4731,7 @@
         <v>1.500547268993156</v>
       </c>
       <c r="AI26">
-        <v>0.00740412457912458</v>
+        <v>0.007406932728086055</v>
       </c>
       <c r="AJ26">
         <v>0.6094940649773659</v>
@@ -4883,7 +4883,7 @@
         <v>-2.220016267725854</v>
       </c>
       <c r="AI27">
-        <v>0.007370791245791247</v>
+        <v>0.007364728427010782</v>
       </c>
       <c r="AJ27">
         <v>-3.176520575850909</v>
@@ -5035,7 +5035,7 @@
         <v>-2.708502829313065</v>
       </c>
       <c r="AI28">
-        <v>0.006695791245791245</v>
+        <v>0.006690918903201261</v>
       </c>
       <c r="AJ28">
         <v>-1.350492145430522</v>
@@ -5187,7 +5187,7 @@
         <v>-6.123402739928753</v>
       </c>
       <c r="AI29">
-        <v>0.005479124579124577</v>
+        <v>0.005485158534537668</v>
       </c>
       <c r="AJ29">
         <v>-3.046577870334768</v>
@@ -5339,7 +5339,7 @@
         <v>-4.049845107855207</v>
       </c>
       <c r="AI30">
-        <v>0.003062457912457912</v>
+        <v>0.003069728427010782</v>
       </c>
       <c r="AJ30">
         <v>-3.931926860693991</v>
@@ -5491,7 +5491,7 @@
         <v>-1.229197753336168</v>
       </c>
       <c r="AI31">
-        <v>0.001904124579124578</v>
+        <v>0.001898843010344113</v>
       </c>
       <c r="AJ31">
         <v>-0.7958221338528745</v>
@@ -5643,7 +5643,7 @@
         <v>1.225616988349904</v>
       </c>
       <c r="AI32">
-        <v>0.001445791245791243</v>
+        <v>0.001446499260344122</v>
       </c>
       <c r="AJ32">
         <v>-0.3978270266828355</v>
@@ -5795,7 +5795,7 @@
         <v>0.5890632585311828</v>
       </c>
       <c r="AI33">
-        <v>-0.0006458754208754202</v>
+        <v>-0.0006293575944945895</v>
       </c>
       <c r="AJ33">
         <v>-0.652904320197457</v>
@@ -5947,7 +5947,7 @@
         <v>-1.670518733675126</v>
       </c>
       <c r="AI34">
-        <v>-0.002262542087542087</v>
+        <v>-0.00225476082030104</v>
       </c>
       <c r="AJ34">
         <v>0.180927500250527</v>
@@ -6099,7 +6099,7 @@
         <v>3.408490536249762</v>
       </c>
       <c r="AI35">
-        <v>-0.002795875420875421</v>
+        <v>-0.002802335065052709</v>
       </c>
       <c r="AJ35">
         <v>3.379654650556005</v>
@@ -6251,7 +6251,7 @@
         <v>0.4532322693493553</v>
       </c>
       <c r="AI36">
-        <v>-0.004287542087542087</v>
+        <v>-0.004292953864655887</v>
       </c>
       <c r="AJ36">
         <v>1.226295659539301</v>
@@ -6403,7 +6403,7 @@
         <v>1.767215483400073</v>
       </c>
       <c r="AI37">
-        <v>-0.004320875420875421</v>
+        <v>-0.004326535013849432</v>
       </c>
       <c r="AJ37">
         <v>2.806471662652998</v>
@@ -6555,7 +6555,7 @@
         <v>0.9054722630330982</v>
       </c>
       <c r="AI38">
-        <v>-0.004595875420875422</v>
+        <v>-0.004601938239655882</v>
       </c>
       <c r="AJ38">
         <v>0.3482218508723782</v>
@@ -6707,7 +6707,7 @@
         <v>0.9587561550069876</v>
       </c>
       <c r="AI39">
-        <v>-0.004579208754208754</v>
+        <v>-0.00458289062060826</v>
       </c>
       <c r="AJ39">
         <v>1.974489001589338</v>
@@ -6859,7 +6859,7 @@
         <v>-0.4924435523444584</v>
       </c>
       <c r="AI40">
-        <v>-0.004487542087542086</v>
+        <v>-0.004498813239655884</v>
       </c>
       <c r="AJ40">
         <v>1.558632306108256</v>
@@ -7011,7 +7011,7 @@
         <v>3.476032884566335</v>
       </c>
       <c r="AI41">
-        <v>-0.00434587542087542</v>
+        <v>-0.004353551142881686</v>
       </c>
       <c r="AJ41">
         <v>4.002583620101161</v>
@@ -7166,7 +7166,7 @@
         <v>2.74202571255674</v>
       </c>
       <c r="AI42">
-        <v>-0.003887542087542087</v>
+        <v>-0.003860809207397816</v>
       </c>
       <c r="AJ42">
         <v>1.19449949681857</v>
@@ -7321,7 +7321,7 @@
         <v>3.299104397880975</v>
       </c>
       <c r="AI43">
-        <v>-0.002029208754208754</v>
+        <v>-0.002004357594494589</v>
       </c>
       <c r="AJ43">
         <v>2.273549848980956</v>
@@ -7476,7 +7476,7 @@
         <v>-1.375081038479786</v>
       </c>
       <c r="AI44">
-        <v>-0.0008042087542087552</v>
+        <v>-0.0008007663646558815</v>
       </c>
       <c r="AJ44">
         <v>0.781348056947293</v>
@@ -7631,7 +7631,7 @@
         <v>3.18468399926409</v>
       </c>
       <c r="AI45">
-        <v>0.001204124579124579</v>
+        <v>0.001203799465262148</v>
       </c>
       <c r="AJ45">
         <v>2.452077621394875</v>
@@ -7786,7 +7786,7 @@
         <v>-0.8705247098522693</v>
       </c>
       <c r="AI46">
-        <v>0.002345791245791247</v>
+        <v>0.002336368211957025</v>
       </c>
       <c r="AJ46">
         <v>2.020106542859495</v>
@@ -7941,7 +7941,7 @@
         <v>-2.432402590732875</v>
       </c>
       <c r="AI47">
-        <v>0.001995791245791245</v>
+        <v>0.001983776046058401</v>
       </c>
       <c r="AJ47">
         <v>-0.4129026866601077</v>
@@ -8096,7 +8096,7 @@
         <v>-0.6323482813588386</v>
       </c>
       <c r="AI48">
-        <v>0.001420791245791246</v>
+        <v>0.001417506204788564</v>
       </c>
       <c r="AJ48">
         <v>1.03095476407675</v>
@@ -8251,7 +8251,7 @@
         <v>1.116602016466396</v>
       </c>
       <c r="AI49">
-        <v>0.001154124579124581</v>
+        <v>0.001151287566795726</v>
       </c>
       <c r="AJ49">
         <v>1.569675223794947</v>
@@ -8406,7 +8406,7 @@
         <v>-0.003040642687496709</v>
       </c>
       <c r="AI50">
-        <v>0.0003291245791245782</v>
+        <v>0.0003234649861505682</v>
       </c>
       <c r="AJ50">
         <v>1.562039662746291</v>
@@ -8561,7 +8561,7 @@
         <v>2.848253491184645</v>
       </c>
       <c r="AI51">
-        <v>0.0005541245791245777</v>
+        <v>0.0005433742603441188</v>
       </c>
       <c r="AJ51">
         <v>2.562862850865045</v>
@@ -8716,7 +8716,7 @@
         <v>1.721007449940528</v>
       </c>
       <c r="AI52">
-        <v>0.0007457912457912459</v>
+        <v>0.0007390773853441154</v>
       </c>
       <c r="AJ52">
         <v>2.110076929637274</v>
@@ -8871,7 +8871,7 @@
         <v>-0.441559493883208</v>
       </c>
       <c r="AI53">
-        <v>0.0004457912457912459</v>
+        <v>0.0004319327280860562</v>
       </c>
       <c r="AJ53">
         <v>1.183671128531956</v>
@@ -9026,7 +9026,7 @@
         <v>1.289675718493553</v>
       </c>
       <c r="AI54">
-        <v>0.0006541245791245789</v>
+        <v>0.0006522284270107856</v>
       </c>
       <c r="AJ54">
         <v>1.241725711886991</v>
@@ -9181,7 +9181,7 @@
         <v>1.824785792588486</v>
       </c>
       <c r="AI55">
-        <v>0.0006207912457912457</v>
+        <v>0.0006203273853441146</v>
       </c>
       <c r="AJ55">
         <v>1.664767369811909</v>
@@ -9336,7 +9336,7 @@
         <v>1.728116878783118</v>
       </c>
       <c r="AI56">
-        <v>0.0006207912457912457</v>
+        <v>0.0006207180103441189</v>
       </c>
       <c r="AJ56">
         <v>3.536009884732796</v>
@@ -9491,7 +9491,7 @@
         <v>0.3955477682542561</v>
       </c>
       <c r="AI57">
-        <v>0.0007291245791245793</v>
+        <v>0.0007218520829247611</v>
       </c>
       <c r="AJ57">
         <v>0.3579188188123306</v>
@@ -9646,7 +9646,7 @@
         <v>1.770087943112917</v>
       </c>
       <c r="AI58">
-        <v>0.000637457912457914</v>
+        <v>0.0006238814324752637</v>
       </c>
       <c r="AJ58">
         <v>2.20524444525494</v>
@@ -9801,7 +9801,7 @@
         <v>-1.307964671788742</v>
       </c>
       <c r="AI59">
-        <v>0.0004457912457912459</v>
+        <v>0.0004333792206615786</v>
       </c>
       <c r="AJ59">
         <v>2.480654492716167</v>
@@ -9956,7 +9956,7 @@
         <v>0.9851509230945361</v>
       </c>
       <c r="AI60">
-        <v>6.245791245791145e-05</v>
+        <v>6.368676034411956e-05</v>
       </c>
       <c r="AJ60">
         <v>1.001319436670689</v>
@@ -10111,7 +10111,7 @@
         <v>2.306220995535898</v>
       </c>
       <c r="AI61">
-        <v>-0.001362542087542086</v>
+        <v>-0.001370083400946208</v>
       </c>
       <c r="AJ61">
         <v>2.543762250441393</v>
@@ -10266,7 +10266,7 @@
         <v>0.4825898487255247</v>
       </c>
       <c r="AI62">
-        <v>-0.0009792087542087533</v>
+        <v>-0.0009839054527706372</v>
       </c>
       <c r="AJ62">
         <v>1.340622187348737</v>
@@ -10421,7 +10421,7 @@
         <v>-0.06616567185623756</v>
       </c>
       <c r="AI63">
-        <v>-0.0008625420875420873</v>
+        <v>-0.0008765476146558801</v>
       </c>
       <c r="AJ63">
         <v>1.981967068296073</v>
@@ -10576,7 +10576,7 @@
         <v>0.9919983060905604</v>
       </c>
       <c r="AI64">
-        <v>-0.0003708754208754227</v>
+        <v>-0.0003753757396558824</v>
       </c>
       <c r="AJ64">
         <v>1.428713672824215</v>
@@ -10731,7 +10731,7 @@
         <v>1.263873298195484</v>
       </c>
       <c r="AI65">
-        <v>0.0006124579124579116</v>
+        <v>0.0006170133732473406</v>
       </c>
       <c r="AJ65">
         <v>0.1890346087097386</v>
@@ -10886,7 +10886,7 @@
         <v>-0.09191426019733751</v>
       </c>
       <c r="AI66">
-        <v>0.001804124579124581</v>
+        <v>0.001819887157169518</v>
       </c>
       <c r="AJ66">
         <v>2.447679035279164</v>
@@ -11041,7 +11041,7 @@
         <v>2.171930039260291</v>
       </c>
       <c r="AI67">
-        <v>0.002287457912457914</v>
+        <v>0.002284172871455234</v>
       </c>
       <c r="AJ67">
         <v>2.094157905868215</v>
@@ -11196,7 +11196,7 @@
         <v>-2.148531719862603</v>
       </c>
       <c r="AI68">
-        <v>0.003045791245791246</v>
+        <v>0.003046474458756821</v>
       </c>
       <c r="AJ68">
         <v>-0.1528953006048725</v>
@@ -11351,7 +11351,7 @@
         <v>-1.575643306915607</v>
       </c>
       <c r="AI69">
-        <v>0.003045791245791246</v>
+        <v>0.003047658534537668</v>
       </c>
       <c r="AJ69">
         <v>-0.03663235316105271</v>
@@ -11506,7 +11506,7 @@
         <v>-3.208708262124605</v>
       </c>
       <c r="AI70">
-        <v>4.579124579124662e-05</v>
+        <v>2.023917969895365e-05</v>
       </c>
       <c r="AJ70">
         <v>-1.538339588391239</v>
@@ -11661,7 +11661,7 @@
         <v>-2.556055437841973</v>
       </c>
       <c r="AI71">
-        <v>-0.002845875420875421</v>
+        <v>-0.002863446176163818</v>
       </c>
       <c r="AJ71">
         <v>-2.594868245490738</v>
@@ -11816,7 +11816,7 @@
         <v>-2.547212888326966</v>
       </c>
       <c r="AI72">
-        <v>-0.004070875420875421</v>
+        <v>-0.003972430042934568</v>
       </c>
       <c r="AJ72">
         <v>-0.9903751978240094</v>
@@ -11971,7 +11971,7 @@
         <v>-2.141708976048144</v>
       </c>
       <c r="AI73">
-        <v>-0.007229208754208754</v>
+        <v>-0.007216454368688141</v>
       </c>
       <c r="AJ73">
         <v>-3.206321040058473</v>
@@ -12126,7 +12126,7 @@
         <v>-0.1550375093226837</v>
       </c>
       <c r="AI74">
-        <v>-0.007687542087542088</v>
+        <v>-0.007700271572989217</v>
       </c>
       <c r="AJ74">
         <v>-2.132128903562652</v>
@@ -12281,7 +12281,7 @@
         <v>-0.7298871926093722</v>
       </c>
       <c r="AI75">
-        <v>-0.007704208754208754</v>
+        <v>-0.007717172614655883</v>
       </c>
       <c r="AJ75">
         <v>-0.6060852312729975</v>
@@ -12436,7 +12436,7 @@
         <v>0.5275391069589228</v>
       </c>
       <c r="AI76">
-        <v>-0.007887542087542087</v>
+        <v>-0.00789412573965588</v>
       </c>
       <c r="AJ76">
         <v>-0.5145264218908784</v>
@@ -12591,7 +12591,7 @@
         <v>-1.623654514110159</v>
       </c>
       <c r="AI77">
-        <v>-0.008662542087542087</v>
+        <v>-0.008645486626752656</v>
       </c>
       <c r="AJ77">
         <v>-0.1711308481236317</v>
@@ -12746,7 +12746,7 @@
         <v>-1.319419470965475</v>
       </c>
       <c r="AI78">
-        <v>-0.009104208754208755</v>
+        <v>-0.009115052993754244</v>
       </c>
       <c r="AJ78">
         <v>-0.1093019040737192</v>
@@ -12901,7 +12901,7 @@
         <v>0.2666346840694096</v>
       </c>
       <c r="AI79">
-        <v>-0.009395875420875421</v>
+        <v>-0.009403922366640009</v>
       </c>
       <c r="AJ79">
         <v>2.013152112984366</v>
@@ -13056,7 +13056,7 @@
         <v>2.686383197971759</v>
       </c>
       <c r="AI80">
-        <v>-0.00967087542087542</v>
+        <v>-0.009681235114655882</v>
       </c>
       <c r="AJ80">
         <v>3.014545736028002</v>
@@ -13211,7 +13211,7 @@
         <v>0.5007871721750123</v>
       </c>
       <c r="AI81">
-        <v>-0.009704208754208753</v>
+        <v>-0.009712825336430076</v>
       </c>
       <c r="AJ81">
         <v>1.670942269301873</v>
@@ -13366,7 +13366,7 @@
         <v>0.279945643642405</v>
       </c>
       <c r="AI82">
-        <v>-0.009704208754208753</v>
+        <v>-0.009711615659010721</v>
       </c>
       <c r="AJ82">
         <v>0.0331151268797816</v>
@@ -13521,7 +13521,7 @@
         <v>2.806763354121686</v>
       </c>
       <c r="AI83">
-        <v>-0.009304208754208754</v>
+        <v>-0.009304760820301043</v>
       </c>
       <c r="AJ83">
         <v>3.2576270464653</v>
@@ -13676,7 +13676,7 @@
         <v>1.123342418485222</v>
       </c>
       <c r="AI84">
-        <v>-0.008279208754208754</v>
+        <v>-0.008281235114655882</v>
       </c>
       <c r="AJ84">
         <v>2.597296843242843</v>
@@ -13831,7 +13831,7 @@
         <v>1.098627599855692</v>
       </c>
       <c r="AI85">
-        <v>-0.006979208754208755</v>
+        <v>-0.006972905981591366</v>
       </c>
       <c r="AJ85">
         <v>1.92999179424911</v>
@@ -13986,7 +13986,7 @@
         <v>1.113726659702714</v>
       </c>
       <c r="AI86">
-        <v>-0.005654208754208754</v>
+        <v>-0.00564292184621326</v>
       </c>
       <c r="AJ86">
         <v>1.44361486593121</v>
@@ -14141,7 +14141,7 @@
         <v>-0.5065198153523311</v>
       </c>
       <c r="AI87">
-        <v>-0.004837542087542088</v>
+        <v>-0.004835141364655881</v>
       </c>
       <c r="AJ87">
         <v>2.345274372145874</v>
@@ -14296,7 +14296,7 @@
         <v>0.4381979343824849</v>
       </c>
       <c r="AI88">
-        <v>-0.003595875420875421</v>
+        <v>-0.003593344489655885</v>
       </c>
       <c r="AJ88">
         <v>1.584030116583909</v>
@@ -14451,7 +14451,7 @@
         <v>0.6078829830520323</v>
       </c>
       <c r="AI89">
-        <v>-0.002429208754208755</v>
+        <v>-0.002436364469164077</v>
       </c>
       <c r="AJ89">
         <v>1.042958997385506</v>
@@ -14606,7 +14606,7 @@
         <v>2.052607982260656</v>
       </c>
       <c r="AI90">
-        <v>-0.001012542087542086</v>
+        <v>-0.001004760820301044</v>
       </c>
       <c r="AJ90">
         <v>2.35581168259797</v>
@@ -14761,7 +14761,7 @@
         <v>-0.5773757796108625</v>
       </c>
       <c r="AI91">
-        <v>-0.0002375420875420885</v>
+        <v>-0.0002313033190209559</v>
       </c>
       <c r="AJ91">
         <v>-0.4769764071501741</v>
@@ -14916,7 +14916,7 @@
         <v>-1.679493707575854</v>
       </c>
       <c r="AI92">
-        <v>0.0002707912457912444</v>
+        <v>0.0002651252524076084</v>
       </c>
       <c r="AJ92">
         <v>-1.536964619751223</v>
@@ -15071,7 +15071,7 @@
         <v>-3.27604274729025</v>
       </c>
       <c r="AI93">
-        <v>0.000262457912457912</v>
+        <v>0.0002569327280860512</v>
       </c>
       <c r="AJ93">
         <v>-1.726244234551393</v>
@@ -15226,7 +15226,7 @@
         <v>-1.899333665455991</v>
       </c>
       <c r="AI94">
-        <v>0.0004624579124579142</v>
+        <v>0.0004436262764731559</v>
       </c>
       <c r="AJ94">
         <v>-1.485104278533823</v>
@@ -15381,7 +15381,7 @@
         <v>0.01307600940145548</v>
       </c>
       <c r="AI95">
-        <v>-0.0001542087542087522</v>
+        <v>-0.000158188239655889</v>
       </c>
       <c r="AJ95">
         <v>0.1868152725566</v>
@@ -15536,7 +15536,7 @@
         <v>-0.626509355709069</v>
       </c>
       <c r="AI96">
-        <v>-0.001237542087542086</v>
+        <v>-0.001214636652354294</v>
       </c>
       <c r="AJ96">
         <v>-0.7093369493827227</v>
@@ -15691,7 +15691,7 @@
         <v>-3.50402116428538</v>
       </c>
       <c r="AI97">
-        <v>-0.003520875420875421</v>
+        <v>-0.003487422110623627</v>
       </c>
       <c r="AJ97">
         <v>-1.996807815347466</v>
@@ -15846,7 +15846,7 @@
         <v>-2.702185337542139</v>
       </c>
       <c r="AI98">
-        <v>-0.006887542087542087</v>
+        <v>-0.006856036600311618</v>
       </c>
       <c r="AJ98">
         <v>-2.160553501612355</v>
@@ -16001,7 +16001,7 @@
         <v>-3.335157899487901</v>
       </c>
       <c r="AI99">
-        <v>-0.007929208754208755</v>
+        <v>-0.007945297614655882</v>
       </c>
       <c r="AJ99">
         <v>-0.503577569524839</v>
@@ -16150,7 +16150,7 @@
         <v>-2.571111628229725</v>
       </c>
       <c r="AI100">
-        <v>-0.008262542087542088</v>
+        <v>-0.008261703864655882</v>
       </c>
       <c r="AJ100">
         <v>-1.760773644157811</v>
@@ -16464,7 +16464,7 @@
         <v>7.030068561497573</v>
       </c>
       <c r="AI2">
-        <v>0.01092912457912458</v>
+        <v>0.01094201337324734</v>
       </c>
       <c r="AJ2">
         <v>1.943971012166603</v>
@@ -16616,7 +16616,7 @@
         <v>2.162979889789688</v>
       </c>
       <c r="AI3">
-        <v>0.01249579124579125</v>
+        <v>0.01250044271272507</v>
       </c>
       <c r="AJ3">
         <v>3.573903360677676</v>
@@ -16768,7 +16768,7 @@
         <v>0.6026703549602117</v>
       </c>
       <c r="AI4">
-        <v>0.01380412457912458</v>
+        <v>0.01379806176034413</v>
       </c>
       <c r="AJ4">
         <v>1.606450772325527</v>
@@ -16920,7 +16920,7 @@
         <v>-0.9690453180746034</v>
       </c>
       <c r="AI5">
-        <v>0.01001245791245792</v>
+        <v>0.01008412733411461</v>
       </c>
       <c r="AJ5">
         <v>1.469439594879773</v>
@@ -17072,7 +17072,7 @@
         <v>-2.129080249046173</v>
       </c>
       <c r="AI6">
-        <v>0.008462457912457914</v>
+        <v>0.008435561760344119</v>
       </c>
       <c r="AJ6">
         <v>-0.07423218461064494</v>
@@ -17224,7 +17224,7 @@
         <v>0.6947330498082935</v>
       </c>
       <c r="AI7">
-        <v>0.006654124579124579</v>
+        <v>0.006669093506375862</v>
       </c>
       <c r="AJ7">
         <v>0.8749398006763178</v>
@@ -17376,7 +17376,7 @@
         <v>0.1737521447732664</v>
       </c>
       <c r="AI8">
-        <v>0.005770791245791246</v>
+        <v>0.005763141125423484</v>
       </c>
       <c r="AJ8">
         <v>-0.8722289092771164</v>
@@ -17528,7 +17528,7 @@
         <v>0.7692291054115152</v>
       </c>
       <c r="AI9">
-        <v>0.005920791245791247</v>
+        <v>0.005907335953892506</v>
       </c>
       <c r="AJ9">
         <v>1.924379255555116</v>
@@ -17680,7 +17680,7 @@
         <v>-0.3605714881851284</v>
       </c>
       <c r="AI10">
-        <v>0.005245791245791245</v>
+        <v>0.005247228427010787</v>
       </c>
       <c r="AJ10">
         <v>0.08946328040320277</v>
@@ -17832,7 +17832,7 @@
         <v>-0.8040610321803894</v>
       </c>
       <c r="AI11">
-        <v>0.00335412457912458</v>
+        <v>0.003341030510344112</v>
       </c>
       <c r="AJ11">
         <v>0.03529478943955385</v>
@@ -17984,7 +17984,7 @@
         <v>0.3484615343210662</v>
       </c>
       <c r="AI12">
-        <v>0.001812457912457913</v>
+        <v>0.001814468010344121</v>
       </c>
       <c r="AJ12">
         <v>-0.3394502329336466</v>
@@ -18136,7 +18136,7 @@
         <v>-1.181205747286936</v>
       </c>
       <c r="AI13">
-        <v>0.001387457912457911</v>
+        <v>0.00137951337324734</v>
       </c>
       <c r="AJ13">
         <v>0.6389507243223675</v>
@@ -18288,7 +18288,7 @@
         <v>-0.7679471861528299</v>
       </c>
       <c r="AI14">
-        <v>0.001845791245791244</v>
+        <v>0.001843963399688377</v>
       </c>
       <c r="AJ14">
         <v>-2.448766293781741</v>
@@ -18440,7 +18440,7 @@
         <v>0.7674115920176277</v>
       </c>
       <c r="AI15">
-        <v>0.002145791245791244</v>
+        <v>0.002135363347645705</v>
       </c>
       <c r="AJ15">
         <v>1.358704597563786</v>
@@ -18592,7 +18592,7 @@
         <v>0.7222228365032826</v>
       </c>
       <c r="AI16">
-        <v>0.003112457912457914</v>
+        <v>0.003089858635344115</v>
       </c>
       <c r="AJ16">
         <v>1.544036886062381</v>
@@ -18744,7 +18744,7 @@
         <v>3.440702679963102</v>
       </c>
       <c r="AI17">
-        <v>0.002662457912457913</v>
+        <v>0.002671045631311859</v>
       </c>
       <c r="AJ17">
         <v>0.1278053788893364</v>
@@ -18896,7 +18896,7 @@
         <v>-2.732251424217574</v>
       </c>
       <c r="AI18">
-        <v>0.002312457912457912</v>
+        <v>0.00230612627647315</v>
       </c>
       <c r="AJ18">
         <v>-0.07086764081422642</v>
@@ -19048,7 +19048,7 @@
         <v>0.8361419439176918</v>
       </c>
       <c r="AI19">
-        <v>0.00352912457912458</v>
+        <v>0.003539728427010783</v>
       </c>
       <c r="AJ19">
         <v>1.565429479412046</v>
@@ -19200,7 +19200,7 @@
         <v>-0.9841076167496475</v>
       </c>
       <c r="AI20">
-        <v>0.005529124579124581</v>
+        <v>0.005538686760344115</v>
       </c>
       <c r="AJ20">
         <v>-0.3188984532778949</v>
@@ -19352,7 +19352,7 @@
         <v>1.337623594104196</v>
       </c>
       <c r="AI21">
-        <v>0.007320791245791245</v>
+        <v>0.007325110940671987</v>
       </c>
       <c r="AJ21">
         <v>1.167086974702332</v>
@@ -19504,7 +19504,7 @@
         <v>1.92359642698101</v>
       </c>
       <c r="AI22">
-        <v>0.009354124579124577</v>
+        <v>0.009364455202967071</v>
       </c>
       <c r="AJ22">
         <v>0.4554994901184618</v>
@@ -19656,7 +19656,7 @@
         <v>-1.083604906326291</v>
       </c>
       <c r="AI23">
-        <v>0.009029124579124574</v>
+        <v>0.009005874260344122</v>
       </c>
       <c r="AJ23">
         <v>-0.2281298267075077</v>
@@ -19808,7 +19808,7 @@
         <v>-0.8765680157268148</v>
       </c>
       <c r="AI24">
-        <v>0.007612457912457914</v>
+        <v>0.007615522077804433</v>
       </c>
       <c r="AJ24">
         <v>1.423650320612265</v>
@@ -19960,7 +19960,7 @@
         <v>-2.444208439406944</v>
       </c>
       <c r="AI25">
-        <v>0.007137457912457911</v>
+        <v>0.007126690792602183</v>
       </c>
       <c r="AJ25">
         <v>-1.802333380525778</v>
@@ -20112,7 +20112,7 @@
         <v>1.500547268993156</v>
       </c>
       <c r="AI26">
-        <v>0.00740412457912458</v>
+        <v>0.007406932728086055</v>
       </c>
       <c r="AJ26">
         <v>0.6094940649773659</v>
@@ -20264,7 +20264,7 @@
         <v>-2.220016267725854</v>
       </c>
       <c r="AI27">
-        <v>0.007370791245791247</v>
+        <v>0.007364728427010782</v>
       </c>
       <c r="AJ27">
         <v>-3.176520575850909</v>
@@ -20416,7 +20416,7 @@
         <v>-2.708502829313065</v>
       </c>
       <c r="AI28">
-        <v>0.006695791245791245</v>
+        <v>0.006690918903201261</v>
       </c>
       <c r="AJ28">
         <v>-1.350492145430522</v>
@@ -20568,7 +20568,7 @@
         <v>-6.123402739928753</v>
       </c>
       <c r="AI29">
-        <v>0.005479124579124577</v>
+        <v>0.005485158534537668</v>
       </c>
       <c r="AJ29">
         <v>-3.046577870334768</v>
@@ -20720,7 +20720,7 @@
         <v>-4.049845107855207</v>
       </c>
       <c r="AI30">
-        <v>0.003062457912457912</v>
+        <v>0.003069728427010782</v>
       </c>
       <c r="AJ30">
         <v>-3.931926860693991</v>
@@ -20872,7 +20872,7 @@
         <v>-1.229197753336168</v>
       </c>
       <c r="AI31">
-        <v>0.001904124579124578</v>
+        <v>0.001898843010344113</v>
       </c>
       <c r="AJ31">
         <v>-0.7958221338528745</v>
@@ -21024,7 +21024,7 @@
         <v>1.225616988349904</v>
       </c>
       <c r="AI32">
-        <v>0.001445791245791243</v>
+        <v>0.001446499260344122</v>
       </c>
       <c r="AJ32">
         <v>-0.3978270266828355</v>
@@ -21176,7 +21176,7 @@
         <v>0.5890632585311828</v>
       </c>
       <c r="AI33">
-        <v>-0.0006458754208754202</v>
+        <v>-0.0006293575944945895</v>
       </c>
       <c r="AJ33">
         <v>-0.652904320197457</v>
@@ -21328,7 +21328,7 @@
         <v>-1.670518733675126</v>
       </c>
       <c r="AI34">
-        <v>-0.002262542087542087</v>
+        <v>-0.00225476082030104</v>
       </c>
       <c r="AJ34">
         <v>0.180927500250527</v>
@@ -21480,7 +21480,7 @@
         <v>3.408490536249762</v>
       </c>
       <c r="AI35">
-        <v>-0.002795875420875421</v>
+        <v>-0.002802335065052709</v>
       </c>
       <c r="AJ35">
         <v>3.379654650556005</v>
@@ -21632,7 +21632,7 @@
         <v>0.4532322693493553</v>
       </c>
       <c r="AI36">
-        <v>-0.004287542087542087</v>
+        <v>-0.004292953864655887</v>
       </c>
       <c r="AJ36">
         <v>1.226295659539301</v>
@@ -21784,7 +21784,7 @@
         <v>1.767215483400073</v>
       </c>
       <c r="AI37">
-        <v>-0.004320875420875421</v>
+        <v>-0.004326535013849432</v>
       </c>
       <c r="AJ37">
         <v>2.806471662652998</v>
@@ -21936,7 +21936,7 @@
         <v>0.9054722630330982</v>
       </c>
       <c r="AI38">
-        <v>-0.004595875420875422</v>
+        <v>-0.004601938239655882</v>
       </c>
       <c r="AJ38">
         <v>0.3482218508723782</v>
@@ -22088,7 +22088,7 @@
         <v>0.9587561550069876</v>
       </c>
       <c r="AI39">
-        <v>-0.004579208754208754</v>
+        <v>-0.00458289062060826</v>
       </c>
       <c r="AJ39">
         <v>1.974489001589338</v>
@@ -22240,7 +22240,7 @@
         <v>-0.4924435523444584</v>
       </c>
       <c r="AI40">
-        <v>-0.004487542087542086</v>
+        <v>-0.004498813239655884</v>
       </c>
       <c r="AJ40">
         <v>1.558632306108256</v>
@@ -22392,7 +22392,7 @@
         <v>3.476032884566335</v>
       </c>
       <c r="AI41">
-        <v>-0.00434587542087542</v>
+        <v>-0.004353551142881686</v>
       </c>
       <c r="AJ41">
         <v>4.002583620101161</v>
@@ -22547,7 +22547,7 @@
         <v>2.74202571255674</v>
       </c>
       <c r="AI42">
-        <v>-0.003887542087542087</v>
+        <v>-0.003860809207397816</v>
       </c>
       <c r="AJ42">
         <v>1.19449949681857</v>
@@ -22702,7 +22702,7 @@
         <v>3.299104397880975</v>
       </c>
       <c r="AI43">
-        <v>-0.002029208754208754</v>
+        <v>-0.002004357594494589</v>
       </c>
       <c r="AJ43">
         <v>2.273549848980956</v>
@@ -22857,7 +22857,7 @@
         <v>-1.375081038479786</v>
       </c>
       <c r="AI44">
-        <v>-0.0008042087542087552</v>
+        <v>-0.0008007663646558815</v>
       </c>
       <c r="AJ44">
         <v>0.781348056947293</v>
@@ -23012,7 +23012,7 @@
         <v>3.18468399926409</v>
       </c>
       <c r="AI45">
-        <v>0.001204124579124579</v>
+        <v>0.001203799465262148</v>
       </c>
       <c r="AJ45">
         <v>2.452077621394875</v>
@@ -23167,7 +23167,7 @@
         <v>-0.8705247098522693</v>
       </c>
       <c r="AI46">
-        <v>0.002345791245791247</v>
+        <v>0.002336368211957025</v>
       </c>
       <c r="AJ46">
         <v>2.020106542859495</v>
@@ -23322,7 +23322,7 @@
         <v>-2.432402590732875</v>
       </c>
       <c r="AI47">
-        <v>0.001995791245791245</v>
+        <v>0.001983776046058401</v>
       </c>
       <c r="AJ47">
         <v>-0.4129026866601077</v>
@@ -23477,7 +23477,7 @@
         <v>-0.6323482813588386</v>
       </c>
       <c r="AI48">
-        <v>0.001420791245791246</v>
+        <v>0.001417506204788564</v>
       </c>
       <c r="AJ48">
         <v>1.03095476407675</v>
@@ -23632,7 +23632,7 @@
         <v>1.116602016466396</v>
       </c>
       <c r="AI49">
-        <v>0.001154124579124581</v>
+        <v>0.001151287566795726</v>
       </c>
       <c r="AJ49">
         <v>1.569675223794947</v>
@@ -23787,7 +23787,7 @@
         <v>-0.003040642687496709</v>
       </c>
       <c r="AI50">
-        <v>0.0003291245791245782</v>
+        <v>0.0003234649861505682</v>
       </c>
       <c r="AJ50">
         <v>1.562039662746291</v>
@@ -23942,7 +23942,7 @@
         <v>2.848253491184645</v>
       </c>
       <c r="AI51">
-        <v>0.0005541245791245777</v>
+        <v>0.0005433742603441188</v>
       </c>
       <c r="AJ51">
         <v>2.562862850865045</v>
@@ -24097,7 +24097,7 @@
         <v>1.721007449940528</v>
       </c>
       <c r="AI52">
-        <v>0.0007457912457912459</v>
+        <v>0.0007390773853441154</v>
       </c>
       <c r="AJ52">
         <v>2.110076929637274</v>
@@ -24252,7 +24252,7 @@
         <v>-0.441559493883208</v>
       </c>
       <c r="AI53">
-        <v>0.0004457912457912459</v>
+        <v>0.0004319327280860562</v>
       </c>
       <c r="AJ53">
         <v>1.183671128531956</v>
@@ -24407,7 +24407,7 @@
         <v>1.289675718493553</v>
       </c>
       <c r="AI54">
-        <v>0.0006541245791245789</v>
+        <v>0.0006522284270107856</v>
       </c>
       <c r="AJ54">
         <v>1.241725711886991</v>
@@ -24562,7 +24562,7 @@
         <v>1.824785792588486</v>
       </c>
       <c r="AI55">
-        <v>0.0006207912457912457</v>
+        <v>0.0006203273853441146</v>
       </c>
       <c r="AJ55">
         <v>1.664767369811909</v>
@@ -24717,7 +24717,7 @@
         <v>1.728116878783118</v>
       </c>
       <c r="AI56">
-        <v>0.0006207912457912457</v>
+        <v>0.0006207180103441189</v>
       </c>
       <c r="AJ56">
         <v>3.536009884732796</v>
@@ -24872,7 +24872,7 @@
         <v>0.3955477682542561</v>
       </c>
       <c r="AI57">
-        <v>0.0007291245791245793</v>
+        <v>0.0007218520829247611</v>
       </c>
       <c r="AJ57">
         <v>0.3579188188123306</v>
@@ -25027,7 +25027,7 @@
         <v>1.770087943112917</v>
       </c>
       <c r="AI58">
-        <v>0.000637457912457914</v>
+        <v>0.0006238814324752637</v>
       </c>
       <c r="AJ58">
         <v>2.20524444525494</v>
@@ -25182,7 +25182,7 @@
         <v>-1.307964671788742</v>
       </c>
       <c r="AI59">
-        <v>0.0004457912457912459</v>
+        <v>0.0004333792206615786</v>
       </c>
       <c r="AJ59">
         <v>2.480654492716167</v>
@@ -25337,7 +25337,7 @@
         <v>0.9851509230945361</v>
       </c>
       <c r="AI60">
-        <v>6.245791245791145e-05</v>
+        <v>6.368676034411956e-05</v>
       </c>
       <c r="AJ60">
         <v>1.001319436670689</v>
@@ -25492,7 +25492,7 @@
         <v>2.306220995535898</v>
       </c>
       <c r="AI61">
-        <v>-0.001362542087542086</v>
+        <v>-0.001370083400946208</v>
       </c>
       <c r="AJ61">
         <v>2.543762250441393</v>
@@ -25647,7 +25647,7 @@
         <v>0.4825898487255247</v>
       </c>
       <c r="AI62">
-        <v>-0.0009792087542087533</v>
+        <v>-0.0009839054527706372</v>
       </c>
       <c r="AJ62">
         <v>1.340622187348737</v>
@@ -25802,7 +25802,7 @@
         <v>-0.06616567185623756</v>
       </c>
       <c r="AI63">
-        <v>-0.0008625420875420873</v>
+        <v>-0.0008765476146558801</v>
       </c>
       <c r="AJ63">
         <v>1.981967068296073</v>
@@ -25957,7 +25957,7 @@
         <v>0.9919983060905604</v>
       </c>
       <c r="AI64">
-        <v>-0.0003708754208754227</v>
+        <v>-0.0003753757396558824</v>
       </c>
       <c r="AJ64">
         <v>1.428713672824215</v>
@@ -26112,7 +26112,7 @@
         <v>1.263873298195484</v>
       </c>
       <c r="AI65">
-        <v>0.0006124579124579116</v>
+        <v>0.0006170133732473406</v>
       </c>
       <c r="AJ65">
         <v>0.1890346087097386</v>
@@ -26267,7 +26267,7 @@
         <v>-0.09191426019733751</v>
       </c>
       <c r="AI66">
-        <v>0.001804124579124581</v>
+        <v>0.001819887157169518</v>
       </c>
       <c r="AJ66">
         <v>2.447679035279164</v>
@@ -26422,7 +26422,7 @@
         <v>2.171930039260291</v>
       </c>
       <c r="AI67">
-        <v>0.002287457912457914</v>
+        <v>0.002284172871455234</v>
       </c>
       <c r="AJ67">
         <v>2.094157905868215</v>
@@ -26577,7 +26577,7 @@
         <v>-2.148531719862603</v>
       </c>
       <c r="AI68">
-        <v>0.003045791245791246</v>
+        <v>0.003046474458756821</v>
       </c>
       <c r="AJ68">
         <v>-0.1528953006048725</v>
@@ -26732,7 +26732,7 @@
         <v>-1.575643306915607</v>
       </c>
       <c r="AI69">
-        <v>0.003045791245791246</v>
+        <v>0.003047658534537668</v>
       </c>
       <c r="AJ69">
         <v>-0.03663235316105271</v>
@@ -26887,7 +26887,7 @@
         <v>-3.208708262124605</v>
       </c>
       <c r="AI70">
-        <v>4.579124579124662e-05</v>
+        <v>2.023917969895365e-05</v>
       </c>
       <c r="AJ70">
         <v>-1.538339588391239</v>
@@ -27042,7 +27042,7 @@
         <v>-2.556055437841973</v>
       </c>
       <c r="AI71">
-        <v>-0.002845875420875421</v>
+        <v>-0.002863446176163818</v>
       </c>
       <c r="AJ71">
         <v>-2.594868245490738</v>
@@ -27197,7 +27197,7 @@
         <v>-2.547212888326966</v>
       </c>
       <c r="AI72">
-        <v>-0.004070875420875421</v>
+        <v>-0.003972430042934568</v>
       </c>
       <c r="AJ72">
         <v>-0.9903751978240094</v>
@@ -27352,7 +27352,7 @@
         <v>-2.141708976048144</v>
       </c>
       <c r="AI73">
-        <v>-0.007229208754208754</v>
+        <v>-0.007216454368688141</v>
       </c>
       <c r="AJ73">
         <v>-3.206321040058473</v>
@@ -27507,7 +27507,7 @@
         <v>-0.1550375093226837</v>
       </c>
       <c r="AI74">
-        <v>-0.007687542087542088</v>
+        <v>-0.007700271572989217</v>
       </c>
       <c r="AJ74">
         <v>-2.132128903562652</v>
@@ -27662,7 +27662,7 @@
         <v>-0.7298871926093722</v>
       </c>
       <c r="AI75">
-        <v>-0.007704208754208754</v>
+        <v>-0.007717172614655883</v>
       </c>
       <c r="AJ75">
         <v>-0.6060852312729975</v>
@@ -27817,7 +27817,7 @@
         <v>0.5275391069589228</v>
       </c>
       <c r="AI76">
-        <v>-0.007887542087542087</v>
+        <v>-0.00789412573965588</v>
       </c>
       <c r="AJ76">
         <v>-0.5145264218908784</v>
@@ -27972,7 +27972,7 @@
         <v>-1.623654514110159</v>
       </c>
       <c r="AI77">
-        <v>-0.008662542087542087</v>
+        <v>-0.008645486626752656</v>
       </c>
       <c r="AJ77">
         <v>-0.1711308481236317</v>
@@ -28127,7 +28127,7 @@
         <v>-1.319419470965475</v>
       </c>
       <c r="AI78">
-        <v>-0.009104208754208755</v>
+        <v>-0.009115052993754244</v>
       </c>
       <c r="AJ78">
         <v>-0.1093019040737192</v>
@@ -28282,7 +28282,7 @@
         <v>0.2666346840694096</v>
       </c>
       <c r="AI79">
-        <v>-0.009395875420875421</v>
+        <v>-0.009403922366640009</v>
       </c>
       <c r="AJ79">
         <v>2.013152112984366</v>
@@ -28437,7 +28437,7 @@
         <v>2.686383197971759</v>
       </c>
       <c r="AI80">
-        <v>-0.00967087542087542</v>
+        <v>-0.009681235114655882</v>
       </c>
       <c r="AJ80">
         <v>3.014545736028002</v>
@@ -28592,7 +28592,7 @@
         <v>0.5007871721750123</v>
       </c>
       <c r="AI81">
-        <v>-0.009704208754208753</v>
+        <v>-0.009712825336430076</v>
       </c>
       <c r="AJ81">
         <v>1.670942269301873</v>
@@ -28747,7 +28747,7 @@
         <v>0.279945643642405</v>
       </c>
       <c r="AI82">
-        <v>-0.009704208754208753</v>
+        <v>-0.009711615659010721</v>
       </c>
       <c r="AJ82">
         <v>0.0331151268797816</v>
@@ -28902,7 +28902,7 @@
         <v>2.806763354121686</v>
       </c>
       <c r="AI83">
-        <v>-0.009304208754208754</v>
+        <v>-0.009304760820301043</v>
       </c>
       <c r="AJ83">
         <v>3.2576270464653</v>
@@ -29057,7 +29057,7 @@
         <v>1.123342418485222</v>
       </c>
       <c r="AI84">
-        <v>-0.008279208754208754</v>
+        <v>-0.008281235114655882</v>
       </c>
       <c r="AJ84">
         <v>2.597296843242843</v>
@@ -29212,7 +29212,7 @@
         <v>1.098627599855692</v>
       </c>
       <c r="AI85">
-        <v>-0.006979208754208755</v>
+        <v>-0.006972905981591366</v>
       </c>
       <c r="AJ85">
         <v>1.92999179424911</v>
@@ -29367,7 +29367,7 @@
         <v>1.113726659702714</v>
       </c>
       <c r="AI86">
-        <v>-0.005654208754208754</v>
+        <v>-0.00564292184621326</v>
       </c>
       <c r="AJ86">
         <v>1.44361486593121</v>
@@ -29522,7 +29522,7 @@
         <v>-0.5065198153523311</v>
       </c>
       <c r="AI87">
-        <v>-0.004837542087542088</v>
+        <v>-0.004835141364655881</v>
       </c>
       <c r="AJ87">
         <v>2.345274372145874</v>
@@ -29677,7 +29677,7 @@
         <v>0.4381979343824849</v>
       </c>
       <c r="AI88">
-        <v>-0.003595875420875421</v>
+        <v>-0.003593344489655885</v>
       </c>
       <c r="AJ88">
         <v>1.584030116583909</v>
@@ -29832,7 +29832,7 @@
         <v>0.6078829830520323</v>
       </c>
       <c r="AI89">
-        <v>-0.002429208754208755</v>
+        <v>-0.002436364469164077</v>
       </c>
       <c r="AJ89">
         <v>1.042958997385506</v>
@@ -29987,7 +29987,7 @@
         <v>2.052607982260656</v>
       </c>
       <c r="AI90">
-        <v>-0.001012542087542086</v>
+        <v>-0.001004760820301044</v>
       </c>
       <c r="AJ90">
         <v>2.35581168259797</v>
@@ -30142,7 +30142,7 @@
         <v>-0.5773757796108625</v>
       </c>
       <c r="AI91">
-        <v>-0.0002375420875420885</v>
+        <v>-0.0002313033190209559</v>
       </c>
       <c r="AJ91">
         <v>-0.4769764071501741</v>
@@ -30297,7 +30297,7 @@
         <v>-1.679493707575854</v>
       </c>
       <c r="AI92">
-        <v>0.0002707912457912444</v>
+        <v>0.0002651252524076084</v>
       </c>
       <c r="AJ92">
         <v>-1.536964619751223</v>
@@ -30452,7 +30452,7 @@
         <v>-3.27604274729025</v>
       </c>
       <c r="AI93">
-        <v>0.000262457912457912</v>
+        <v>0.0002569327280860512</v>
       </c>
       <c r="AJ93">
         <v>-1.726244234551393</v>
@@ -30607,7 +30607,7 @@
         <v>-1.899333665455991</v>
       </c>
       <c r="AI94">
-        <v>0.0004624579124579142</v>
+        <v>0.0004436262764731559</v>
       </c>
       <c r="AJ94">
         <v>-1.485104278533823</v>
@@ -30762,7 +30762,7 @@
         <v>0.01307600940145548</v>
       </c>
       <c r="AI95">
-        <v>-0.0001542087542087522</v>
+        <v>-0.000158188239655889</v>
       </c>
       <c r="AJ95">
         <v>0.1868152725566</v>
@@ -30917,7 +30917,7 @@
         <v>-0.626509355709069</v>
       </c>
       <c r="AI96">
-        <v>-0.001237542087542086</v>
+        <v>-0.001214636652354294</v>
       </c>
       <c r="AJ96">
         <v>-0.7093369493827227</v>
@@ -31072,7 +31072,7 @@
         <v>-3.50402116428538</v>
       </c>
       <c r="AI97">
-        <v>-0.003520875420875421</v>
+        <v>-0.003487422110623627</v>
       </c>
       <c r="AJ97">
         <v>-1.996807815347466</v>
@@ -31227,7 +31227,7 @@
         <v>-2.702185337542139</v>
       </c>
       <c r="AI98">
-        <v>-0.006887542087542087</v>
+        <v>-0.006856036600311618</v>
       </c>
       <c r="AJ98">
         <v>-2.160553501612355</v>
@@ -31382,7 +31382,7 @@
         <v>-3.335157899487901</v>
       </c>
       <c r="AI99">
-        <v>-0.007929208754208755</v>
+        <v>-0.007945297614655882</v>
       </c>
       <c r="AJ99">
         <v>-0.503577569524839</v>
@@ -31531,7 +31531,7 @@
         <v>-2.571111628229725</v>
       </c>
       <c r="AI100">
-        <v>-0.008262542087542088</v>
+        <v>-0.008261703864655882</v>
       </c>
       <c r="AJ100">
         <v>-1.760773644157811</v>
@@ -31871,7 +31871,7 @@
         <v>7.030068561497573</v>
       </c>
       <c r="AI2">
-        <v>0.01092912457912458</v>
+        <v>0.01094201337324734</v>
       </c>
       <c r="AJ2">
         <v>1.943971012166603</v>
@@ -32023,7 +32023,7 @@
         <v>2.162979889789688</v>
       </c>
       <c r="AI3">
-        <v>0.01249579124579125</v>
+        <v>0.01250044271272507</v>
       </c>
       <c r="AJ3">
         <v>3.573903360677676</v>
@@ -32175,7 +32175,7 @@
         <v>0.6026703549602117</v>
       </c>
       <c r="AI4">
-        <v>0.01380412457912458</v>
+        <v>0.01379806176034413</v>
       </c>
       <c r="AJ4">
         <v>1.606450772325527</v>
@@ -32327,7 +32327,7 @@
         <v>-0.9690453180746034</v>
       </c>
       <c r="AI5">
-        <v>0.01001245791245792</v>
+        <v>0.01008412733411461</v>
       </c>
       <c r="AJ5">
         <v>1.469439594879773</v>
@@ -32479,7 +32479,7 @@
         <v>-2.129080249046173</v>
       </c>
       <c r="AI6">
-        <v>0.008462457912457914</v>
+        <v>0.008435561760344119</v>
       </c>
       <c r="AJ6">
         <v>-0.07423218461064494</v>
@@ -32631,7 +32631,7 @@
         <v>0.6947330498082935</v>
       </c>
       <c r="AI7">
-        <v>0.006654124579124579</v>
+        <v>0.006669093506375862</v>
       </c>
       <c r="AJ7">
         <v>0.8749398006763178</v>
@@ -32783,7 +32783,7 @@
         <v>0.1737521447732664</v>
       </c>
       <c r="AI8">
-        <v>0.005770791245791246</v>
+        <v>0.005763141125423484</v>
       </c>
       <c r="AJ8">
         <v>-0.8722289092771164</v>
@@ -32935,7 +32935,7 @@
         <v>0.7692291054115152</v>
       </c>
       <c r="AI9">
-        <v>0.005920791245791247</v>
+        <v>0.005907335953892506</v>
       </c>
       <c r="AJ9">
         <v>1.924379255555116</v>
@@ -33087,7 +33087,7 @@
         <v>-0.3605714881851284</v>
       </c>
       <c r="AI10">
-        <v>0.005245791245791245</v>
+        <v>0.005247228427010787</v>
       </c>
       <c r="AJ10">
         <v>0.08946328040320277</v>
@@ -33239,7 +33239,7 @@
         <v>-0.8040610321803894</v>
       </c>
       <c r="AI11">
-        <v>0.00335412457912458</v>
+        <v>0.003341030510344112</v>
       </c>
       <c r="AJ11">
         <v>0.03529478943955385</v>
@@ -33391,7 +33391,7 @@
         <v>0.3484615343210662</v>
       </c>
       <c r="AI12">
-        <v>0.001812457912457913</v>
+        <v>0.001814468010344121</v>
       </c>
       <c r="AJ12">
         <v>-0.3394502329336466</v>
@@ -33543,7 +33543,7 @@
         <v>-1.181205747286936</v>
       </c>
       <c r="AI13">
-        <v>0.001387457912457911</v>
+        <v>0.00137951337324734</v>
       </c>
       <c r="AJ13">
         <v>0.6389507243223675</v>
@@ -33695,7 +33695,7 @@
         <v>-0.7679471861528299</v>
       </c>
       <c r="AI14">
-        <v>0.001845791245791244</v>
+        <v>0.001843963399688377</v>
       </c>
       <c r="AJ14">
         <v>-2.448766293781741</v>
@@ -33847,7 +33847,7 @@
         <v>0.7674115920176277</v>
       </c>
       <c r="AI15">
-        <v>0.002145791245791244</v>
+        <v>0.002135363347645705</v>
       </c>
       <c r="AJ15">
         <v>1.358704597563786</v>
@@ -33999,7 +33999,7 @@
         <v>0.7222228365032826</v>
       </c>
       <c r="AI16">
-        <v>0.003112457912457914</v>
+        <v>0.003089858635344115</v>
       </c>
       <c r="AJ16">
         <v>1.544036886062381</v>
@@ -34151,7 +34151,7 @@
         <v>3.440702679963102</v>
       </c>
       <c r="AI17">
-        <v>0.002662457912457913</v>
+        <v>0.002671045631311859</v>
       </c>
       <c r="AJ17">
         <v>0.1278053788893364</v>
@@ -34303,7 +34303,7 @@
         <v>-2.732251424217574</v>
       </c>
       <c r="AI18">
-        <v>0.002312457912457912</v>
+        <v>0.00230612627647315</v>
       </c>
       <c r="AJ18">
         <v>-0.07086764081422642</v>
@@ -34455,7 +34455,7 @@
         <v>0.8361419439176918</v>
       </c>
       <c r="AI19">
-        <v>0.00352912457912458</v>
+        <v>0.003539728427010783</v>
       </c>
       <c r="AJ19">
         <v>1.565429479412046</v>
@@ -34607,7 +34607,7 @@
         <v>-0.9841076167496475</v>
       </c>
       <c r="AI20">
-        <v>0.005529124579124581</v>
+        <v>0.005538686760344115</v>
       </c>
       <c r="AJ20">
         <v>-0.3188984532778949</v>
@@ -34759,7 +34759,7 @@
         <v>1.337623594104196</v>
       </c>
       <c r="AI21">
-        <v>0.007320791245791245</v>
+        <v>0.007325110940671987</v>
       </c>
       <c r="AJ21">
         <v>1.167086974702332</v>
@@ -34911,7 +34911,7 @@
         <v>1.92359642698101</v>
       </c>
       <c r="AI22">
-        <v>0.009354124579124577</v>
+        <v>0.009364455202967071</v>
       </c>
       <c r="AJ22">
         <v>0.4554994901184618</v>
@@ -35063,7 +35063,7 @@
         <v>-1.083604906326291</v>
       </c>
       <c r="AI23">
-        <v>0.009029124579124574</v>
+        <v>0.009005874260344122</v>
       </c>
       <c r="AJ23">
         <v>-0.2281298267075077</v>
@@ -35215,7 +35215,7 @@
         <v>-0.8765680157268148</v>
       </c>
       <c r="AI24">
-        <v>0.007612457912457914</v>
+        <v>0.007615522077804433</v>
       </c>
       <c r="AJ24">
         <v>1.423650320612265</v>
@@ -35367,7 +35367,7 @@
         <v>-2.444208439406944</v>
       </c>
       <c r="AI25">
-        <v>0.007137457912457911</v>
+        <v>0.007126690792602183</v>
       </c>
       <c r="AJ25">
         <v>-1.802333380525778</v>
@@ -35519,7 +35519,7 @@
         <v>1.500547268993156</v>
       </c>
       <c r="AI26">
-        <v>0.00740412457912458</v>
+        <v>0.007406932728086055</v>
       </c>
       <c r="AJ26">
         <v>0.6094940649773659</v>
@@ -35671,7 +35671,7 @@
         <v>-2.220016267725854</v>
       </c>
       <c r="AI27">
-        <v>0.007370791245791247</v>
+        <v>0.007364728427010782</v>
       </c>
       <c r="AJ27">
         <v>-3.176520575850909</v>
@@ -35823,7 +35823,7 @@
         <v>-2.708502829313065</v>
       </c>
       <c r="AI28">
-        <v>0.006695791245791245</v>
+        <v>0.006690918903201261</v>
       </c>
       <c r="AJ28">
         <v>-1.350492145430522</v>
@@ -35975,7 +35975,7 @@
         <v>-6.123402739928753</v>
       </c>
       <c r="AI29">
-        <v>0.005479124579124577</v>
+        <v>0.005485158534537668</v>
       </c>
       <c r="AJ29">
         <v>-3.046577870334768</v>
@@ -36127,7 +36127,7 @@
         <v>-4.049845107855207</v>
       </c>
       <c r="AI30">
-        <v>0.003062457912457912</v>
+        <v>0.003069728427010782</v>
       </c>
       <c r="AJ30">
         <v>-3.931926860693991</v>
@@ -36279,7 +36279,7 @@
         <v>-1.229197753336168</v>
       </c>
       <c r="AI31">
-        <v>0.001904124579124578</v>
+        <v>0.001898843010344113</v>
       </c>
       <c r="AJ31">
         <v>-0.7958221338528745</v>
@@ -36431,7 +36431,7 @@
         <v>1.225616988349904</v>
       </c>
       <c r="AI32">
-        <v>0.001445791245791243</v>
+        <v>0.001446499260344122</v>
       </c>
       <c r="AJ32">
         <v>-0.3978270266828355</v>
@@ -36583,7 +36583,7 @@
         <v>0.5890632585311828</v>
       </c>
       <c r="AI33">
-        <v>-0.0006458754208754202</v>
+        <v>-0.0006293575944945895</v>
       </c>
       <c r="AJ33">
         <v>-0.652904320197457</v>
@@ -36735,7 +36735,7 @@
         <v>-1.670518733675126</v>
       </c>
       <c r="AI34">
-        <v>-0.002262542087542087</v>
+        <v>-0.00225476082030104</v>
       </c>
       <c r="AJ34">
         <v>0.180927500250527</v>
@@ -36887,7 +36887,7 @@
         <v>3.408490536249762</v>
       </c>
       <c r="AI35">
-        <v>-0.002795875420875421</v>
+        <v>-0.002802335065052709</v>
       </c>
       <c r="AJ35">
         <v>3.379654650556005</v>
@@ -37039,7 +37039,7 @@
         <v>0.4532322693493553</v>
       </c>
       <c r="AI36">
-        <v>-0.004287542087542087</v>
+        <v>-0.004292953864655887</v>
       </c>
       <c r="AJ36">
         <v>1.226295659539301</v>
@@ -37191,7 +37191,7 @@
         <v>1.767215483400073</v>
       </c>
       <c r="AI37">
-        <v>-0.004320875420875421</v>
+        <v>-0.004326535013849432</v>
       </c>
       <c r="AJ37">
         <v>2.806471662652998</v>
@@ -37343,7 +37343,7 @@
         <v>0.9054722630330982</v>
       </c>
       <c r="AI38">
-        <v>-0.004595875420875422</v>
+        <v>-0.004601938239655882</v>
       </c>
       <c r="AJ38">
         <v>0.3482218508723782</v>
@@ -37495,7 +37495,7 @@
         <v>0.9587561550069876</v>
       </c>
       <c r="AI39">
-        <v>-0.004579208754208754</v>
+        <v>-0.00458289062060826</v>
       </c>
       <c r="AJ39">
         <v>1.974489001589338</v>
@@ -37647,7 +37647,7 @@
         <v>-0.4924435523444584</v>
       </c>
       <c r="AI40">
-        <v>-0.004487542087542086</v>
+        <v>-0.004498813239655884</v>
       </c>
       <c r="AJ40">
         <v>1.558632306108256</v>
@@ -37799,7 +37799,7 @@
         <v>3.476032884566335</v>
       </c>
       <c r="AI41">
-        <v>-0.00434587542087542</v>
+        <v>-0.004353551142881686</v>
       </c>
       <c r="AJ41">
         <v>4.002583620101161</v>
@@ -37954,7 +37954,7 @@
         <v>2.74202571255674</v>
       </c>
       <c r="AI42">
-        <v>-0.003887542087542087</v>
+        <v>-0.003860809207397816</v>
       </c>
       <c r="AJ42">
         <v>1.19449949681857</v>
@@ -38109,7 +38109,7 @@
         <v>3.299104397880975</v>
       </c>
       <c r="AI43">
-        <v>-0.002029208754208754</v>
+        <v>-0.002004357594494589</v>
       </c>
       <c r="AJ43">
         <v>2.273549848980956</v>
@@ -38264,7 +38264,7 @@
         <v>-1.375081038479786</v>
       </c>
       <c r="AI44">
-        <v>-0.0008042087542087552</v>
+        <v>-0.0008007663646558815</v>
       </c>
       <c r="AJ44">
         <v>0.781348056947293</v>
@@ -38419,7 +38419,7 @@
         <v>3.18468399926409</v>
       </c>
       <c r="AI45">
-        <v>0.001204124579124579</v>
+        <v>0.001203799465262148</v>
       </c>
       <c r="AJ45">
         <v>2.452077621394875</v>
@@ -38574,7 +38574,7 @@
         <v>-0.8705247098522693</v>
       </c>
       <c r="AI46">
-        <v>0.002345791245791247</v>
+        <v>0.002336368211957025</v>
       </c>
       <c r="AJ46">
         <v>2.020106542859495</v>
@@ -38729,7 +38729,7 @@
         <v>-2.432402590732875</v>
       </c>
       <c r="AI47">
-        <v>0.001995791245791245</v>
+        <v>0.001983776046058401</v>
       </c>
       <c r="AJ47">
         <v>-0.4129026866601077</v>
@@ -38884,7 +38884,7 @@
         <v>-0.6323482813588386</v>
       </c>
       <c r="AI48">
-        <v>0.001420791245791246</v>
+        <v>0.001417506204788564</v>
       </c>
       <c r="AJ48">
         <v>1.03095476407675</v>
@@ -39039,7 +39039,7 @@
         <v>1.116602016466396</v>
       </c>
       <c r="AI49">
-        <v>0.001154124579124581</v>
+        <v>0.001151287566795726</v>
       </c>
       <c r="AJ49">
         <v>1.569675223794947</v>
@@ -39194,7 +39194,7 @@
         <v>-0.003040642687496709</v>
       </c>
       <c r="AI50">
-        <v>0.0003291245791245782</v>
+        <v>0.0003234649861505682</v>
       </c>
       <c r="AJ50">
         <v>1.562039662746291</v>
@@ -39349,7 +39349,7 @@
         <v>2.848253491184645</v>
       </c>
       <c r="AI51">
-        <v>0.0005541245791245777</v>
+        <v>0.0005433742603441188</v>
       </c>
       <c r="AJ51">
         <v>2.562862850865045</v>
@@ -39504,7 +39504,7 @@
         <v>1.721007449940528</v>
       </c>
       <c r="AI52">
-        <v>0.0007457912457912459</v>
+        <v>0.0007390773853441154</v>
       </c>
       <c r="AJ52">
         <v>2.110076929637274</v>
@@ -39659,7 +39659,7 @@
         <v>-0.441559493883208</v>
       </c>
       <c r="AI53">
-        <v>0.0004457912457912459</v>
+        <v>0.0004319327280860562</v>
       </c>
       <c r="AJ53">
         <v>1.183671128531956</v>
@@ -39814,7 +39814,7 @@
         <v>1.289675718493553</v>
       </c>
       <c r="AI54">
-        <v>0.0006541245791245789</v>
+        <v>0.0006522284270107856</v>
       </c>
       <c r="AJ54">
         <v>1.241725711886991</v>
@@ -39969,7 +39969,7 @@
         <v>1.824785792588486</v>
       </c>
       <c r="AI55">
-        <v>0.0006207912457912457</v>
+        <v>0.0006203273853441146</v>
       </c>
       <c r="AJ55">
         <v>1.664767369811909</v>
@@ -40124,7 +40124,7 @@
         <v>1.728116878783118</v>
       </c>
       <c r="AI56">
-        <v>0.0006207912457912457</v>
+        <v>0.0006207180103441189</v>
       </c>
       <c r="AJ56">
         <v>3.536009884732796</v>
@@ -40279,7 +40279,7 @@
         <v>0.3955477682542561</v>
       </c>
       <c r="AI57">
-        <v>0.0007291245791245793</v>
+        <v>0.0007218520829247611</v>
       </c>
       <c r="AJ57">
         <v>0.3579188188123306</v>
@@ -40434,7 +40434,7 @@
         <v>1.770087943112917</v>
       </c>
       <c r="AI58">
-        <v>0.000637457912457914</v>
+        <v>0.0006238814324752637</v>
       </c>
       <c r="AJ58">
         <v>2.20524444525494</v>
@@ -40589,7 +40589,7 @@
         <v>-1.307964671788742</v>
       </c>
       <c r="AI59">
-        <v>0.0004457912457912459</v>
+        <v>0.0004333792206615786</v>
       </c>
       <c r="AJ59">
         <v>2.480654492716167</v>
@@ -40744,7 +40744,7 @@
         <v>0.9851509230945361</v>
       </c>
       <c r="AI60">
-        <v>6.245791245791145e-05</v>
+        <v>6.368676034411956e-05</v>
       </c>
       <c r="AJ60">
         <v>1.001319436670689</v>
@@ -40899,7 +40899,7 @@
         <v>2.306220995535898</v>
       </c>
       <c r="AI61">
-        <v>-0.001362542087542086</v>
+        <v>-0.001370083400946208</v>
       </c>
       <c r="AJ61">
         <v>2.543762250441393</v>
@@ -41054,7 +41054,7 @@
         <v>0.4825898487255247</v>
       </c>
       <c r="AI62">
-        <v>-0.0009792087542087533</v>
+        <v>-0.0009839054527706372</v>
       </c>
       <c r="AJ62">
         <v>1.340622187348737</v>
@@ -41209,7 +41209,7 @@
         <v>-0.06616567185623756</v>
       </c>
       <c r="AI63">
-        <v>-0.0008625420875420873</v>
+        <v>-0.0008765476146558801</v>
       </c>
       <c r="AJ63">
         <v>1.981967068296073</v>
@@ -41364,7 +41364,7 @@
         <v>0.9919983060905604</v>
       </c>
       <c r="AI64">
-        <v>-0.0003708754208754227</v>
+        <v>-0.0003753757396558824</v>
       </c>
       <c r="AJ64">
         <v>1.428713672824215</v>
@@ -41519,7 +41519,7 @@
         <v>1.263873298195484</v>
       </c>
       <c r="AI65">
-        <v>0.0006124579124579116</v>
+        <v>0.0006170133732473406</v>
       </c>
       <c r="AJ65">
         <v>0.1890346087097386</v>
@@ -41674,7 +41674,7 @@
         <v>-0.09191426019733751</v>
       </c>
       <c r="AI66">
-        <v>0.001804124579124581</v>
+        <v>0.001819887157169518</v>
       </c>
       <c r="AJ66">
         <v>2.447679035279164</v>
@@ -41829,7 +41829,7 @@
         <v>2.171930039260291</v>
       </c>
       <c r="AI67">
-        <v>0.002287457912457914</v>
+        <v>0.002284172871455234</v>
       </c>
       <c r="AJ67">
         <v>2.094157905868215</v>
@@ -41984,7 +41984,7 @@
         <v>-2.148531719862603</v>
       </c>
       <c r="AI68">
-        <v>0.003045791245791246</v>
+        <v>0.003046474458756821</v>
       </c>
       <c r="AJ68">
         <v>-0.1528953006048725</v>
@@ -42139,7 +42139,7 @@
         <v>-1.575643306915607</v>
       </c>
       <c r="AI69">
-        <v>0.003045791245791246</v>
+        <v>0.003047658534537668</v>
       </c>
       <c r="AJ69">
         <v>-0.03663235316105271</v>
@@ -42294,7 +42294,7 @@
         <v>-3.208708262124605</v>
       </c>
       <c r="AI70">
-        <v>4.579124579124662e-05</v>
+        <v>2.023917969895365e-05</v>
       </c>
       <c r="AJ70">
         <v>-1.538339588391239</v>
@@ -42449,7 +42449,7 @@
         <v>-2.556055437841973</v>
       </c>
       <c r="AI71">
-        <v>-0.002845875420875421</v>
+        <v>-0.002863446176163818</v>
       </c>
       <c r="AJ71">
         <v>-2.594868245490738</v>
@@ -42604,7 +42604,7 @@
         <v>-2.547212888326966</v>
       </c>
       <c r="AI72">
-        <v>-0.004070875420875421</v>
+        <v>-0.003972430042934568</v>
       </c>
       <c r="AJ72">
         <v>-0.9903751978240094</v>
@@ -42759,7 +42759,7 @@
         <v>-2.141708976048144</v>
       </c>
       <c r="AI73">
-        <v>-0.007229208754208754</v>
+        <v>-0.007216454368688141</v>
       </c>
       <c r="AJ73">
         <v>-3.206321040058473</v>
@@ -42914,7 +42914,7 @@
         <v>-0.1550375093226837</v>
       </c>
       <c r="AI74">
-        <v>-0.007687542087542088</v>
+        <v>-0.007700271572989217</v>
       </c>
       <c r="AJ74">
         <v>-2.132128903562652</v>
@@ -43069,7 +43069,7 @@
         <v>-0.7298871926093722</v>
       </c>
       <c r="AI75">
-        <v>-0.007704208754208754</v>
+        <v>-0.007717172614655883</v>
       </c>
       <c r="AJ75">
         <v>-0.6060852312729975</v>
@@ -43224,7 +43224,7 @@
         <v>0.5275391069589228</v>
       </c>
       <c r="AI76">
-        <v>-0.007887542087542087</v>
+        <v>-0.00789412573965588</v>
       </c>
       <c r="AJ76">
         <v>-0.5145264218908784</v>
@@ -43379,7 +43379,7 @@
         <v>-1.623654514110159</v>
       </c>
       <c r="AI77">
-        <v>-0.008662542087542087</v>
+        <v>-0.008645486626752656</v>
       </c>
       <c r="AJ77">
         <v>-0.1711308481236317</v>
@@ -43534,7 +43534,7 @@
         <v>-1.319419470965475</v>
       </c>
       <c r="AI78">
-        <v>-0.009104208754208755</v>
+        <v>-0.009115052993754244</v>
       </c>
       <c r="AJ78">
         <v>-0.1093019040737192</v>
@@ -43689,7 +43689,7 @@
         <v>0.2666346840694096</v>
       </c>
       <c r="AI79">
-        <v>-0.009395875420875421</v>
+        <v>-0.009403922366640009</v>
       </c>
       <c r="AJ79">
         <v>2.013152112984366</v>
@@ -43844,7 +43844,7 @@
         <v>2.686383197971759</v>
       </c>
       <c r="AI80">
-        <v>-0.00967087542087542</v>
+        <v>-0.009681235114655882</v>
       </c>
       <c r="AJ80">
         <v>3.014545736028002</v>
@@ -43999,7 +43999,7 @@
         <v>0.5007871721750123</v>
       </c>
       <c r="AI81">
-        <v>-0.009704208754208753</v>
+        <v>-0.009712825336430076</v>
       </c>
       <c r="AJ81">
         <v>1.670942269301873</v>
@@ -44154,7 +44154,7 @@
         <v>0.279945643642405</v>
       </c>
       <c r="AI82">
-        <v>-0.009704208754208753</v>
+        <v>-0.009711615659010721</v>
       </c>
       <c r="AJ82">
         <v>0.0331151268797816</v>
@@ -44309,7 +44309,7 @@
         <v>2.806763354121686</v>
       </c>
       <c r="AI83">
-        <v>-0.009304208754208754</v>
+        <v>-0.009304760820301043</v>
       </c>
       <c r="AJ83">
         <v>3.2576270464653</v>
@@ -44464,7 +44464,7 @@
         <v>1.123342418485222</v>
       </c>
       <c r="AI84">
-        <v>-0.008279208754208754</v>
+        <v>-0.008281235114655882</v>
       </c>
       <c r="AJ84">
         <v>2.597296843242843</v>
@@ -44619,7 +44619,7 @@
         <v>1.098627599855692</v>
       </c>
       <c r="AI85">
-        <v>-0.006979208754208755</v>
+        <v>-0.006972905981591366</v>
       </c>
       <c r="AJ85">
         <v>1.92999179424911</v>
@@ -44774,7 +44774,7 @@
         <v>1.113726659702714</v>
       </c>
       <c r="AI86">
-        <v>-0.005654208754208754</v>
+        <v>-0.00564292184621326</v>
       </c>
       <c r="AJ86">
         <v>1.44361486593121</v>
@@ -44929,7 +44929,7 @@
         <v>-0.5065198153523311</v>
       </c>
       <c r="AI87">
-        <v>-0.004837542087542088</v>
+        <v>-0.004835141364655881</v>
       </c>
       <c r="AJ87">
         <v>2.345274372145874</v>
@@ -45084,7 +45084,7 @@
         <v>0.4381979343824849</v>
       </c>
       <c r="AI88">
-        <v>-0.003595875420875421</v>
+        <v>-0.003593344489655885</v>
       </c>
       <c r="AJ88">
         <v>1.584030116583909</v>
@@ -45239,7 +45239,7 @@
         <v>0.6078829830520323</v>
       </c>
       <c r="AI89">
-        <v>-0.002429208754208755</v>
+        <v>-0.002436364469164077</v>
       </c>
       <c r="AJ89">
         <v>1.042958997385506</v>
@@ -45394,7 +45394,7 @@
         <v>2.052607982260656</v>
       </c>
       <c r="AI90">
-        <v>-0.001012542087542086</v>
+        <v>-0.001004760820301044</v>
       </c>
       <c r="AJ90">
         <v>2.35581168259797</v>
@@ -45549,7 +45549,7 @@
         <v>-0.5773757796108625</v>
       </c>
       <c r="AI91">
-        <v>-0.0002375420875420885</v>
+        <v>-0.0002313033190209559</v>
       </c>
       <c r="AJ91">
         <v>-0.4769764071501741</v>
@@ -45704,7 +45704,7 @@
         <v>-1.679493707575854</v>
       </c>
       <c r="AI92">
-        <v>0.0002707912457912444</v>
+        <v>0.0002651252524076084</v>
       </c>
       <c r="AJ92">
         <v>-1.536964619751223</v>
@@ -45859,7 +45859,7 @@
         <v>-3.27604274729025</v>
       </c>
       <c r="AI93">
-        <v>0.000262457912457912</v>
+        <v>0.0002569327280860512</v>
       </c>
       <c r="AJ93">
         <v>-1.726244234551393</v>
@@ -46014,7 +46014,7 @@
         <v>-1.899333665455991</v>
       </c>
       <c r="AI94">
-        <v>0.0004624579124579142</v>
+        <v>0.0004436262764731559</v>
       </c>
       <c r="AJ94">
         <v>-1.485104278533823</v>
@@ -46169,7 +46169,7 @@
         <v>0.01307600940145548</v>
       </c>
       <c r="AI95">
-        <v>-0.0001542087542087522</v>
+        <v>-0.000158188239655889</v>
       </c>
       <c r="AJ95">
         <v>0.1868152725566</v>
@@ -46324,7 +46324,7 @@
         <v>-0.626509355709069</v>
       </c>
       <c r="AI96">
-        <v>-0.001237542087542086</v>
+        <v>-0.001214636652354294</v>
       </c>
       <c r="AJ96">
         <v>-0.7093369493827227</v>
@@ -46479,7 +46479,7 @@
         <v>-3.50402116428538</v>
       </c>
       <c r="AI97">
-        <v>-0.003520875420875421</v>
+        <v>-0.003487422110623627</v>
       </c>
       <c r="AJ97">
         <v>-1.996807815347466</v>
@@ -46634,7 +46634,7 @@
         <v>-2.702185337542139</v>
       </c>
       <c r="AI98">
-        <v>-0.006887542087542087</v>
+        <v>-0.006856036600311618</v>
       </c>
       <c r="AJ98">
         <v>-2.160553501612355</v>
@@ -46789,7 +46789,7 @@
         <v>-3.335157899487901</v>
       </c>
       <c r="AI99">
-        <v>-0.007929208754208755</v>
+        <v>-0.007945297614655882</v>
       </c>
       <c r="AJ99">
         <v>-0.503577569524839</v>
@@ -46938,7 +46938,7 @@
         <v>-2.571111628229725</v>
       </c>
       <c r="AI100">
-        <v>-0.008262542087542088</v>
+        <v>-0.008261703864655882</v>
       </c>
       <c r="AJ100">
         <v>-1.760773644157811</v>
@@ -47027,7 +47027,7 @@
         <v>0.03769098949246408</v>
       </c>
       <c r="AI101">
-        <v>-0.01032087542087542</v>
+        <v>-0.01047515252537017</v>
       </c>
       <c r="AW101">
         <v>6.5</v>
@@ -47299,7 +47299,7 @@
         <v>7.030068561497573</v>
       </c>
       <c r="AI2">
-        <v>0.01092912457912458</v>
+        <v>0.01094201337324734</v>
       </c>
       <c r="AJ2">
         <v>1.943971012166603</v>
@@ -47451,7 +47451,7 @@
         <v>2.162979889789688</v>
       </c>
       <c r="AI3">
-        <v>0.01249579124579125</v>
+        <v>0.01250044271272507</v>
       </c>
       <c r="AJ3">
         <v>3.573903360677676</v>
@@ -47603,7 +47603,7 @@
         <v>0.6026703549602117</v>
       </c>
       <c r="AI4">
-        <v>0.01380412457912458</v>
+        <v>0.01379806176034413</v>
       </c>
       <c r="AJ4">
         <v>1.606450772325527</v>
@@ -47755,7 +47755,7 @@
         <v>-0.9690453180746034</v>
       </c>
       <c r="AI5">
-        <v>0.01001245791245792</v>
+        <v>0.01008412733411461</v>
       </c>
       <c r="AJ5">
         <v>1.469439594879773</v>
@@ -47907,7 +47907,7 @@
         <v>-2.129080249046173</v>
       </c>
       <c r="AI6">
-        <v>0.008462457912457914</v>
+        <v>0.008435561760344119</v>
       </c>
       <c r="AJ6">
         <v>-0.07423218461064494</v>
@@ -48059,7 +48059,7 @@
         <v>0.6947330498082935</v>
       </c>
       <c r="AI7">
-        <v>0.006654124579124579</v>
+        <v>0.006669093506375862</v>
       </c>
       <c r="AJ7">
         <v>0.8749398006763178</v>
@@ -48211,7 +48211,7 @@
         <v>0.1737521447732664</v>
       </c>
       <c r="AI8">
-        <v>0.005770791245791246</v>
+        <v>0.005763141125423484</v>
       </c>
       <c r="AJ8">
         <v>-0.8722289092771164</v>
@@ -48363,7 +48363,7 @@
         <v>0.7692291054115152</v>
       </c>
       <c r="AI9">
-        <v>0.005920791245791247</v>
+        <v>0.005907335953892506</v>
       </c>
       <c r="AJ9">
         <v>1.924379255555116</v>
@@ -48515,7 +48515,7 @@
         <v>-0.3605714881851284</v>
       </c>
       <c r="AI10">
-        <v>0.005245791245791245</v>
+        <v>0.005247228427010787</v>
       </c>
       <c r="AJ10">
         <v>0.08946328040320277</v>
@@ -48667,7 +48667,7 @@
         <v>-0.8040610321803894</v>
       </c>
       <c r="AI11">
-        <v>0.00335412457912458</v>
+        <v>0.003341030510344112</v>
       </c>
       <c r="AJ11">
         <v>0.03529478943955385</v>
@@ -48819,7 +48819,7 @@
         <v>0.3484615343210662</v>
       </c>
       <c r="AI12">
-        <v>0.001812457912457913</v>
+        <v>0.001814468010344121</v>
       </c>
       <c r="AJ12">
         <v>-0.3394502329336466</v>
@@ -48971,7 +48971,7 @@
         <v>-1.181205747286936</v>
       </c>
       <c r="AI13">
-        <v>0.001387457912457911</v>
+        <v>0.00137951337324734</v>
       </c>
       <c r="AJ13">
         <v>0.6389507243223675</v>
@@ -49123,7 +49123,7 @@
         <v>-0.7679471861528299</v>
       </c>
       <c r="AI14">
-        <v>0.001845791245791244</v>
+        <v>0.001843963399688377</v>
       </c>
       <c r="AJ14">
         <v>-2.448766293781741</v>
@@ -49275,7 +49275,7 @@
         <v>0.7674115920176277</v>
       </c>
       <c r="AI15">
-        <v>0.002145791245791244</v>
+        <v>0.002135363347645705</v>
       </c>
       <c r="AJ15">
         <v>1.358704597563786</v>
@@ -49427,7 +49427,7 @@
         <v>0.7222228365032826</v>
       </c>
       <c r="AI16">
-        <v>0.003112457912457914</v>
+        <v>0.003089858635344115</v>
       </c>
       <c r="AJ16">
         <v>1.544036886062381</v>
@@ -49579,7 +49579,7 @@
         <v>3.440702679963102</v>
       </c>
       <c r="AI17">
-        <v>0.002662457912457913</v>
+        <v>0.002671045631311859</v>
       </c>
       <c r="AJ17">
         <v>0.1278053788893364</v>
@@ -49731,7 +49731,7 @@
         <v>-2.732251424217574</v>
       </c>
       <c r="AI18">
-        <v>0.002312457912457912</v>
+        <v>0.00230612627647315</v>
       </c>
       <c r="AJ18">
         <v>-0.07086764081422642</v>
@@ -49883,7 +49883,7 @@
         <v>0.8361419439176918</v>
       </c>
       <c r="AI19">
-        <v>0.00352912457912458</v>
+        <v>0.003539728427010783</v>
       </c>
       <c r="AJ19">
         <v>1.565429479412046</v>
@@ -50035,7 +50035,7 @@
         <v>-0.9841076167496475</v>
       </c>
       <c r="AI20">
-        <v>0.005529124579124581</v>
+        <v>0.005538686760344115</v>
       </c>
       <c r="AJ20">
         <v>-0.3188984532778949</v>
@@ -50187,7 +50187,7 @@
         <v>1.337623594104196</v>
       </c>
       <c r="AI21">
-        <v>0.007320791245791245</v>
+        <v>0.007325110940671987</v>
       </c>
       <c r="AJ21">
         <v>1.167086974702332</v>
@@ -50339,7 +50339,7 @@
         <v>1.92359642698101</v>
       </c>
       <c r="AI22">
-        <v>0.009354124579124577</v>
+        <v>0.009364455202967071</v>
       </c>
       <c r="AJ22">
         <v>0.4554994901184618</v>
@@ -50491,7 +50491,7 @@
         <v>-1.083604906326291</v>
       </c>
       <c r="AI23">
-        <v>0.009029124579124574</v>
+        <v>0.009005874260344122</v>
       </c>
       <c r="AJ23">
         <v>-0.2281298267075077</v>
@@ -50643,7 +50643,7 @@
         <v>-0.8765680157268148</v>
       </c>
       <c r="AI24">
-        <v>0.007612457912457914</v>
+        <v>0.007615522077804433</v>
       </c>
       <c r="AJ24">
         <v>1.423650320612265</v>
@@ -50795,7 +50795,7 @@
         <v>-2.444208439406944</v>
       </c>
       <c r="AI25">
-        <v>0.007137457912457911</v>
+        <v>0.007126690792602183</v>
       </c>
       <c r="AJ25">
         <v>-1.802333380525778</v>
@@ -50947,7 +50947,7 @@
         <v>1.500547268993156</v>
       </c>
       <c r="AI26">
-        <v>0.00740412457912458</v>
+        <v>0.007406932728086055</v>
       </c>
       <c r="AJ26">
         <v>0.6094940649773659</v>
@@ -51099,7 +51099,7 @@
         <v>-2.220016267725854</v>
       </c>
       <c r="AI27">
-        <v>0.007370791245791247</v>
+        <v>0.007364728427010782</v>
       </c>
       <c r="AJ27">
         <v>-3.176520575850909</v>
@@ -51251,7 +51251,7 @@
         <v>-2.708502829313065</v>
       </c>
       <c r="AI28">
-        <v>0.006695791245791245</v>
+        <v>0.006690918903201261</v>
       </c>
       <c r="AJ28">
         <v>-1.350492145430522</v>
@@ -51403,7 +51403,7 @@
         <v>-6.123402739928753</v>
       </c>
       <c r="AI29">
-        <v>0.005479124579124577</v>
+        <v>0.005485158534537668</v>
       </c>
       <c r="AJ29">
         <v>-3.046577870334768</v>
@@ -51555,7 +51555,7 @@
         <v>-4.049845107855207</v>
       </c>
       <c r="AI30">
-        <v>0.003062457912457912</v>
+        <v>0.003069728427010782</v>
       </c>
       <c r="AJ30">
         <v>-3.931926860693991</v>
@@ -51707,7 +51707,7 @@
         <v>-1.229197753336168</v>
       </c>
       <c r="AI31">
-        <v>0.001904124579124578</v>
+        <v>0.001898843010344113</v>
       </c>
       <c r="AJ31">
         <v>-0.7958221338528745</v>
@@ -51859,7 +51859,7 @@
         <v>1.225616988349904</v>
       </c>
       <c r="AI32">
-        <v>0.001445791245791243</v>
+        <v>0.001446499260344122</v>
       </c>
       <c r="AJ32">
         <v>-0.3978270266828355</v>
@@ -52011,7 +52011,7 @@
         <v>0.5890632585311828</v>
       </c>
       <c r="AI33">
-        <v>-0.0006458754208754202</v>
+        <v>-0.0006293575944945895</v>
       </c>
       <c r="AJ33">
         <v>-0.652904320197457</v>
@@ -52163,7 +52163,7 @@
         <v>-1.670518733675126</v>
       </c>
       <c r="AI34">
-        <v>-0.002262542087542087</v>
+        <v>-0.00225476082030104</v>
       </c>
       <c r="AJ34">
         <v>0.180927500250527</v>
@@ -52315,7 +52315,7 @@
         <v>3.408490536249762</v>
       </c>
       <c r="AI35">
-        <v>-0.002795875420875421</v>
+        <v>-0.002802335065052709</v>
       </c>
       <c r="AJ35">
         <v>3.379654650556005</v>
@@ -52467,7 +52467,7 @@
         <v>0.4532322693493553</v>
       </c>
       <c r="AI36">
-        <v>-0.004287542087542087</v>
+        <v>-0.004292953864655887</v>
       </c>
       <c r="AJ36">
         <v>1.226295659539301</v>
@@ -52619,7 +52619,7 @@
         <v>1.767215483400073</v>
       </c>
       <c r="AI37">
-        <v>-0.004320875420875421</v>
+        <v>-0.004326535013849432</v>
       </c>
       <c r="AJ37">
         <v>2.806471662652998</v>
@@ -52771,7 +52771,7 @@
         <v>0.9054722630330982</v>
       </c>
       <c r="AI38">
-        <v>-0.004595875420875422</v>
+        <v>-0.004601938239655882</v>
       </c>
       <c r="AJ38">
         <v>0.3482218508723782</v>
@@ -52923,7 +52923,7 @@
         <v>0.9587561550069876</v>
       </c>
       <c r="AI39">
-        <v>-0.004579208754208754</v>
+        <v>-0.00458289062060826</v>
       </c>
       <c r="AJ39">
         <v>1.974489001589338</v>
@@ -53075,7 +53075,7 @@
         <v>-0.4924435523444584</v>
       </c>
       <c r="AI40">
-        <v>-0.004487542087542086</v>
+        <v>-0.004498813239655884</v>
       </c>
       <c r="AJ40">
         <v>1.558632306108256</v>
@@ -53227,7 +53227,7 @@
         <v>3.476032884566335</v>
       </c>
       <c r="AI41">
-        <v>-0.00434587542087542</v>
+        <v>-0.004353551142881686</v>
       </c>
       <c r="AJ41">
         <v>4.002583620101161</v>
@@ -53382,7 +53382,7 @@
         <v>2.74202571255674</v>
       </c>
       <c r="AI42">
-        <v>-0.003887542087542087</v>
+        <v>-0.003860809207397816</v>
       </c>
       <c r="AJ42">
         <v>1.19449949681857</v>
@@ -53537,7 +53537,7 @@
         <v>3.299104397880975</v>
       </c>
       <c r="AI43">
-        <v>-0.002029208754208754</v>
+        <v>-0.002004357594494589</v>
       </c>
       <c r="AJ43">
         <v>2.273549848980956</v>
@@ -53692,7 +53692,7 @@
         <v>-1.375081038479786</v>
       </c>
       <c r="AI44">
-        <v>-0.0008042087542087552</v>
+        <v>-0.0008007663646558815</v>
       </c>
       <c r="AJ44">
         <v>0.781348056947293</v>
@@ -53847,7 +53847,7 @@
         <v>3.18468399926409</v>
       </c>
       <c r="AI45">
-        <v>0.001204124579124579</v>
+        <v>0.001203799465262148</v>
       </c>
       <c r="AJ45">
         <v>2.452077621394875</v>
@@ -54002,7 +54002,7 @@
         <v>-0.8705247098522693</v>
       </c>
       <c r="AI46">
-        <v>0.002345791245791247</v>
+        <v>0.002336368211957025</v>
       </c>
       <c r="AJ46">
         <v>2.020106542859495</v>
@@ -54157,7 +54157,7 @@
         <v>-2.432402590732875</v>
       </c>
       <c r="AI47">
-        <v>0.001995791245791245</v>
+        <v>0.001983776046058401</v>
       </c>
       <c r="AJ47">
         <v>-0.4129026866601077</v>
@@ -54312,7 +54312,7 @@
         <v>-0.6323482813588386</v>
       </c>
       <c r="AI48">
-        <v>0.001420791245791246</v>
+        <v>0.001417506204788564</v>
       </c>
       <c r="AJ48">
         <v>1.03095476407675</v>
@@ -54467,7 +54467,7 @@
         <v>1.116602016466396</v>
       </c>
       <c r="AI49">
-        <v>0.001154124579124581</v>
+        <v>0.001151287566795726</v>
       </c>
       <c r="AJ49">
         <v>1.569675223794947</v>
@@ -54622,7 +54622,7 @@
         <v>-0.003040642687496709</v>
       </c>
       <c r="AI50">
-        <v>0.0003291245791245782</v>
+        <v>0.0003234649861505682</v>
       </c>
       <c r="AJ50">
         <v>1.562039662746291</v>
@@ -54777,7 +54777,7 @@
         <v>2.848253491184645</v>
       </c>
       <c r="AI51">
-        <v>0.0005541245791245777</v>
+        <v>0.0005433742603441188</v>
       </c>
       <c r="AJ51">
         <v>2.562862850865045</v>
@@ -54932,7 +54932,7 @@
         <v>1.721007449940528</v>
       </c>
       <c r="AI52">
-        <v>0.0007457912457912459</v>
+        <v>0.0007390773853441154</v>
       </c>
       <c r="AJ52">
         <v>2.110076929637274</v>
@@ -55087,7 +55087,7 @@
         <v>-0.441559493883208</v>
       </c>
       <c r="AI53">
-        <v>0.0004457912457912459</v>
+        <v>0.0004319327280860562</v>
       </c>
       <c r="AJ53">
         <v>1.183671128531956</v>
@@ -55242,7 +55242,7 @@
         <v>1.289675718493553</v>
       </c>
       <c r="AI54">
-        <v>0.0006541245791245789</v>
+        <v>0.0006522284270107856</v>
       </c>
       <c r="AJ54">
         <v>1.241725711886991</v>
@@ -55397,7 +55397,7 @@
         <v>1.824785792588486</v>
       </c>
       <c r="AI55">
-        <v>0.0006207912457912457</v>
+        <v>0.0006203273853441146</v>
       </c>
       <c r="AJ55">
         <v>1.664767369811909</v>
@@ -55552,7 +55552,7 @@
         <v>1.728116878783118</v>
       </c>
       <c r="AI56">
-        <v>0.0006207912457912457</v>
+        <v>0.0006207180103441189</v>
       </c>
       <c r="AJ56">
         <v>3.536009884732796</v>
@@ -55707,7 +55707,7 @@
         <v>0.3955477682542561</v>
       </c>
       <c r="AI57">
-        <v>0.0007291245791245793</v>
+        <v>0.0007218520829247611</v>
       </c>
       <c r="AJ57">
         <v>0.3579188188123306</v>
@@ -55862,7 +55862,7 @@
         <v>1.770087943112917</v>
       </c>
       <c r="AI58">
-        <v>0.000637457912457914</v>
+        <v>0.0006238814324752637</v>
       </c>
       <c r="AJ58">
         <v>2.20524444525494</v>
@@ -56017,7 +56017,7 @@
         <v>-1.307964671788742</v>
       </c>
       <c r="AI59">
-        <v>0.0004457912457912459</v>
+        <v>0.0004333792206615786</v>
       </c>
       <c r="AJ59">
         <v>2.480654492716167</v>
@@ -56172,7 +56172,7 @@
         <v>0.9851509230945361</v>
       </c>
       <c r="AI60">
-        <v>6.245791245791145e-05</v>
+        <v>6.368676034411956e-05</v>
       </c>
       <c r="AJ60">
         <v>1.001319436670689</v>
@@ -56327,7 +56327,7 @@
         <v>2.306220995535898</v>
       </c>
       <c r="AI61">
-        <v>-0.001362542087542086</v>
+        <v>-0.001370083400946208</v>
       </c>
       <c r="AJ61">
         <v>2.543762250441393</v>
@@ -56482,7 +56482,7 @@
         <v>0.4825898487255247</v>
       </c>
       <c r="AI62">
-        <v>-0.0009792087542087533</v>
+        <v>-0.0009839054527706372</v>
       </c>
       <c r="AJ62">
         <v>1.340622187348737</v>
@@ -56637,7 +56637,7 @@
         <v>-0.06616567185623756</v>
       </c>
       <c r="AI63">
-        <v>-0.0008625420875420873</v>
+        <v>-0.0008765476146558801</v>
       </c>
       <c r="AJ63">
         <v>1.981967068296073</v>
@@ -56792,7 +56792,7 @@
         <v>0.9919983060905604</v>
       </c>
       <c r="AI64">
-        <v>-0.0003708754208754227</v>
+        <v>-0.0003753757396558824</v>
       </c>
       <c r="AJ64">
         <v>1.428713672824215</v>
@@ -56947,7 +56947,7 @@
         <v>1.263873298195484</v>
       </c>
       <c r="AI65">
-        <v>0.0006124579124579116</v>
+        <v>0.0006170133732473406</v>
       </c>
       <c r="AJ65">
         <v>0.1890346087097386</v>
@@ -57102,7 +57102,7 @@
         <v>-0.09191426019733751</v>
       </c>
       <c r="AI66">
-        <v>0.001804124579124581</v>
+        <v>0.001819887157169518</v>
       </c>
       <c r="AJ66">
         <v>2.447679035279164</v>
@@ -57257,7 +57257,7 @@
         <v>2.171930039260291</v>
       </c>
       <c r="AI67">
-        <v>0.002287457912457914</v>
+        <v>0.002284172871455234</v>
       </c>
       <c r="AJ67">
         <v>2.094157905868215</v>
@@ -57412,7 +57412,7 @@
         <v>-2.148531719862603</v>
       </c>
       <c r="AI68">
-        <v>0.003045791245791246</v>
+        <v>0.003046474458756821</v>
       </c>
       <c r="AJ68">
         <v>-0.1528953006048725</v>
@@ -57567,7 +57567,7 @@
         <v>-1.575643306915607</v>
       </c>
       <c r="AI69">
-        <v>0.003045791245791246</v>
+        <v>0.003047658534537668</v>
       </c>
       <c r="AJ69">
         <v>-0.03663235316105271</v>
@@ -57722,7 +57722,7 @@
         <v>-3.208708262124605</v>
       </c>
       <c r="AI70">
-        <v>4.579124579124662e-05</v>
+        <v>2.023917969895365e-05</v>
       </c>
       <c r="AJ70">
         <v>-1.538339588391239</v>
@@ -57877,7 +57877,7 @@
         <v>-2.556055437841973</v>
       </c>
       <c r="AI71">
-        <v>-0.002845875420875421</v>
+        <v>-0.002863446176163818</v>
       </c>
       <c r="AJ71">
         <v>-2.594868245490738</v>
@@ -58032,7 +58032,7 @@
         <v>-2.547212888326966</v>
       </c>
       <c r="AI72">
-        <v>-0.004070875420875421</v>
+        <v>-0.003972430042934568</v>
       </c>
       <c r="AJ72">
         <v>-0.9903751978240094</v>
@@ -58187,7 +58187,7 @@
         <v>-2.141708976048144</v>
       </c>
       <c r="AI73">
-        <v>-0.007229208754208754</v>
+        <v>-0.007216454368688141</v>
       </c>
       <c r="AJ73">
         <v>-3.206321040058473</v>
@@ -58342,7 +58342,7 @@
         <v>-0.1550375093226837</v>
       </c>
       <c r="AI74">
-        <v>-0.007687542087542088</v>
+        <v>-0.007700271572989217</v>
       </c>
       <c r="AJ74">
         <v>-2.132128903562652</v>
@@ -58497,7 +58497,7 @@
         <v>-0.7298871926093722</v>
       </c>
       <c r="AI75">
-        <v>-0.007704208754208754</v>
+        <v>-0.007717172614655883</v>
       </c>
       <c r="AJ75">
         <v>-0.6060852312729975</v>
@@ -58652,7 +58652,7 @@
         <v>0.5275391069589228</v>
       </c>
       <c r="AI76">
-        <v>-0.007887542087542087</v>
+        <v>-0.00789412573965588</v>
       </c>
       <c r="AJ76">
         <v>-0.5145264218908784</v>
@@ -58807,7 +58807,7 @@
         <v>-1.623654514110159</v>
       </c>
       <c r="AI77">
-        <v>-0.008662542087542087</v>
+        <v>-0.008645486626752656</v>
       </c>
       <c r="AJ77">
         <v>-0.1711308481236317</v>
@@ -58962,7 +58962,7 @@
         <v>-1.319419470965475</v>
       </c>
       <c r="AI78">
-        <v>-0.009104208754208755</v>
+        <v>-0.009115052993754244</v>
       </c>
       <c r="AJ78">
         <v>-0.1093019040737192</v>
@@ -59117,7 +59117,7 @@
         <v>0.2666346840694096</v>
       </c>
       <c r="AI79">
-        <v>-0.009395875420875421</v>
+        <v>-0.009403922366640009</v>
       </c>
       <c r="AJ79">
         <v>2.013152112984366</v>
@@ -59272,7 +59272,7 @@
         <v>2.686383197971759</v>
       </c>
       <c r="AI80">
-        <v>-0.00967087542087542</v>
+        <v>-0.009681235114655882</v>
       </c>
       <c r="AJ80">
         <v>3.014545736028002</v>
@@ -59427,7 +59427,7 @@
         <v>0.5007871721750123</v>
       </c>
       <c r="AI81">
-        <v>-0.009704208754208753</v>
+        <v>-0.009712825336430076</v>
       </c>
       <c r="AJ81">
         <v>1.670942269301873</v>
@@ -59582,7 +59582,7 @@
         <v>0.279945643642405</v>
       </c>
       <c r="AI82">
-        <v>-0.009704208754208753</v>
+        <v>-0.009711615659010721</v>
       </c>
       <c r="AJ82">
         <v>0.0331151268797816</v>
@@ -59737,7 +59737,7 @@
         <v>2.806763354121686</v>
       </c>
       <c r="AI83">
-        <v>-0.009304208754208754</v>
+        <v>-0.009304760820301043</v>
       </c>
       <c r="AJ83">
         <v>3.2576270464653</v>
@@ -59892,7 +59892,7 @@
         <v>1.123342418485222</v>
       </c>
       <c r="AI84">
-        <v>-0.008279208754208754</v>
+        <v>-0.008281235114655882</v>
       </c>
       <c r="AJ84">
         <v>2.597296843242843</v>
@@ -60047,7 +60047,7 @@
         <v>1.098627599855692</v>
       </c>
       <c r="AI85">
-        <v>-0.006979208754208755</v>
+        <v>-0.006972905981591366</v>
       </c>
       <c r="AJ85">
         <v>1.92999179424911</v>
@@ -60202,7 +60202,7 @@
         <v>1.113726659702714</v>
       </c>
       <c r="AI86">
-        <v>-0.005654208754208754</v>
+        <v>-0.00564292184621326</v>
       </c>
       <c r="AJ86">
         <v>1.44361486593121</v>
@@ -60357,7 +60357,7 @@
         <v>-0.5065198153523311</v>
       </c>
       <c r="AI87">
-        <v>-0.004837542087542088</v>
+        <v>-0.004835141364655881</v>
       </c>
       <c r="AJ87">
         <v>2.345274372145874</v>
@@ -60512,7 +60512,7 @@
         <v>0.4381979343824849</v>
       </c>
       <c r="AI88">
-        <v>-0.003595875420875421</v>
+        <v>-0.003593344489655885</v>
       </c>
       <c r="AJ88">
         <v>1.584030116583909</v>
@@ -60667,7 +60667,7 @@
         <v>0.6078829830520323</v>
       </c>
       <c r="AI89">
-        <v>-0.002429208754208755</v>
+        <v>-0.002436364469164077</v>
       </c>
       <c r="AJ89">
         <v>1.042958997385506</v>
@@ -60822,7 +60822,7 @@
         <v>2.052607982260656</v>
       </c>
       <c r="AI90">
-        <v>-0.001012542087542086</v>
+        <v>-0.001004760820301044</v>
       </c>
       <c r="AJ90">
         <v>2.35581168259797</v>
@@ -60977,7 +60977,7 @@
         <v>-0.5773757796108625</v>
       </c>
       <c r="AI91">
-        <v>-0.0002375420875420885</v>
+        <v>-0.0002313033190209559</v>
       </c>
       <c r="AJ91">
         <v>-0.4769764071501741</v>
@@ -61132,7 +61132,7 @@
         <v>-1.679493707575854</v>
       </c>
       <c r="AI92">
-        <v>0.0002707912457912444</v>
+        <v>0.0002651252524076084</v>
       </c>
       <c r="AJ92">
         <v>-1.536964619751223</v>
@@ -61287,7 +61287,7 @@
         <v>-3.27604274729025</v>
       </c>
       <c r="AI93">
-        <v>0.000262457912457912</v>
+        <v>0.0002569327280860512</v>
       </c>
       <c r="AJ93">
         <v>-1.726244234551393</v>
@@ -61442,7 +61442,7 @@
         <v>-1.899333665455991</v>
       </c>
       <c r="AI94">
-        <v>0.0004624579124579142</v>
+        <v>0.0004436262764731559</v>
       </c>
       <c r="AJ94">
         <v>-1.485104278533823</v>
@@ -61597,7 +61597,7 @@
         <v>0.01307600940145548</v>
       </c>
       <c r="AI95">
-        <v>-0.0001542087542087522</v>
+        <v>-0.000158188239655889</v>
       </c>
       <c r="AJ95">
         <v>0.1868152725566</v>
@@ -61752,7 +61752,7 @@
         <v>-0.626509355709069</v>
       </c>
       <c r="AI96">
-        <v>-0.001237542087542086</v>
+        <v>-0.001214636652354294</v>
       </c>
       <c r="AJ96">
         <v>-0.7093369493827227</v>
@@ -61907,7 +61907,7 @@
         <v>-3.50402116428538</v>
       </c>
       <c r="AI97">
-        <v>-0.003520875420875421</v>
+        <v>-0.003487422110623627</v>
       </c>
       <c r="AJ97">
         <v>-1.996807815347466</v>
@@ -62062,7 +62062,7 @@
         <v>-2.702185337542139</v>
       </c>
       <c r="AI98">
-        <v>-0.006887542087542087</v>
+        <v>-0.006856036600311618</v>
       </c>
       <c r="AJ98">
         <v>-2.160553501612355</v>
@@ -62217,7 +62217,7 @@
         <v>-3.335157899487901</v>
       </c>
       <c r="AI99">
-        <v>-0.007929208754208755</v>
+        <v>-0.007945297614655882</v>
       </c>
       <c r="AJ99">
         <v>-0.503577569524839</v>
@@ -62366,7 +62366,7 @@
         <v>-2.571111628229725</v>
       </c>
       <c r="AI100">
-        <v>-0.008262542087542088</v>
+        <v>-0.008261703864655882</v>
       </c>
       <c r="AJ100">
         <v>-1.760773644157811</v>
@@ -62467,7 +62467,7 @@
         <v>0.03769098949246408</v>
       </c>
       <c r="AI101">
-        <v>-0.01032087542087542</v>
+        <v>-0.01047515252537017</v>
       </c>
       <c r="AM101">
         <v>-1.520244215918638</v>
